--- a/docs/Comparison.xlsx
+++ b/docs/Comparison.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="22110" windowHeight="9402"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="22110" windowHeight="9402"/>
   </bookViews>
   <sheets>
     <sheet name="Graphs" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
   <si>
     <t>Processors(NP)</t>
   </si>
@@ -207,17 +207,17 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1403,7 +1403,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1537,6 +1536,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="15000"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -6210,7 +6210,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -6225,7 +6225,7 @@
   <dimension ref="B2:W116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -6253,10 +6253,10 @@
       <c r="B5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="22"/>
+      <c r="D5" s="25"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="16" t="s">
@@ -6330,7 +6330,7 @@
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="17">
-        <f>B7*2</f>
+        <f t="shared" ref="B8:B18" si="0">B7*2</f>
         <v>2</v>
       </c>
       <c r="C8" s="6">
@@ -6368,7 +6368,7 @@
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="17">
-        <f>B8*2</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C9" s="6">
@@ -6406,7 +6406,7 @@
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="17">
-        <f>B9*2</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C10" s="6">
@@ -6444,7 +6444,7 @@
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="17">
-        <f>B10*2</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="C11" s="6">
@@ -6482,7 +6482,7 @@
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="17">
-        <f>B11*2</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="C12" s="6">
@@ -6520,7 +6520,7 @@
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="17">
-        <f>B12*2</f>
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="C13" s="6">
@@ -6558,7 +6558,7 @@
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="17">
-        <f>B13*2</f>
+        <f t="shared" si="0"/>
         <v>128</v>
       </c>
       <c r="C14" s="6">
@@ -6596,7 +6596,7 @@
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="17">
-        <f>B14*2</f>
+        <f t="shared" si="0"/>
         <v>256</v>
       </c>
       <c r="C15" s="6">
@@ -6634,7 +6634,7 @@
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="17">
-        <f>B15*2</f>
+        <f t="shared" si="0"/>
         <v>512</v>
       </c>
       <c r="C16" s="6">
@@ -6676,7 +6676,7 @@
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="17">
-        <f>B16*2</f>
+        <f t="shared" si="0"/>
         <v>1024</v>
       </c>
       <c r="C17" s="6">
@@ -6714,7 +6714,7 @@
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="17">
-        <f>B17*2</f>
+        <f t="shared" si="0"/>
         <v>2048</v>
       </c>
       <c r="C18" s="6">
@@ -6756,7 +6756,7 @@
       <c r="D19" s="14"/>
     </row>
     <row r="20" spans="2:10" ht="25.8" x14ac:dyDescent="0.95">
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="20" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="14"/>
@@ -6766,17 +6766,17 @@
       <c r="B22" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="D22" s="22"/>
+      <c r="D22" s="25"/>
       <c r="E22"/>
       <c r="F22"/>
       <c r="G22"/>
-      <c r="H22" s="20" t="s">
+      <c r="H22" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="I22" s="20"/>
+      <c r="I22" s="26"/>
       <c r="J22" s="6">
         <f>$C$7</f>
         <v>13205.4</v>
@@ -6786,28 +6786,28 @@
       <c r="B23" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="23">
+      <c r="C23" s="21">
         <v>1</v>
       </c>
       <c r="D23" s="15">
         <v>2</v>
       </c>
-      <c r="E23" s="24">
+      <c r="E23" s="22">
         <v>3</v>
       </c>
-      <c r="F23" s="24">
+      <c r="F23" s="22">
         <v>4</v>
       </c>
-      <c r="G23" s="24">
+      <c r="G23" s="22">
         <v>5</v>
       </c>
-      <c r="H23" s="24">
+      <c r="H23" s="22">
         <v>6</v>
       </c>
-      <c r="I23" s="24">
+      <c r="I23" s="22">
         <v>7</v>
       </c>
-      <c r="J23" s="24">
+      <c r="J23" s="22">
         <v>8</v>
       </c>
     </row>
@@ -6816,453 +6816,453 @@
         <v>1</v>
       </c>
       <c r="C24" s="5">
-        <f>$J$22/C7</f>
+        <f t="shared" ref="C24:J35" si="1">$J$22/C7</f>
         <v>1</v>
       </c>
       <c r="D24" s="5">
-        <f>$J$22/D7</f>
+        <f t="shared" si="1"/>
         <v>0.99681451734653814</v>
       </c>
       <c r="E24" s="5">
-        <f>$J$22/E7</f>
+        <f t="shared" si="1"/>
         <v>1.0137101974391256</v>
       </c>
       <c r="F24" s="5">
-        <f>$J$22/F7</f>
+        <f t="shared" si="1"/>
         <v>1.0119545726240287</v>
       </c>
       <c r="G24" s="5">
-        <f>$J$22/G7</f>
+        <f t="shared" si="1"/>
         <v>1.0464530239634842</v>
       </c>
       <c r="H24" s="5">
-        <f>$J$22/H7</f>
+        <f t="shared" si="1"/>
         <v>1.0584981884638813</v>
       </c>
       <c r="I24" s="5">
-        <f>$J$22/I7</f>
+        <f t="shared" si="1"/>
         <v>1.0124045508908583</v>
       </c>
       <c r="J24" s="5">
-        <f>$J$22/J7</f>
+        <f t="shared" si="1"/>
         <v>1.0363353842290306</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="17">
-        <f>B24*2</f>
+        <f t="shared" ref="B25:B35" si="2">B24*2</f>
         <v>2</v>
       </c>
       <c r="C25" s="5">
-        <f>$J$22/C8</f>
+        <f t="shared" si="1"/>
         <v>1.0456741048097176</v>
       </c>
       <c r="D25" s="5">
-        <f>$J$22/D8</f>
+        <f t="shared" si="1"/>
         <v>1.1191775713607701</v>
       </c>
       <c r="E25" s="5">
-        <f>$J$22/E8</f>
+        <f t="shared" si="1"/>
         <v>1.1400279710620371</v>
       </c>
       <c r="F25" s="5">
-        <f>$J$22/F8</f>
+        <f t="shared" si="1"/>
         <v>1.162897601183557</v>
       </c>
       <c r="G25" s="5">
-        <f>$J$22/G8</f>
+        <f t="shared" si="1"/>
         <v>1.181057150523209</v>
       </c>
       <c r="H25" s="5">
-        <f>$J$22/H8</f>
+        <f t="shared" si="1"/>
         <v>1.177539591953203</v>
       </c>
       <c r="I25" s="5">
-        <f>$J$22/I8</f>
+        <f t="shared" si="1"/>
         <v>1.1584497157695275</v>
       </c>
       <c r="J25" s="5">
-        <f>$J$22/J8</f>
+        <f t="shared" si="1"/>
         <v>1.1575763950980908</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="17">
-        <f>B25*2</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="C26" s="5">
-        <f>$J$22/C9</f>
+        <f t="shared" si="1"/>
         <v>1.1609959381758717</v>
       </c>
       <c r="D26" s="5">
-        <f>$J$22/D9</f>
+        <f t="shared" si="1"/>
         <v>1.5852440517634629</v>
       </c>
       <c r="E26" s="5">
-        <f>$J$22/E9</f>
+        <f t="shared" si="1"/>
         <v>1.7504970969537899</v>
       </c>
       <c r="F26" s="5">
-        <f>$J$22/F9</f>
+        <f t="shared" si="1"/>
         <v>1.7231777018033771</v>
       </c>
       <c r="G26" s="5">
-        <f>$J$22/G9</f>
+        <f t="shared" si="1"/>
         <v>1.7295421207041073</v>
       </c>
       <c r="H26" s="5">
-        <f>$J$22/H9</f>
+        <f t="shared" si="1"/>
         <v>1.7214704732107939</v>
       </c>
       <c r="I26" s="5">
-        <f>$J$22/I9</f>
+        <f t="shared" si="1"/>
         <v>1.7339023109243696</v>
       </c>
       <c r="J26" s="5">
-        <f>$J$22/J9</f>
+        <f t="shared" si="1"/>
         <v>1.7239875714770621</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="17">
-        <f>B26*2</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="C27" s="5">
-        <f>$J$22/C10</f>
+        <f t="shared" si="1"/>
         <v>1.4412284722676969</v>
       </c>
       <c r="D27" s="5">
-        <f>$J$22/D10</f>
+        <f t="shared" si="1"/>
         <v>2.2533274179236913</v>
       </c>
       <c r="E27" s="5">
-        <f>$J$22/E10</f>
+        <f t="shared" si="1"/>
         <v>2.7162662497943062</v>
       </c>
       <c r="F27" s="5">
-        <f>$J$22/F10</f>
+        <f t="shared" si="1"/>
         <v>2.819618226075074</v>
       </c>
       <c r="G27" s="5">
-        <f>$J$22/G10</f>
+        <f t="shared" si="1"/>
         <v>2.9511911679256242</v>
       </c>
       <c r="H27" s="5">
-        <f>$J$22/H10</f>
+        <f t="shared" si="1"/>
         <v>2.9002459808486338</v>
       </c>
       <c r="I27" s="5">
-        <f>$J$22/I10</f>
+        <f t="shared" si="1"/>
         <v>3.1093477748999292</v>
       </c>
       <c r="J27" s="5">
-        <f>$J$22/J10</f>
+        <f t="shared" si="1"/>
         <v>2.8044087665647295</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="17">
-        <f>B27*2</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="C28" s="5">
-        <f>$J$22/C11</f>
+        <f t="shared" si="1"/>
         <v>1.6099041767244531</v>
       </c>
       <c r="D28" s="5">
-        <f>$J$22/D11</f>
+        <f t="shared" si="1"/>
         <v>2.7628671855385387</v>
       </c>
       <c r="E28" s="5">
-        <f>$J$22/E11</f>
+        <f t="shared" si="1"/>
         <v>3.7523869061150261</v>
       </c>
       <c r="F28" s="5">
-        <f>$J$22/F11</f>
+        <f t="shared" si="1"/>
         <v>4.2222151170226372</v>
       </c>
       <c r="G28" s="5">
-        <f>$J$22/G11</f>
+        <f t="shared" si="1"/>
         <v>3.8841696570386488</v>
       </c>
       <c r="H28" s="5">
-        <f>$J$22/H11</f>
+        <f t="shared" si="1"/>
         <v>3.9765719103830399</v>
       </c>
       <c r="I28" s="5">
-        <f>$J$22/I11</f>
+        <f t="shared" si="1"/>
         <v>3.9136387884535595</v>
       </c>
       <c r="J28" s="5">
-        <f>$J$22/J11</f>
+        <f t="shared" si="1"/>
         <v>3.7048030524071369</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="17">
-        <f>B28*2</f>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="C29" s="5">
-        <f>$J$22/C12</f>
+        <f t="shared" si="1"/>
         <v>1.6480792751416518</v>
       </c>
       <c r="D29" s="5">
-        <f>$J$22/D12</f>
+        <f t="shared" si="1"/>
         <v>3.0298733480176212</v>
       </c>
       <c r="E29" s="5">
-        <f>$J$22/E12</f>
+        <f t="shared" si="1"/>
         <v>3.8097628526917084</v>
       </c>
       <c r="F29" s="5">
-        <f>$J$22/F12</f>
+        <f t="shared" si="1"/>
         <v>5.5822624281366249</v>
       </c>
       <c r="G29" s="5">
-        <f>$J$22/G12</f>
+        <f t="shared" si="1"/>
         <v>5.3089169413845783</v>
       </c>
       <c r="H29" s="5">
-        <f>$J$22/H12</f>
+        <f t="shared" si="1"/>
         <v>5.0383059900801221</v>
       </c>
       <c r="I29" s="5">
-        <f>$J$22/I12</f>
+        <f t="shared" si="1"/>
         <v>4.536690944070358</v>
       </c>
       <c r="J29" s="5">
-        <f>$J$22/J12</f>
+        <f t="shared" si="1"/>
         <v>4.1349574148296595</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="17">
-        <f>B29*2</f>
+        <f t="shared" si="2"/>
         <v>64</v>
       </c>
       <c r="C30" s="5">
-        <f>$J$22/C13</f>
+        <f t="shared" si="1"/>
         <v>1.6311823706704875</v>
       </c>
       <c r="D30" s="5">
-        <f>$J$22/D13</f>
+        <f t="shared" si="1"/>
         <v>3.0744552058111378</v>
       </c>
       <c r="E30" s="5">
-        <f>$J$22/E13</f>
+        <f t="shared" si="1"/>
         <v>4.635750895176578</v>
       </c>
       <c r="F30" s="5">
-        <f>$J$22/F13</f>
+        <f t="shared" si="1"/>
         <v>5.8055921920337639</v>
       </c>
       <c r="G30" s="5">
-        <f>$J$22/G13</f>
+        <f t="shared" si="1"/>
         <v>5.4058457507777957</v>
       </c>
       <c r="H30" s="5">
-        <f>$J$22/H13</f>
+        <f t="shared" si="1"/>
         <v>5.3050779366864855</v>
       </c>
       <c r="I30" s="5">
-        <f>$J$22/I13</f>
+        <f t="shared" si="1"/>
         <v>4.9978805540837179</v>
       </c>
       <c r="J30" s="5">
-        <f>$J$22/J13</f>
+        <f t="shared" si="1"/>
         <v>4.4827890556045888</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="17">
-        <f>B30*2</f>
+        <f t="shared" si="2"/>
         <v>128</v>
       </c>
       <c r="C31" s="5">
-        <f>$J$22/C14</f>
+        <f t="shared" si="1"/>
         <v>1.6497264073157933</v>
       </c>
       <c r="D31" s="5">
-        <f>$J$22/D14</f>
+        <f t="shared" si="1"/>
         <v>3.0947738457932972</v>
       </c>
       <c r="E31" s="5">
-        <f>$J$22/E14</f>
+        <f t="shared" si="1"/>
         <v>4.5529582126603225</v>
       </c>
       <c r="F31" s="5">
-        <f>$J$22/F14</f>
+        <f t="shared" si="1"/>
         <v>5.6476777007954837</v>
       </c>
       <c r="G31" s="5">
-        <f>$J$22/G14</f>
+        <f t="shared" si="1"/>
         <v>5.5723689762849178</v>
       </c>
       <c r="H31" s="5">
-        <f>$J$22/H14</f>
+        <f t="shared" si="1"/>
         <v>5.4196010834769766</v>
       </c>
       <c r="I31" s="5">
-        <f>$J$22/I14</f>
+        <f t="shared" si="1"/>
         <v>5.0727566072526127</v>
       </c>
       <c r="J31" s="5">
-        <f>$J$22/J14</f>
+        <f t="shared" si="1"/>
         <v>4.5589311606711318</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="17">
-        <f>B31*2</f>
+        <f t="shared" si="2"/>
         <v>256</v>
       </c>
       <c r="C32" s="5">
-        <f>$J$22/C15</f>
+        <f t="shared" si="1"/>
         <v>1.5599262881848466</v>
       </c>
       <c r="D32" s="5">
-        <f>$J$22/D15</f>
+        <f t="shared" si="1"/>
         <v>2.9783481438044115</v>
       </c>
       <c r="E32" s="5">
-        <f>$J$22/E15</f>
+        <f t="shared" si="1"/>
         <v>4.5986209778520681</v>
       </c>
       <c r="F32" s="5">
-        <f>$J$22/F15</f>
+        <f t="shared" si="1"/>
         <v>5.7933666754409048</v>
       </c>
       <c r="G32" s="5">
-        <f>$J$22/G15</f>
+        <f t="shared" si="1"/>
         <v>5.6289002557544752</v>
       </c>
       <c r="H32" s="5">
-        <f>$J$22/H15</f>
+        <f t="shared" si="1"/>
         <v>5.4730603448275854</v>
       </c>
       <c r="I32" s="5">
-        <f>$J$22/I15</f>
+        <f t="shared" si="1"/>
         <v>5.1295059042883775</v>
       </c>
       <c r="J32" s="5">
-        <f>$J$22/J15</f>
+        <f t="shared" si="1"/>
         <v>4.55798702195223</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="17">
-        <f>B32*2</f>
+        <f t="shared" si="2"/>
         <v>512</v>
       </c>
       <c r="C33" s="5">
-        <f>$J$22/C16</f>
+        <f t="shared" si="1"/>
         <v>1.3945634266886324</v>
       </c>
       <c r="D33" s="5">
-        <f>$J$22/D16</f>
+        <f t="shared" si="1"/>
         <v>2.6227209533267128</v>
       </c>
       <c r="E33" s="5">
-        <f>$J$22/E16</f>
+        <f t="shared" si="1"/>
         <v>3.9553705145869524</v>
       </c>
       <c r="F33" s="5">
-        <f>$J$22/F16</f>
+        <f t="shared" si="1"/>
         <v>5.3059305689488907</v>
       </c>
       <c r="G33" s="5">
-        <f>$J$22/G16</f>
+        <f t="shared" si="1"/>
         <v>5.3381033228231862</v>
       </c>
       <c r="H33" s="5">
-        <f>$J$22/H16</f>
+        <f t="shared" si="1"/>
         <v>4.9914575143634714</v>
       </c>
       <c r="I33" s="5">
-        <f>$J$22/I16</f>
+        <f t="shared" si="1"/>
         <v>4.9295953411975511</v>
       </c>
       <c r="J33" s="5">
-        <f>$J$22/J16</f>
+        <f t="shared" si="1"/>
         <v>4.429558567019992</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="17">
-        <f>B33*2</f>
+        <f t="shared" si="2"/>
         <v>1024</v>
       </c>
       <c r="C34" s="5">
-        <f>$J$22/C17</f>
+        <f t="shared" si="1"/>
         <v>1.0447475434737892</v>
       </c>
       <c r="D34" s="5">
-        <f>$J$22/D17</f>
+        <f t="shared" si="1"/>
         <v>2.0680615153318507</v>
       </c>
       <c r="E34" s="5">
-        <f>$J$22/E17</f>
+        <f t="shared" si="1"/>
         <v>3.1910975786573874</v>
       </c>
       <c r="F34" s="5">
-        <f>$J$22/F17</f>
+        <f t="shared" si="1"/>
         <v>4.109990662931839</v>
       </c>
       <c r="G34" s="5">
-        <f>$J$22/G17</f>
+        <f t="shared" si="1"/>
         <v>4.3590810061398297</v>
       </c>
       <c r="H34" s="5">
-        <f>$J$22/H17</f>
+        <f t="shared" si="1"/>
         <v>4.3490317481227772</v>
       </c>
       <c r="I34" s="5">
-        <f>$J$22/I17</f>
+        <f t="shared" si="1"/>
         <v>4.3202905188771838</v>
       </c>
       <c r="J34" s="5">
-        <f>$J$22/J17</f>
+        <f t="shared" si="1"/>
         <v>4.0006665050896748</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="17">
-        <f>B34*2</f>
+        <f t="shared" si="2"/>
         <v>2048</v>
       </c>
       <c r="C35" s="5">
-        <f>$J$22/C18</f>
+        <f t="shared" si="1"/>
         <v>0.24737737347700331</v>
       </c>
       <c r="D35" s="5">
-        <f>$J$22/D18</f>
+        <f t="shared" si="1"/>
         <v>1.2167735515258735</v>
       </c>
       <c r="E35" s="5">
-        <f>$J$22/E18</f>
+        <f t="shared" si="1"/>
         <v>1.9395746430879501</v>
       </c>
       <c r="F35" s="5">
-        <f>$J$22/F18</f>
+        <f t="shared" si="1"/>
         <v>2.6046153846153843</v>
       </c>
       <c r="G35" s="5">
-        <f>$J$22/G18</f>
+        <f t="shared" si="1"/>
         <v>2.7560629461117836</v>
       </c>
       <c r="H35" s="5">
-        <f>$J$22/H18</f>
+        <f t="shared" si="1"/>
         <v>2.9806338028169015</v>
       </c>
       <c r="I35" s="5">
-        <f>$J$22/I18</f>
+        <f t="shared" si="1"/>
         <v>3.0673139459258572</v>
       </c>
       <c r="J35" s="5">
-        <f>$J$22/J18</f>
+        <f t="shared" si="1"/>
         <v>3.1138936049801922</v>
       </c>
     </row>
@@ -7722,7 +7722,7 @@
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="19" t="s">
@@ -7770,461 +7770,461 @@
         <v>1</v>
       </c>
       <c r="C4" s="2">
-        <f>$D20/$M20</f>
+        <f t="shared" ref="C4:C15" si="0">$D20/$M20</f>
         <v>13205.4</v>
       </c>
       <c r="D4" s="2">
-        <f>$D32/$M32</f>
+        <f t="shared" ref="D4:D15" si="1">$D32/$M32</f>
         <v>13247.6</v>
       </c>
       <c r="E4" s="2">
-        <f>$D44/$M44</f>
+        <f t="shared" ref="E4:E15" si="2">$D44/$M44</f>
         <v>13026.8</v>
       </c>
       <c r="F4" s="2">
-        <f>$D56/$M56</f>
+        <f t="shared" ref="F4:F15" si="3">$D56/$M56</f>
         <v>13049.4</v>
       </c>
       <c r="G4" s="2">
-        <f>$D68/$M68</f>
+        <f t="shared" ref="G4:G15" si="4">$D68/$M68</f>
         <v>12619.2</v>
       </c>
       <c r="H4" s="2">
-        <f>$D80/$M80</f>
+        <f t="shared" ref="H4:H15" si="5">$D80/$M80</f>
         <v>12475.6</v>
       </c>
       <c r="I4" s="2">
-        <f>$D92/$M92</f>
+        <f t="shared" ref="I4:I15" si="6">$D92/$M92</f>
         <v>13043.6</v>
       </c>
       <c r="J4" s="2">
-        <f>$D104/$M104</f>
+        <f t="shared" ref="J4:J15" si="7">$D104/$M104</f>
         <v>12742.4</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="18">
-        <f t="shared" ref="B5:B15" si="0">B4*2</f>
+        <f t="shared" ref="B5:B15" si="8">B4*2</f>
         <v>2</v>
       </c>
       <c r="C5" s="2">
-        <f>$D21/$M21</f>
+        <f t="shared" si="0"/>
         <v>12628.6</v>
       </c>
       <c r="D5" s="2">
-        <f>$D33/$M33</f>
+        <f t="shared" si="1"/>
         <v>11799.2</v>
       </c>
       <c r="E5" s="2">
-        <f>$D45/$M45</f>
+        <f t="shared" si="2"/>
         <v>11583.4</v>
       </c>
       <c r="F5" s="2">
-        <f>$D57/$M57</f>
+        <f t="shared" si="3"/>
         <v>11355.6</v>
       </c>
       <c r="G5" s="2">
-        <f>$D69/$M69</f>
+        <f t="shared" si="4"/>
         <v>11181</v>
       </c>
       <c r="H5" s="2">
-        <f>$D81/$M81</f>
+        <f t="shared" si="5"/>
         <v>11214.4</v>
       </c>
       <c r="I5" s="2">
-        <f>$D93/$M93</f>
+        <f t="shared" si="6"/>
         <v>11399.2</v>
       </c>
       <c r="J5" s="2">
-        <f>$D105/$M105</f>
+        <f t="shared" si="7"/>
         <v>11407.8</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="18">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="C6" s="2">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C6" s="2">
-        <f>$D22/$M22</f>
         <v>11374.2</v>
       </c>
       <c r="D6" s="2">
-        <f>$D34/$M34</f>
+        <f t="shared" si="1"/>
         <v>8330.2000000000007</v>
       </c>
       <c r="E6" s="2">
-        <f>$D46/$M46</f>
+        <f t="shared" si="2"/>
         <v>7543.8</v>
       </c>
       <c r="F6" s="2">
-        <f>$D58/$M58</f>
+        <f t="shared" si="3"/>
         <v>7663.4</v>
       </c>
       <c r="G6" s="2">
-        <f>$D70/$M70</f>
+        <f t="shared" si="4"/>
         <v>7635.2</v>
       </c>
       <c r="H6" s="2">
-        <f>$D82/$M82</f>
+        <f t="shared" si="5"/>
         <v>7671</v>
       </c>
       <c r="I6" s="2">
-        <f>$D94/$M94</f>
+        <f t="shared" si="6"/>
         <v>7616</v>
       </c>
       <c r="J6" s="2">
-        <f>$D106/$M106</f>
+        <f t="shared" si="7"/>
         <v>7659.8</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="18">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="C7" s="2">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C7" s="2">
-        <f>$D23/$M23</f>
         <v>9162.6</v>
       </c>
       <c r="D7" s="2">
-        <f>$D35/$M35</f>
+        <f t="shared" si="1"/>
         <v>5860.4</v>
       </c>
       <c r="E7" s="2">
-        <f>$D47/$M47</f>
+        <f t="shared" si="2"/>
         <v>4861.6000000000004</v>
       </c>
       <c r="F7" s="2">
-        <f>$D59/$M59</f>
+        <f t="shared" si="3"/>
         <v>4683.3999999999996</v>
       </c>
       <c r="G7" s="2">
-        <f>$D71/$M71</f>
+        <f t="shared" si="4"/>
         <v>4474.6000000000004</v>
       </c>
       <c r="H7" s="2">
-        <f>$D83/$M83</f>
+        <f t="shared" si="5"/>
         <v>4553.2</v>
       </c>
       <c r="I7" s="2">
-        <f>$D95/$M95</f>
+        <f t="shared" si="6"/>
         <v>4247</v>
       </c>
       <c r="J7" s="2">
-        <f>$D107/$M107</f>
+        <f t="shared" si="7"/>
         <v>4708.8</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="18">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="C8" s="2">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C8" s="2">
-        <f>$D24/$M24</f>
         <v>8202.6</v>
       </c>
       <c r="D8" s="2">
-        <f>$D36/$M36</f>
+        <f t="shared" si="1"/>
         <v>4779.6000000000004</v>
       </c>
       <c r="E8" s="2">
-        <f>$D48/$M48</f>
+        <f t="shared" si="2"/>
         <v>3519.2</v>
       </c>
       <c r="F8" s="2">
-        <f>$D60/$M60</f>
+        <f t="shared" si="3"/>
         <v>3127.6</v>
       </c>
       <c r="G8" s="2">
-        <f>$D72/$M72</f>
+        <f t="shared" si="4"/>
         <v>3399.8</v>
       </c>
       <c r="H8" s="2">
-        <f>$D84/$M84</f>
+        <f t="shared" si="5"/>
         <v>3320.8</v>
       </c>
       <c r="I8" s="2">
-        <f>$D96/$M96</f>
+        <f t="shared" si="6"/>
         <v>3374.2</v>
       </c>
       <c r="J8" s="2">
-        <f>$D108/$M108</f>
+        <f t="shared" si="7"/>
         <v>3564.4</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="18">
+        <f t="shared" si="8"/>
+        <v>32</v>
+      </c>
+      <c r="C9" s="2">
         <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="C9" s="2">
-        <f>$D25/$M25</f>
         <v>8012.6</v>
       </c>
       <c r="D9" s="2">
-        <f>$D37/$M37</f>
+        <f t="shared" si="1"/>
         <v>4358.3999999999996</v>
       </c>
       <c r="E9" s="2">
-        <f>$D49/$M49</f>
+        <f t="shared" si="2"/>
         <v>3466.2</v>
       </c>
       <c r="F9" s="2">
-        <f>$D61/$M61</f>
+        <f t="shared" si="3"/>
         <v>2365.6</v>
       </c>
       <c r="G9" s="2">
-        <f>$D73/$M73</f>
+        <f t="shared" si="4"/>
         <v>2487.4</v>
       </c>
       <c r="H9" s="2">
-        <f>$D85/$M85</f>
+        <f t="shared" si="5"/>
         <v>2621</v>
       </c>
       <c r="I9" s="2">
-        <f>$D97/$M97</f>
+        <f t="shared" si="6"/>
         <v>2910.8</v>
       </c>
       <c r="J9" s="2">
-        <f>$D109/$M109</f>
+        <f t="shared" si="7"/>
         <v>3193.6</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="18">
+        <f t="shared" si="8"/>
+        <v>64</v>
+      </c>
+      <c r="C10" s="2">
         <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="C10" s="2">
-        <f>$D26/$M26</f>
         <v>8095.6</v>
       </c>
       <c r="D10" s="2">
-        <f>$D38/$M38</f>
+        <f t="shared" si="1"/>
         <v>4295.2</v>
       </c>
       <c r="E10" s="2">
-        <f>$D50/$M50</f>
+        <f t="shared" si="2"/>
         <v>2848.6</v>
       </c>
       <c r="F10" s="2">
-        <f>$D62/$M62</f>
+        <f t="shared" si="3"/>
         <v>2274.6</v>
       </c>
       <c r="G10" s="2">
-        <f>$D74/$M74</f>
+        <f t="shared" si="4"/>
         <v>2442.8000000000002</v>
       </c>
       <c r="H10" s="2">
-        <f>$D86/$M86</f>
+        <f t="shared" si="5"/>
         <v>2489.1999999999998</v>
       </c>
       <c r="I10" s="2">
-        <f>$D98/$M98</f>
+        <f t="shared" si="6"/>
         <v>2642.2</v>
       </c>
       <c r="J10" s="2">
-        <f>$D110/$M110</f>
+        <f t="shared" si="7"/>
         <v>2945.8</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="18">
+        <f t="shared" si="8"/>
+        <v>128</v>
+      </c>
+      <c r="C11" s="2">
         <f t="shared" si="0"/>
-        <v>128</v>
-      </c>
-      <c r="C11" s="2">
-        <f>$D27/$M27</f>
         <v>8004.6</v>
       </c>
       <c r="D11" s="2">
-        <f>$D39/$M39</f>
+        <f t="shared" si="1"/>
         <v>4267</v>
       </c>
       <c r="E11" s="2">
-        <f>$D51/$M51</f>
+        <f t="shared" si="2"/>
         <v>2900.4</v>
       </c>
       <c r="F11" s="2">
-        <f>$D63/$M63</f>
+        <f t="shared" si="3"/>
         <v>2338.1999999999998</v>
       </c>
       <c r="G11" s="2">
-        <f>$D75/$M75</f>
+        <f t="shared" si="4"/>
         <v>2369.8000000000002</v>
       </c>
       <c r="H11" s="2">
-        <f>$D87/$M87</f>
+        <f t="shared" si="5"/>
         <v>2436.6</v>
       </c>
       <c r="I11" s="2">
-        <f>$D99/$M99</f>
+        <f t="shared" si="6"/>
         <v>2603.1999999999998</v>
       </c>
       <c r="J11" s="2">
-        <f>$D111/$M111</f>
+        <f t="shared" si="7"/>
         <v>2896.6</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="18">
+        <f t="shared" si="8"/>
+        <v>256</v>
+      </c>
+      <c r="C12" s="2">
         <f t="shared" si="0"/>
-        <v>256</v>
-      </c>
-      <c r="C12" s="2">
-        <f>$D28/$M28</f>
         <v>8465.4</v>
       </c>
       <c r="D12" s="2">
-        <f>$D40/$M40</f>
+        <f t="shared" si="1"/>
         <v>4433.8</v>
       </c>
       <c r="E12" s="2">
-        <f>$D52/$M52</f>
+        <f t="shared" si="2"/>
         <v>2871.6</v>
       </c>
       <c r="F12" s="2">
-        <f>$D64/$M64</f>
+        <f t="shared" si="3"/>
         <v>2279.4</v>
       </c>
       <c r="G12" s="2">
-        <f>$D76/$M76</f>
+        <f t="shared" si="4"/>
         <v>2346</v>
       </c>
       <c r="H12" s="2">
-        <f>$D88/$M88</f>
+        <f t="shared" si="5"/>
         <v>2412.8000000000002</v>
       </c>
       <c r="I12" s="2">
-        <f>$D100/$M100</f>
+        <f t="shared" si="6"/>
         <v>2574.4</v>
       </c>
       <c r="J12" s="2">
-        <f>$D112/$M112</f>
+        <f t="shared" si="7"/>
         <v>2897.2</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="18">
+        <f t="shared" si="8"/>
+        <v>512</v>
+      </c>
+      <c r="C13" s="2">
         <f t="shared" si="0"/>
-        <v>512</v>
-      </c>
-      <c r="C13" s="2">
-        <f>$D29/$M29</f>
         <v>9469.2000000000007</v>
       </c>
       <c r="D13" s="2">
-        <f>$D41/$M41</f>
+        <f t="shared" si="1"/>
         <v>5035</v>
       </c>
       <c r="E13" s="2">
-        <f>$D53/$M53</f>
+        <f t="shared" si="2"/>
         <v>3338.6</v>
       </c>
       <c r="F13" s="2">
-        <f>$D65/$M65</f>
+        <f t="shared" si="3"/>
         <v>2488.8000000000002</v>
       </c>
       <c r="G13" s="2">
-        <f>$D77/$M77</f>
+        <f t="shared" si="4"/>
         <v>2473.8000000000002</v>
       </c>
       <c r="H13" s="2">
-        <f>$D89/$M89</f>
+        <f t="shared" si="5"/>
         <v>2645.6</v>
       </c>
       <c r="I13" s="2">
-        <f>$D101/$M101</f>
+        <f t="shared" si="6"/>
         <v>2678.8</v>
       </c>
       <c r="J13" s="2">
-        <f>$D113/$M113</f>
+        <f t="shared" si="7"/>
         <v>2981.2</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="18">
+        <f t="shared" si="8"/>
+        <v>1024</v>
+      </c>
+      <c r="C14" s="2">
         <f t="shared" si="0"/>
-        <v>1024</v>
-      </c>
-      <c r="C14" s="2">
-        <f>$D30/$M30</f>
         <v>12639.8</v>
       </c>
       <c r="D14" s="2">
-        <f>$D42/$M42</f>
+        <f t="shared" si="1"/>
         <v>6385.4</v>
       </c>
       <c r="E14" s="2">
-        <f>$D54/$M54</f>
+        <f t="shared" si="2"/>
         <v>4138.2</v>
       </c>
       <c r="F14" s="2">
-        <f>$D66/$M66</f>
+        <f t="shared" si="3"/>
         <v>3213</v>
       </c>
       <c r="G14" s="2">
-        <f>$D78/$M78</f>
+        <f t="shared" si="4"/>
         <v>3029.4</v>
       </c>
       <c r="H14" s="2">
-        <f>$D90/$M90</f>
+        <f t="shared" si="5"/>
         <v>3036.4</v>
       </c>
       <c r="I14" s="2">
-        <f>$D102/$M102</f>
+        <f t="shared" si="6"/>
         <v>3056.6</v>
       </c>
       <c r="J14" s="2">
-        <f>$D114/$M114</f>
+        <f t="shared" si="7"/>
         <v>3300.8</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="18">
+        <f t="shared" si="8"/>
+        <v>2048</v>
+      </c>
+      <c r="C15" s="2">
         <f t="shared" si="0"/>
-        <v>2048</v>
-      </c>
-      <c r="C15" s="2">
-        <f>$D31/$M31</f>
         <v>53381.599999999999</v>
       </c>
       <c r="D15" s="2">
-        <f>$D43/$M43</f>
+        <f t="shared" si="1"/>
         <v>10852.8</v>
       </c>
       <c r="E15" s="2">
-        <f>$D55/$M55</f>
+        <f t="shared" si="2"/>
         <v>6808.4</v>
       </c>
       <c r="F15" s="2">
-        <f>$D67/$M67</f>
+        <f t="shared" si="3"/>
         <v>5070</v>
       </c>
       <c r="G15" s="2">
-        <f>$D79/$M79</f>
+        <f t="shared" si="4"/>
         <v>4791.3999999999996</v>
       </c>
       <c r="H15" s="2">
-        <f>$D91/$M91</f>
+        <f t="shared" si="5"/>
         <v>4430.3999999999996</v>
       </c>
       <c r="I15" s="2">
-        <f>$D103/$M103</f>
+        <f t="shared" si="6"/>
         <v>4305.2</v>
       </c>
       <c r="J15" s="2">
-        <f>$D115/$M115</f>
+        <f t="shared" si="7"/>
         <v>4240.8</v>
       </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="K18" s="26" t="s">
+      <c r="K18" s="24" t="s">
         <v>13</v>
       </c>
       <c r="N18" s="3"/>
@@ -8324,11 +8324,11 @@
         <v>1</v>
       </c>
       <c r="C21" s="7">
-        <f t="shared" ref="C21:C31" si="1">C20*2</f>
+        <f t="shared" ref="C21:C31" si="9">C20*2</f>
         <v>2</v>
       </c>
       <c r="D21">
-        <f t="shared" ref="D21:D84" si="2">AVERAGE(E21:I21)</f>
+        <f t="shared" ref="D21:D84" si="10">AVERAGE(E21:I21)</f>
         <v>12628.6</v>
       </c>
       <c r="E21" s="3">
@@ -8350,7 +8350,7 @@
         <v>1</v>
       </c>
       <c r="L21" s="7">
-        <f t="shared" ref="L21:L31" si="3">L20*2</f>
+        <f t="shared" ref="L21:L31" si="11">L20*2</f>
         <v>2</v>
       </c>
       <c r="M21">
@@ -8362,11 +8362,11 @@
         <v>1</v>
       </c>
       <c r="C22" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="D22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>11374.2</v>
       </c>
       <c r="E22" s="3">
@@ -8388,7 +8388,7 @@
         <v>1</v>
       </c>
       <c r="L22" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="M22">
@@ -8400,11 +8400,11 @@
         <v>1</v>
       </c>
       <c r="C23" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="D23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>9162.6</v>
       </c>
       <c r="E23" s="3">
@@ -8426,7 +8426,7 @@
         <v>1</v>
       </c>
       <c r="L23" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="M23">
@@ -8438,11 +8438,11 @@
         <v>1</v>
       </c>
       <c r="C24" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
       <c r="D24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>8202.6</v>
       </c>
       <c r="E24" s="3">
@@ -8464,7 +8464,7 @@
         <v>1</v>
       </c>
       <c r="L24" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
       <c r="M24">
@@ -8476,11 +8476,11 @@
         <v>1</v>
       </c>
       <c r="C25" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>32</v>
       </c>
       <c r="D25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>8012.6</v>
       </c>
       <c r="E25" s="3">
@@ -8502,7 +8502,7 @@
         <v>1</v>
       </c>
       <c r="L25" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>32</v>
       </c>
       <c r="M25">
@@ -8514,11 +8514,11 @@
         <v>1</v>
       </c>
       <c r="C26" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>64</v>
       </c>
       <c r="D26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>8095.6</v>
       </c>
       <c r="E26" s="3">
@@ -8540,7 +8540,7 @@
         <v>1</v>
       </c>
       <c r="L26" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>64</v>
       </c>
       <c r="M26">
@@ -8552,11 +8552,11 @@
         <v>1</v>
       </c>
       <c r="C27" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>128</v>
       </c>
       <c r="D27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>8004.6</v>
       </c>
       <c r="E27" s="3">
@@ -8578,7 +8578,7 @@
         <v>1</v>
       </c>
       <c r="L27" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>128</v>
       </c>
       <c r="M27">
@@ -8590,11 +8590,11 @@
         <v>1</v>
       </c>
       <c r="C28" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>256</v>
       </c>
       <c r="D28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>8465.4</v>
       </c>
       <c r="E28" s="3">
@@ -8616,7 +8616,7 @@
         <v>1</v>
       </c>
       <c r="L28" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>256</v>
       </c>
       <c r="M28">
@@ -8628,11 +8628,11 @@
         <v>1</v>
       </c>
       <c r="C29" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>512</v>
       </c>
       <c r="D29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>9469.2000000000007</v>
       </c>
       <c r="E29" s="3">
@@ -8654,7 +8654,7 @@
         <v>1</v>
       </c>
       <c r="L29" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>512</v>
       </c>
       <c r="M29">
@@ -8666,11 +8666,11 @@
         <v>1</v>
       </c>
       <c r="C30" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>1024</v>
       </c>
       <c r="D30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>12639.8</v>
       </c>
       <c r="E30" s="3">
@@ -8692,7 +8692,7 @@
         <v>1</v>
       </c>
       <c r="L30" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>1024</v>
       </c>
       <c r="M30">
@@ -8704,11 +8704,11 @@
         <v>1</v>
       </c>
       <c r="C31" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>2048</v>
       </c>
       <c r="D31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>53381.599999999999</v>
       </c>
       <c r="E31" s="3">
@@ -8730,7 +8730,7 @@
         <v>1</v>
       </c>
       <c r="L31" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>2048</v>
       </c>
       <c r="M31">
@@ -8745,7 +8745,7 @@
         <v>1</v>
       </c>
       <c r="D32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>13247.6</v>
       </c>
       <c r="E32" s="3">
@@ -8778,11 +8778,11 @@
         <v>2</v>
       </c>
       <c r="C33" s="7">
-        <f t="shared" ref="C33:C43" si="4">C32*2</f>
+        <f t="shared" ref="C33:C43" si="12">C32*2</f>
         <v>2</v>
       </c>
       <c r="D33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>11799.2</v>
       </c>
       <c r="E33" s="3">
@@ -8804,7 +8804,7 @@
         <v>2</v>
       </c>
       <c r="L33" s="7">
-        <f t="shared" ref="L33:L43" si="5">L32*2</f>
+        <f t="shared" ref="L33:L43" si="13">L32*2</f>
         <v>2</v>
       </c>
       <c r="M33">
@@ -8816,11 +8816,11 @@
         <v>2</v>
       </c>
       <c r="C34" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="D34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>8330.2000000000007</v>
       </c>
       <c r="E34" s="3">
@@ -8842,7 +8842,7 @@
         <v>2</v>
       </c>
       <c r="L34" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="M34">
@@ -8854,11 +8854,11 @@
         <v>2</v>
       </c>
       <c r="C35" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="D35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>5860.4</v>
       </c>
       <c r="E35" s="3">
@@ -8880,7 +8880,7 @@
         <v>2</v>
       </c>
       <c r="L35" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="M35">
@@ -8892,11 +8892,11 @@
         <v>2</v>
       </c>
       <c r="C36" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="D36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>4779.6000000000004</v>
       </c>
       <c r="E36" s="3">
@@ -8918,7 +8918,7 @@
         <v>2</v>
       </c>
       <c r="L36" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>16</v>
       </c>
       <c r="M36">
@@ -8930,11 +8930,11 @@
         <v>2</v>
       </c>
       <c r="C37" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>32</v>
       </c>
       <c r="D37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>4358.3999999999996</v>
       </c>
       <c r="E37" s="3">
@@ -8956,7 +8956,7 @@
         <v>2</v>
       </c>
       <c r="L37" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>32</v>
       </c>
       <c r="M37">
@@ -8968,11 +8968,11 @@
         <v>2</v>
       </c>
       <c r="C38" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>64</v>
       </c>
       <c r="D38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>4295.2</v>
       </c>
       <c r="E38" s="3">
@@ -8994,7 +8994,7 @@
         <v>2</v>
       </c>
       <c r="L38" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>64</v>
       </c>
       <c r="M38">
@@ -9006,11 +9006,11 @@
         <v>2</v>
       </c>
       <c r="C39" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>128</v>
       </c>
       <c r="D39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>4267</v>
       </c>
       <c r="E39" s="3">
@@ -9032,7 +9032,7 @@
         <v>2</v>
       </c>
       <c r="L39" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>128</v>
       </c>
       <c r="M39">
@@ -9044,11 +9044,11 @@
         <v>2</v>
       </c>
       <c r="C40" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>256</v>
       </c>
       <c r="D40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>4433.8</v>
       </c>
       <c r="E40" s="3">
@@ -9070,7 +9070,7 @@
         <v>2</v>
       </c>
       <c r="L40" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>256</v>
       </c>
       <c r="M40">
@@ -9082,11 +9082,11 @@
         <v>2</v>
       </c>
       <c r="C41" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>512</v>
       </c>
       <c r="D41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>5035</v>
       </c>
       <c r="E41" s="3">
@@ -9108,7 +9108,7 @@
         <v>2</v>
       </c>
       <c r="L41" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>512</v>
       </c>
       <c r="M41">
@@ -9120,11 +9120,11 @@
         <v>2</v>
       </c>
       <c r="C42" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>1024</v>
       </c>
       <c r="D42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>6385.4</v>
       </c>
       <c r="E42" s="3">
@@ -9146,7 +9146,7 @@
         <v>2</v>
       </c>
       <c r="L42" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>1024</v>
       </c>
       <c r="M42">
@@ -9158,11 +9158,11 @@
         <v>2</v>
       </c>
       <c r="C43" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>2048</v>
       </c>
       <c r="D43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>10852.8</v>
       </c>
       <c r="E43" s="3">
@@ -9184,7 +9184,7 @@
         <v>2</v>
       </c>
       <c r="L43" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>2048</v>
       </c>
       <c r="M43">
@@ -9199,7 +9199,7 @@
         <v>1</v>
       </c>
       <c r="D44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>13026.8</v>
       </c>
       <c r="E44" s="3">
@@ -9232,11 +9232,11 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
-        <f t="shared" ref="C45:C55" si="6">C44*2</f>
+        <f t="shared" ref="C45:C55" si="14">C44*2</f>
         <v>2</v>
       </c>
       <c r="D45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>11583.4</v>
       </c>
       <c r="E45" s="3">
@@ -9258,7 +9258,7 @@
         <v>3</v>
       </c>
       <c r="L45" s="7">
-        <f t="shared" ref="L45:L55" si="7">L44*2</f>
+        <f t="shared" ref="L45:L55" si="15">L44*2</f>
         <v>2</v>
       </c>
       <c r="M45">
@@ -9270,11 +9270,11 @@
         <v>3</v>
       </c>
       <c r="C46" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="D46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>7543.8</v>
       </c>
       <c r="E46" s="3">
@@ -9296,7 +9296,7 @@
         <v>3</v>
       </c>
       <c r="L46" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="M46">
@@ -9308,11 +9308,11 @@
         <v>3</v>
       </c>
       <c r="C47" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="D47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>4861.6000000000004</v>
       </c>
       <c r="E47" s="3">
@@ -9334,7 +9334,7 @@
         <v>3</v>
       </c>
       <c r="L47" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>8</v>
       </c>
       <c r="M47">
@@ -9346,11 +9346,11 @@
         <v>3</v>
       </c>
       <c r="C48" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="D48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>3519.2</v>
       </c>
       <c r="E48" s="3">
@@ -9372,7 +9372,7 @@
         <v>3</v>
       </c>
       <c r="L48" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>16</v>
       </c>
       <c r="M48">
@@ -9384,11 +9384,11 @@
         <v>3</v>
       </c>
       <c r="C49" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>32</v>
       </c>
       <c r="D49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>3466.2</v>
       </c>
       <c r="E49" s="3">
@@ -9410,7 +9410,7 @@
         <v>3</v>
       </c>
       <c r="L49" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>32</v>
       </c>
       <c r="M49">
@@ -9422,11 +9422,11 @@
         <v>3</v>
       </c>
       <c r="C50" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>64</v>
       </c>
       <c r="D50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>2848.6</v>
       </c>
       <c r="E50" s="3">
@@ -9448,7 +9448,7 @@
         <v>3</v>
       </c>
       <c r="L50" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>64</v>
       </c>
       <c r="M50">
@@ -9460,11 +9460,11 @@
         <v>3</v>
       </c>
       <c r="C51" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>128</v>
       </c>
       <c r="D51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>2900.4</v>
       </c>
       <c r="E51" s="3">
@@ -9486,7 +9486,7 @@
         <v>3</v>
       </c>
       <c r="L51" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>128</v>
       </c>
       <c r="M51">
@@ -9498,11 +9498,11 @@
         <v>3</v>
       </c>
       <c r="C52" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>256</v>
       </c>
       <c r="D52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>2871.6</v>
       </c>
       <c r="E52" s="3">
@@ -9524,7 +9524,7 @@
         <v>3</v>
       </c>
       <c r="L52" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>256</v>
       </c>
       <c r="M52">
@@ -9536,11 +9536,11 @@
         <v>3</v>
       </c>
       <c r="C53" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>512</v>
       </c>
       <c r="D53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>3338.6</v>
       </c>
       <c r="E53" s="3">
@@ -9562,7 +9562,7 @@
         <v>3</v>
       </c>
       <c r="L53" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>512</v>
       </c>
       <c r="M53">
@@ -9574,11 +9574,11 @@
         <v>3</v>
       </c>
       <c r="C54" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>1024</v>
       </c>
       <c r="D54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>4138.2</v>
       </c>
       <c r="E54" s="3">
@@ -9600,7 +9600,7 @@
         <v>3</v>
       </c>
       <c r="L54" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>1024</v>
       </c>
       <c r="M54">
@@ -9612,11 +9612,11 @@
         <v>3</v>
       </c>
       <c r="C55" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>2048</v>
       </c>
       <c r="D55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>6808.4</v>
       </c>
       <c r="E55" s="3">
@@ -9638,7 +9638,7 @@
         <v>3</v>
       </c>
       <c r="L55" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>2048</v>
       </c>
       <c r="M55">
@@ -9653,7 +9653,7 @@
         <v>1</v>
       </c>
       <c r="D56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>13049.4</v>
       </c>
       <c r="E56" s="3">
@@ -9686,11 +9686,11 @@
         <v>4</v>
       </c>
       <c r="C57" s="7">
-        <f t="shared" ref="C57:C67" si="8">C56*2</f>
+        <f t="shared" ref="C57:C67" si="16">C56*2</f>
         <v>2</v>
       </c>
       <c r="D57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>11355.6</v>
       </c>
       <c r="E57" s="3">
@@ -9712,7 +9712,7 @@
         <v>4</v>
       </c>
       <c r="L57" s="7">
-        <f t="shared" ref="L57:L67" si="9">L56*2</f>
+        <f t="shared" ref="L57:L67" si="17">L56*2</f>
         <v>2</v>
       </c>
       <c r="M57">
@@ -9724,11 +9724,11 @@
         <v>4</v>
       </c>
       <c r="C58" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>4</v>
       </c>
       <c r="D58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>7663.4</v>
       </c>
       <c r="E58" s="3">
@@ -9750,7 +9750,7 @@
         <v>4</v>
       </c>
       <c r="L58" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="M58">
@@ -9762,11 +9762,11 @@
         <v>4</v>
       </c>
       <c r="C59" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>8</v>
       </c>
       <c r="D59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>4683.3999999999996</v>
       </c>
       <c r="E59" s="3">
@@ -9788,7 +9788,7 @@
         <v>4</v>
       </c>
       <c r="L59" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="M59">
@@ -9800,11 +9800,11 @@
         <v>4</v>
       </c>
       <c r="C60" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>16</v>
       </c>
       <c r="D60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>3127.6</v>
       </c>
       <c r="E60" s="3">
@@ -9826,7 +9826,7 @@
         <v>4</v>
       </c>
       <c r="L60" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>16</v>
       </c>
       <c r="M60">
@@ -9838,11 +9838,11 @@
         <v>4</v>
       </c>
       <c r="C61" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>32</v>
       </c>
       <c r="D61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>2365.6</v>
       </c>
       <c r="E61" s="3">
@@ -9864,7 +9864,7 @@
         <v>4</v>
       </c>
       <c r="L61" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>32</v>
       </c>
       <c r="M61">
@@ -9876,11 +9876,11 @@
         <v>4</v>
       </c>
       <c r="C62" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>64</v>
       </c>
       <c r="D62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>2274.6</v>
       </c>
       <c r="E62" s="3">
@@ -9902,7 +9902,7 @@
         <v>4</v>
       </c>
       <c r="L62" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>64</v>
       </c>
       <c r="M62">
@@ -9914,11 +9914,11 @@
         <v>4</v>
       </c>
       <c r="C63" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>128</v>
       </c>
       <c r="D63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>2338.1999999999998</v>
       </c>
       <c r="E63" s="3">
@@ -9940,7 +9940,7 @@
         <v>4</v>
       </c>
       <c r="L63" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>128</v>
       </c>
       <c r="M63">
@@ -9952,11 +9952,11 @@
         <v>4</v>
       </c>
       <c r="C64" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>256</v>
       </c>
       <c r="D64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>2279.4</v>
       </c>
       <c r="E64" s="3">
@@ -9978,7 +9978,7 @@
         <v>4</v>
       </c>
       <c r="L64" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>256</v>
       </c>
       <c r="M64">
@@ -9990,11 +9990,11 @@
         <v>4</v>
       </c>
       <c r="C65" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>512</v>
       </c>
       <c r="D65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>2488.8000000000002</v>
       </c>
       <c r="E65" s="3">
@@ -10016,7 +10016,7 @@
         <v>4</v>
       </c>
       <c r="L65" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>512</v>
       </c>
       <c r="M65">
@@ -10028,11 +10028,11 @@
         <v>4</v>
       </c>
       <c r="C66" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>1024</v>
       </c>
       <c r="D66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>3213</v>
       </c>
       <c r="E66" s="3">
@@ -10054,7 +10054,7 @@
         <v>4</v>
       </c>
       <c r="L66" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>1024</v>
       </c>
       <c r="M66">
@@ -10066,11 +10066,11 @@
         <v>4</v>
       </c>
       <c r="C67" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>2048</v>
       </c>
       <c r="D67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>5070</v>
       </c>
       <c r="E67" s="3">
@@ -10092,7 +10092,7 @@
         <v>4</v>
       </c>
       <c r="L67" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>2048</v>
       </c>
       <c r="M67">
@@ -10107,7 +10107,7 @@
         <v>1</v>
       </c>
       <c r="D68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>12619.2</v>
       </c>
       <c r="E68" s="3">
@@ -10140,11 +10140,11 @@
         <v>5</v>
       </c>
       <c r="C69" s="7">
-        <f t="shared" ref="C69:C79" si="10">C68*2</f>
+        <f t="shared" ref="C69:C79" si="18">C68*2</f>
         <v>2</v>
       </c>
       <c r="D69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>11181</v>
       </c>
       <c r="E69" s="3">
@@ -10166,7 +10166,7 @@
         <v>5</v>
       </c>
       <c r="L69" s="7">
-        <f t="shared" ref="L69:L79" si="11">L68*2</f>
+        <f t="shared" ref="L69:L79" si="19">L68*2</f>
         <v>2</v>
       </c>
       <c r="M69">
@@ -10178,11 +10178,11 @@
         <v>5</v>
       </c>
       <c r="C70" s="7">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="D70">
         <f t="shared" si="10"/>
-        <v>4</v>
-      </c>
-      <c r="D70">
-        <f t="shared" si="2"/>
         <v>7635.2</v>
       </c>
       <c r="E70" s="3">
@@ -10204,7 +10204,7 @@
         <v>5</v>
       </c>
       <c r="L70" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>4</v>
       </c>
       <c r="M70">
@@ -10216,11 +10216,11 @@
         <v>5</v>
       </c>
       <c r="C71" s="7">
+        <f t="shared" si="18"/>
+        <v>8</v>
+      </c>
+      <c r="D71">
         <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="D71">
-        <f t="shared" si="2"/>
         <v>4474.6000000000004</v>
       </c>
       <c r="E71" s="3">
@@ -10242,7 +10242,7 @@
         <v>5</v>
       </c>
       <c r="L71" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>8</v>
       </c>
       <c r="M71">
@@ -10254,7 +10254,7 @@
         <v>5</v>
       </c>
       <c r="C72" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>16</v>
       </c>
       <c r="D72">
@@ -10280,7 +10280,7 @@
         <v>5</v>
       </c>
       <c r="L72" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>16</v>
       </c>
       <c r="M72">
@@ -10292,11 +10292,11 @@
         <v>5</v>
       </c>
       <c r="C73" s="7">
+        <f t="shared" si="18"/>
+        <v>32</v>
+      </c>
+      <c r="D73">
         <f t="shared" si="10"/>
-        <v>32</v>
-      </c>
-      <c r="D73">
-        <f t="shared" si="2"/>
         <v>2487.4</v>
       </c>
       <c r="E73" s="3">
@@ -10318,7 +10318,7 @@
         <v>5</v>
       </c>
       <c r="L73" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>32</v>
       </c>
       <c r="M73">
@@ -10330,11 +10330,11 @@
         <v>5</v>
       </c>
       <c r="C74" s="7">
+        <f t="shared" si="18"/>
+        <v>64</v>
+      </c>
+      <c r="D74">
         <f t="shared" si="10"/>
-        <v>64</v>
-      </c>
-      <c r="D74">
-        <f t="shared" si="2"/>
         <v>2442.8000000000002</v>
       </c>
       <c r="E74" s="3">
@@ -10356,7 +10356,7 @@
         <v>5</v>
       </c>
       <c r="L74" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>64</v>
       </c>
       <c r="M74">
@@ -10368,11 +10368,11 @@
         <v>5</v>
       </c>
       <c r="C75" s="7">
+        <f t="shared" si="18"/>
+        <v>128</v>
+      </c>
+      <c r="D75">
         <f t="shared" si="10"/>
-        <v>128</v>
-      </c>
-      <c r="D75">
-        <f t="shared" si="2"/>
         <v>2369.8000000000002</v>
       </c>
       <c r="E75" s="3">
@@ -10394,7 +10394,7 @@
         <v>5</v>
       </c>
       <c r="L75" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>128</v>
       </c>
       <c r="M75">
@@ -10406,11 +10406,11 @@
         <v>5</v>
       </c>
       <c r="C76" s="7">
+        <f t="shared" si="18"/>
+        <v>256</v>
+      </c>
+      <c r="D76">
         <f t="shared" si="10"/>
-        <v>256</v>
-      </c>
-      <c r="D76">
-        <f t="shared" si="2"/>
         <v>2346</v>
       </c>
       <c r="E76" s="3">
@@ -10432,7 +10432,7 @@
         <v>5</v>
       </c>
       <c r="L76" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>256</v>
       </c>
       <c r="M76">
@@ -10444,11 +10444,11 @@
         <v>5</v>
       </c>
       <c r="C77" s="7">
+        <f t="shared" si="18"/>
+        <v>512</v>
+      </c>
+      <c r="D77">
         <f t="shared" si="10"/>
-        <v>512</v>
-      </c>
-      <c r="D77">
-        <f t="shared" si="2"/>
         <v>2473.8000000000002</v>
       </c>
       <c r="E77" s="3">
@@ -10470,7 +10470,7 @@
         <v>5</v>
       </c>
       <c r="L77" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>512</v>
       </c>
       <c r="M77">
@@ -10482,11 +10482,11 @@
         <v>5</v>
       </c>
       <c r="C78" s="7">
+        <f t="shared" si="18"/>
+        <v>1024</v>
+      </c>
+      <c r="D78">
         <f t="shared" si="10"/>
-        <v>1024</v>
-      </c>
-      <c r="D78">
-        <f t="shared" si="2"/>
         <v>3029.4</v>
       </c>
       <c r="E78" s="3">
@@ -10508,7 +10508,7 @@
         <v>5</v>
       </c>
       <c r="L78" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>1024</v>
       </c>
       <c r="M78">
@@ -10520,11 +10520,11 @@
         <v>5</v>
       </c>
       <c r="C79" s="7">
+        <f t="shared" si="18"/>
+        <v>2048</v>
+      </c>
+      <c r="D79">
         <f t="shared" si="10"/>
-        <v>2048</v>
-      </c>
-      <c r="D79">
-        <f t="shared" si="2"/>
         <v>4791.3999999999996</v>
       </c>
       <c r="E79" s="3">
@@ -10546,7 +10546,7 @@
         <v>5</v>
       </c>
       <c r="L79" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>2048</v>
       </c>
       <c r="M79">
@@ -10561,7 +10561,7 @@
         <v>1</v>
       </c>
       <c r="D80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>12475.6</v>
       </c>
       <c r="E80" s="3">
@@ -10594,11 +10594,11 @@
         <v>6</v>
       </c>
       <c r="C81" s="7">
-        <f t="shared" ref="C81:C91" si="12">C80*2</f>
+        <f t="shared" ref="C81:C91" si="20">C80*2</f>
         <v>2</v>
       </c>
       <c r="D81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>11214.4</v>
       </c>
       <c r="E81" s="3">
@@ -10620,7 +10620,7 @@
         <v>6</v>
       </c>
       <c r="L81" s="7">
-        <f t="shared" ref="L81:L91" si="13">L80*2</f>
+        <f t="shared" ref="L81:L91" si="21">L80*2</f>
         <v>2</v>
       </c>
       <c r="M81">
@@ -10632,11 +10632,11 @@
         <v>6</v>
       </c>
       <c r="C82" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>4</v>
       </c>
       <c r="D82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>7671</v>
       </c>
       <c r="E82" s="3">
@@ -10658,7 +10658,7 @@
         <v>6</v>
       </c>
       <c r="L82" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>4</v>
       </c>
       <c r="M82">
@@ -10670,11 +10670,11 @@
         <v>6</v>
       </c>
       <c r="C83" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>8</v>
       </c>
       <c r="D83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>4553.2</v>
       </c>
       <c r="E83" s="3">
@@ -10696,7 +10696,7 @@
         <v>6</v>
       </c>
       <c r="L83" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>8</v>
       </c>
       <c r="M83">
@@ -10708,11 +10708,11 @@
         <v>6</v>
       </c>
       <c r="C84" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>16</v>
       </c>
       <c r="D84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>3320.8</v>
       </c>
       <c r="E84" s="3">
@@ -10734,7 +10734,7 @@
         <v>6</v>
       </c>
       <c r="L84" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>16</v>
       </c>
       <c r="M84">
@@ -10746,11 +10746,11 @@
         <v>6</v>
       </c>
       <c r="C85" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>32</v>
       </c>
       <c r="D85">
-        <f t="shared" ref="D85:D87" si="14">AVERAGE(E85:I85)</f>
+        <f t="shared" ref="D85:D87" si="22">AVERAGE(E85:I85)</f>
         <v>2621</v>
       </c>
       <c r="E85" s="3">
@@ -10772,7 +10772,7 @@
         <v>6</v>
       </c>
       <c r="L85" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>32</v>
       </c>
       <c r="M85">
@@ -10784,11 +10784,11 @@
         <v>6</v>
       </c>
       <c r="C86" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>64</v>
       </c>
       <c r="D86">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>2489.1999999999998</v>
       </c>
       <c r="E86" s="3">
@@ -10810,7 +10810,7 @@
         <v>6</v>
       </c>
       <c r="L86" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>64</v>
       </c>
       <c r="M86">
@@ -10822,11 +10822,11 @@
         <v>6</v>
       </c>
       <c r="C87" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>128</v>
       </c>
       <c r="D87">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>2436.6</v>
       </c>
       <c r="E87" s="3">
@@ -10848,7 +10848,7 @@
         <v>6</v>
       </c>
       <c r="L87" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>128</v>
       </c>
       <c r="M87">
@@ -10860,7 +10860,7 @@
         <v>6</v>
       </c>
       <c r="C88" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>256</v>
       </c>
       <c r="D88">
@@ -10886,7 +10886,7 @@
         <v>6</v>
       </c>
       <c r="L88" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>256</v>
       </c>
       <c r="M88">
@@ -10898,11 +10898,11 @@
         <v>6</v>
       </c>
       <c r="C89" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>512</v>
       </c>
       <c r="D89">
-        <f t="shared" ref="D89:D102" si="15">AVERAGE(E89:I89)</f>
+        <f t="shared" ref="D89:D102" si="23">AVERAGE(E89:I89)</f>
         <v>2645.6</v>
       </c>
       <c r="E89" s="3">
@@ -10924,7 +10924,7 @@
         <v>6</v>
       </c>
       <c r="L89" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>512</v>
       </c>
       <c r="M89">
@@ -10936,11 +10936,11 @@
         <v>6</v>
       </c>
       <c r="C90" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>1024</v>
       </c>
       <c r="D90">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>3036.4</v>
       </c>
       <c r="E90" s="3">
@@ -10962,7 +10962,7 @@
         <v>6</v>
       </c>
       <c r="L90" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>1024</v>
       </c>
       <c r="M90">
@@ -10974,11 +10974,11 @@
         <v>6</v>
       </c>
       <c r="C91" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>2048</v>
       </c>
       <c r="D91">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>4430.3999999999996</v>
       </c>
       <c r="E91" s="3">
@@ -11000,7 +11000,7 @@
         <v>6</v>
       </c>
       <c r="L91" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>2048</v>
       </c>
       <c r="M91">
@@ -11015,7 +11015,7 @@
         <v>1</v>
       </c>
       <c r="D92">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>13043.6</v>
       </c>
       <c r="E92" s="3">
@@ -11048,11 +11048,11 @@
         <v>7</v>
       </c>
       <c r="C93" s="7">
-        <f t="shared" ref="C93:C103" si="16">C92*2</f>
+        <f t="shared" ref="C93:C103" si="24">C92*2</f>
         <v>2</v>
       </c>
       <c r="D93">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>11399.2</v>
       </c>
       <c r="E93" s="3">
@@ -11074,7 +11074,7 @@
         <v>7</v>
       </c>
       <c r="L93" s="7">
-        <f t="shared" ref="L93:L103" si="17">L92*2</f>
+        <f t="shared" ref="L93:L103" si="25">L92*2</f>
         <v>2</v>
       </c>
       <c r="M93">
@@ -11086,11 +11086,11 @@
         <v>7</v>
       </c>
       <c r="C94" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>4</v>
       </c>
       <c r="D94">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>7616</v>
       </c>
       <c r="E94" s="3">
@@ -11112,7 +11112,7 @@
         <v>7</v>
       </c>
       <c r="L94" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>4</v>
       </c>
       <c r="M94">
@@ -11124,11 +11124,11 @@
         <v>7</v>
       </c>
       <c r="C95" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
       <c r="D95">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>4247</v>
       </c>
       <c r="E95" s="3">
@@ -11150,7 +11150,7 @@
         <v>7</v>
       </c>
       <c r="L95" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>8</v>
       </c>
       <c r="M95">
@@ -11162,11 +11162,11 @@
         <v>7</v>
       </c>
       <c r="C96" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>16</v>
       </c>
       <c r="D96">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>3374.2</v>
       </c>
       <c r="E96" s="3">
@@ -11188,7 +11188,7 @@
         <v>7</v>
       </c>
       <c r="L96" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>16</v>
       </c>
       <c r="M96">
@@ -11200,11 +11200,11 @@
         <v>7</v>
       </c>
       <c r="C97" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>32</v>
       </c>
       <c r="D97">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>2910.8</v>
       </c>
       <c r="E97" s="3">
@@ -11226,7 +11226,7 @@
         <v>7</v>
       </c>
       <c r="L97" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>32</v>
       </c>
       <c r="M97">
@@ -11238,11 +11238,11 @@
         <v>7</v>
       </c>
       <c r="C98" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>64</v>
       </c>
       <c r="D98">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>2642.2</v>
       </c>
       <c r="E98" s="3">
@@ -11264,7 +11264,7 @@
         <v>7</v>
       </c>
       <c r="L98" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>64</v>
       </c>
       <c r="M98">
@@ -11276,11 +11276,11 @@
         <v>7</v>
       </c>
       <c r="C99" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>128</v>
       </c>
       <c r="D99">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>2603.1999999999998</v>
       </c>
       <c r="E99" s="3">
@@ -11302,7 +11302,7 @@
         <v>7</v>
       </c>
       <c r="L99" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>128</v>
       </c>
       <c r="M99">
@@ -11314,11 +11314,11 @@
         <v>7</v>
       </c>
       <c r="C100" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>256</v>
       </c>
       <c r="D100">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>2574.4</v>
       </c>
       <c r="E100" s="3">
@@ -11340,7 +11340,7 @@
         <v>7</v>
       </c>
       <c r="L100" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>256</v>
       </c>
       <c r="M100">
@@ -11352,11 +11352,11 @@
         <v>7</v>
       </c>
       <c r="C101" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>512</v>
       </c>
       <c r="D101">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>2678.8</v>
       </c>
       <c r="E101" s="3">
@@ -11378,7 +11378,7 @@
         <v>7</v>
       </c>
       <c r="L101" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>512</v>
       </c>
       <c r="M101">
@@ -11390,11 +11390,11 @@
         <v>7</v>
       </c>
       <c r="C102" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>1024</v>
       </c>
       <c r="D102">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>3056.6</v>
       </c>
       <c r="E102" s="3">
@@ -11416,7 +11416,7 @@
         <v>7</v>
       </c>
       <c r="L102" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>1024</v>
       </c>
       <c r="M102">
@@ -11428,7 +11428,7 @@
         <v>7</v>
       </c>
       <c r="C103" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>2048</v>
       </c>
       <c r="D103">
@@ -11454,7 +11454,7 @@
         <v>7</v>
       </c>
       <c r="L103" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>2048</v>
       </c>
       <c r="M103">
@@ -11469,7 +11469,7 @@
         <v>1</v>
       </c>
       <c r="D104">
-        <f t="shared" ref="D104:D115" si="18">AVERAGE(E104:I104)</f>
+        <f t="shared" ref="D104:D115" si="26">AVERAGE(E104:I104)</f>
         <v>12742.4</v>
       </c>
       <c r="E104" s="3">
@@ -11502,11 +11502,11 @@
         <v>8</v>
       </c>
       <c r="C105" s="7">
-        <f t="shared" ref="C105:C115" si="19">C104*2</f>
+        <f t="shared" ref="C105:C115" si="27">C104*2</f>
         <v>2</v>
       </c>
       <c r="D105">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>11407.8</v>
       </c>
       <c r="E105" s="3">
@@ -11528,7 +11528,7 @@
         <v>8</v>
       </c>
       <c r="L105" s="7">
-        <f t="shared" ref="L105:L115" si="20">L104*2</f>
+        <f t="shared" ref="L105:L115" si="28">L104*2</f>
         <v>2</v>
       </c>
       <c r="M105">
@@ -11540,11 +11540,11 @@
         <v>8</v>
       </c>
       <c r="C106" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>4</v>
       </c>
       <c r="D106">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>7659.8</v>
       </c>
       <c r="E106" s="3">
@@ -11566,7 +11566,7 @@
         <v>8</v>
       </c>
       <c r="L106" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>4</v>
       </c>
       <c r="M106">
@@ -11578,11 +11578,11 @@
         <v>8</v>
       </c>
       <c r="C107" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>8</v>
       </c>
       <c r="D107">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>4708.8</v>
       </c>
       <c r="E107" s="3">
@@ -11604,7 +11604,7 @@
         <v>8</v>
       </c>
       <c r="L107" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>8</v>
       </c>
       <c r="M107">
@@ -11616,11 +11616,11 @@
         <v>8</v>
       </c>
       <c r="C108" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>16</v>
       </c>
       <c r="D108">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>3564.4</v>
       </c>
       <c r="E108" s="3">
@@ -11642,7 +11642,7 @@
         <v>8</v>
       </c>
       <c r="L108" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>16</v>
       </c>
       <c r="M108">
@@ -11654,11 +11654,11 @@
         <v>8</v>
       </c>
       <c r="C109" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>32</v>
       </c>
       <c r="D109">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>3193.6</v>
       </c>
       <c r="E109" s="3">
@@ -11680,7 +11680,7 @@
         <v>8</v>
       </c>
       <c r="L109" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>32</v>
       </c>
       <c r="M109">
@@ -11692,11 +11692,11 @@
         <v>8</v>
       </c>
       <c r="C110" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>64</v>
       </c>
       <c r="D110">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>2945.8</v>
       </c>
       <c r="E110" s="3">
@@ -11718,7 +11718,7 @@
         <v>8</v>
       </c>
       <c r="L110" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>64</v>
       </c>
       <c r="M110">
@@ -11730,11 +11730,11 @@
         <v>8</v>
       </c>
       <c r="C111" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>128</v>
       </c>
       <c r="D111">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>2896.6</v>
       </c>
       <c r="E111" s="3">
@@ -11756,7 +11756,7 @@
         <v>8</v>
       </c>
       <c r="L111" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>128</v>
       </c>
       <c r="M111">
@@ -11768,11 +11768,11 @@
         <v>8</v>
       </c>
       <c r="C112" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>256</v>
       </c>
       <c r="D112">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>2897.2</v>
       </c>
       <c r="E112" s="3">
@@ -11794,7 +11794,7 @@
         <v>8</v>
       </c>
       <c r="L112" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>256</v>
       </c>
       <c r="M112">
@@ -11806,11 +11806,11 @@
         <v>8</v>
       </c>
       <c r="C113" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>512</v>
       </c>
       <c r="D113">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>2981.2</v>
       </c>
       <c r="E113" s="3">
@@ -11832,7 +11832,7 @@
         <v>8</v>
       </c>
       <c r="L113" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>512</v>
       </c>
       <c r="M113">
@@ -11844,11 +11844,11 @@
         <v>8</v>
       </c>
       <c r="C114" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>1024</v>
       </c>
       <c r="D114">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>3300.8</v>
       </c>
       <c r="E114" s="3">
@@ -11870,7 +11870,7 @@
         <v>8</v>
       </c>
       <c r="L114" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>1024</v>
       </c>
       <c r="M114">
@@ -11882,11 +11882,11 @@
         <v>8</v>
       </c>
       <c r="C115" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>2048</v>
       </c>
       <c r="D115">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>4240.8</v>
       </c>
       <c r="E115" s="3">
@@ -11908,7 +11908,7 @@
         <v>8</v>
       </c>
       <c r="L115" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>2048</v>
       </c>
       <c r="M115">

--- a/docs/Comparison.xlsx
+++ b/docs/Comparison.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6510" yWindow="0" windowWidth="22110" windowHeight="9402"/>
+    <workbookView xWindow="7452" yWindow="0" windowWidth="22110" windowHeight="9402" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Graphs" sheetId="4" r:id="rId1"/>
@@ -106,9 +106,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -245,7 +244,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -264,13 +262,14 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11973,7 +11972,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A72" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C102" sqref="C102"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData/>
@@ -11986,12 +11987,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:W116"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="8.578125" customWidth="1"/>
-    <col min="2" max="2" width="18.05078125" customWidth="1"/>
+    <col min="2" max="2" width="14.578125" customWidth="1"/>
     <col min="3" max="10" width="8.578125" style="9" customWidth="1"/>
     <col min="11" max="14" width="8.578125" customWidth="1"/>
   </cols>
@@ -12013,10 +12016,10 @@
       <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="38"/>
+      <c r="D5" s="36"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="13" t="s">
@@ -12526,17 +12529,17 @@
       <c r="B22" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="38" t="s">
+      <c r="C22" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="D22" s="38"/>
+      <c r="D22" s="36"/>
       <c r="E22"/>
       <c r="F22"/>
       <c r="G22"/>
-      <c r="H22" s="39" t="s">
+      <c r="H22" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="I22" s="39"/>
+      <c r="I22" s="37"/>
       <c r="J22" s="5">
         <f>'Execution Time Records'!D20</f>
         <v>12455</v>
@@ -13446,9 +13449,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="2" max="2" width="14.578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="25.8" x14ac:dyDescent="0.95">
       <c r="B2" s="8" t="s">
@@ -13492,10 +13500,10 @@
       <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="38"/>
+      <c r="D5" s="36"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
@@ -14014,14 +14022,14 @@
       <c r="B22" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="38" t="s">
+      <c r="C22" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="D22" s="38"/>
-      <c r="H22" s="39" t="s">
+      <c r="D22" s="36"/>
+      <c r="H22" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="I22" s="39"/>
+      <c r="I22" s="37"/>
       <c r="J22" s="5">
         <f>'Execution Time Records'!N20</f>
         <v>5993.2</v>
@@ -14525,7 +14533,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T116"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -14580,55 +14590,55 @@
       <c r="B3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="30">
+      <c r="C3" s="29">
         <v>1</v>
       </c>
-      <c r="D3" s="30">
+      <c r="D3" s="29">
         <v>2</v>
       </c>
-      <c r="E3" s="30">
+      <c r="E3" s="29">
         <v>3</v>
       </c>
-      <c r="F3" s="30">
+      <c r="F3" s="29">
         <v>4</v>
       </c>
-      <c r="G3" s="30">
+      <c r="G3" s="29">
         <v>5</v>
       </c>
-      <c r="H3" s="30">
+      <c r="H3" s="29">
         <v>6</v>
       </c>
-      <c r="I3" s="30">
+      <c r="I3" s="29">
         <v>7</v>
       </c>
-      <c r="J3" s="30">
+      <c r="J3" s="29">
         <v>8</v>
       </c>
-      <c r="L3" s="29" t="s">
+      <c r="L3" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="30">
+      <c r="M3" s="29">
         <v>1</v>
       </c>
-      <c r="N3" s="30">
+      <c r="N3" s="29">
         <v>2</v>
       </c>
-      <c r="O3" s="30">
+      <c r="O3" s="29">
         <v>3</v>
       </c>
-      <c r="P3" s="30">
+      <c r="P3" s="29">
         <v>4</v>
       </c>
-      <c r="Q3" s="30">
+      <c r="Q3" s="29">
         <v>5</v>
       </c>
-      <c r="R3" s="30">
+      <c r="R3" s="29">
         <v>6</v>
       </c>
-      <c r="S3" s="30">
+      <c r="S3" s="29">
         <v>7</v>
       </c>
-      <c r="T3" s="30">
+      <c r="T3" s="29">
         <v>8</v>
       </c>
     </row>
@@ -14636,70 +14646,70 @@
       <c r="B4" s="15">
         <v>1</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="38">
         <f t="shared" ref="C4:C15" si="0">$D21/$N21</f>
         <v>2.1350202563591685</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="38">
         <f t="shared" ref="D4:D15" si="1">$D33/$N33</f>
         <v>2.1567013003986149</v>
       </c>
-      <c r="E4" s="28">
+      <c r="E4" s="38">
         <f t="shared" ref="E4:E15" si="2">$D45/$N45</f>
         <v>2.199879550321199</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="38">
         <f t="shared" ref="F4:F15" si="3">$D57/$N57</f>
         <v>2.1437529029261495</v>
       </c>
-      <c r="G4" s="28">
+      <c r="G4" s="38">
         <f t="shared" ref="G4:G15" si="4">$D69/$N69</f>
         <v>2.1038999506335361</v>
       </c>
-      <c r="H4" s="28">
+      <c r="H4" s="38">
         <f t="shared" ref="H4:H15" si="5">$D81/$N81</f>
         <v>2.1126585182029687</v>
       </c>
-      <c r="I4" s="28">
+      <c r="I4" s="38">
         <f t="shared" ref="I4:I15" si="6">$D93/$N93</f>
         <v>2.1642545598731164</v>
       </c>
-      <c r="J4" s="28">
+      <c r="J4" s="38">
         <f t="shared" ref="J4:J15" si="7">$D105/$N105</f>
         <v>2.1412559749464317</v>
       </c>
-      <c r="L4" s="31">
+      <c r="L4" s="30">
         <v>1</v>
       </c>
-      <c r="M4" s="28">
+      <c r="M4" s="38">
         <f>$N21/$D21</f>
         <v>0.46837963106977326</v>
       </c>
-      <c r="N4" s="28">
+      <c r="N4" s="38">
         <f>$N33/$D33</f>
         <v>0.46367107017331227</v>
       </c>
-      <c r="O4" s="28">
+      <c r="O4" s="38">
         <f>$N45/$D45</f>
         <v>0.45457034220532322</v>
       </c>
-      <c r="P4" s="28">
+      <c r="P4" s="38">
         <f>$N57/$D57</f>
         <v>0.46647167154154479</v>
       </c>
-      <c r="Q4" s="28">
+      <c r="Q4" s="38">
         <f>$N69/$D69</f>
         <v>0.47530777292849657</v>
       </c>
-      <c r="R4" s="28">
+      <c r="R4" s="38">
         <f>$N81/$D81</f>
         <v>0.47333726268767834</v>
       </c>
-      <c r="S4" s="28">
+      <c r="S4" s="38">
         <f>$N93/$D93</f>
         <v>0.4620528557687904</v>
       </c>
-      <c r="T4" s="28">
+      <c r="T4" s="38">
         <f>$N105/$D105</f>
         <v>0.46701562620275577</v>
       </c>
@@ -14709,71 +14719,71 @@
         <f t="shared" ref="B5:B15" si="8">B4*2</f>
         <v>2</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="38">
         <f t="shared" si="0"/>
         <v>1.8298393973848777</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="38">
         <f t="shared" si="1"/>
         <v>1.8602765510750743</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="38">
         <f t="shared" si="2"/>
         <v>1.8388977985129027</v>
       </c>
-      <c r="F5" s="28">
+      <c r="F5" s="38">
         <f t="shared" si="3"/>
         <v>1.8891218776441157</v>
       </c>
-      <c r="G5" s="28">
+      <c r="G5" s="38">
         <f t="shared" si="4"/>
         <v>1.8450709296464318</v>
       </c>
-      <c r="H5" s="28">
+      <c r="H5" s="38">
         <f t="shared" si="5"/>
         <v>1.81163504968383</v>
       </c>
-      <c r="I5" s="28">
+      <c r="I5" s="38">
         <f t="shared" si="6"/>
         <v>1.9368389580296745</v>
       </c>
-      <c r="J5" s="28">
+      <c r="J5" s="38">
         <f t="shared" si="7"/>
         <v>1.9099374309900627</v>
       </c>
-      <c r="L5" s="31">
+      <c r="L5" s="30">
         <f t="shared" ref="L5:L15" si="9">L4*2</f>
         <v>2</v>
       </c>
-      <c r="M5" s="28">
+      <c r="M5" s="38">
         <f t="shared" ref="M5:M15" si="10">$N22/$D22</f>
         <v>0.54649604846696054</v>
       </c>
-      <c r="N5" s="28">
+      <c r="N5" s="38">
         <f t="shared" ref="N5:N15" si="11">$N34/$D34</f>
         <v>0.53755448318804488</v>
       </c>
-      <c r="O5" s="28">
+      <c r="O5" s="38">
         <f t="shared" ref="O5:O15" si="12">$N46/$D46</f>
         <v>0.54380401173392534</v>
       </c>
-      <c r="P5" s="28">
+      <c r="P5" s="38">
         <f t="shared" ref="P5:P15" si="13">$N58/$D58</f>
         <v>0.52934647141299274</v>
       </c>
-      <c r="Q5" s="28">
+      <c r="Q5" s="38">
         <f t="shared" ref="Q5:Q15" si="14">$N70/$D70</f>
         <v>0.54198458386184023</v>
       </c>
-      <c r="R5" s="28">
+      <c r="R5" s="38">
         <f t="shared" ref="R5:R15" si="15">$N82/$D82</f>
         <v>0.55198755410176115</v>
       </c>
-      <c r="S5" s="28">
+      <c r="S5" s="38">
         <f t="shared" ref="S5:S15" si="16">$N94/$D94</f>
         <v>0.51630518678604509</v>
       </c>
-      <c r="T5" s="28">
+      <c r="T5" s="38">
         <f t="shared" ref="T5:T15" si="17">$N106/$D106</f>
         <v>0.52357736110843467</v>
       </c>
@@ -14783,71 +14793,71 @@
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="C6" s="28">
+      <c r="C6" s="38">
         <f t="shared" si="0"/>
         <v>1.4712727272727273</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="38">
         <f t="shared" si="1"/>
         <v>1.5028947987761827</v>
       </c>
-      <c r="E6" s="28">
+      <c r="E6" s="38">
         <f t="shared" si="2"/>
         <v>1.5663340812526856</v>
       </c>
-      <c r="F6" s="28">
+      <c r="F6" s="38">
         <f t="shared" si="3"/>
         <v>1.5370088782067004</v>
       </c>
-      <c r="G6" s="28">
+      <c r="G6" s="38">
         <f t="shared" si="4"/>
         <v>1.562894775498213</v>
       </c>
-      <c r="H6" s="28">
+      <c r="H6" s="38">
         <f t="shared" si="5"/>
         <v>1.4900034218116047</v>
       </c>
-      <c r="I6" s="28">
+      <c r="I6" s="38">
         <f t="shared" si="6"/>
         <v>1.578177945590086</v>
       </c>
-      <c r="J6" s="28">
+      <c r="J6" s="38">
         <f t="shared" si="7"/>
         <v>1.5781752607466613</v>
       </c>
-      <c r="L6" s="31">
+      <c r="L6" s="30">
         <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="M6" s="28">
+      <c r="M6" s="38">
         <f t="shared" si="10"/>
         <v>0.67968363816114685</v>
       </c>
-      <c r="N6" s="28">
+      <c r="N6" s="38">
         <f t="shared" si="11"/>
         <v>0.66538256757179992</v>
       </c>
-      <c r="O6" s="28">
+      <c r="O6" s="38">
         <f t="shared" si="12"/>
         <v>0.63843340444986274</v>
       </c>
-      <c r="P6" s="28">
+      <c r="P6" s="38">
         <f t="shared" si="13"/>
         <v>0.6506143290250519</v>
       </c>
-      <c r="Q6" s="28">
+      <c r="Q6" s="38">
         <f t="shared" si="14"/>
         <v>0.63983834080015034</v>
       </c>
-      <c r="R6" s="28">
+      <c r="R6" s="38">
         <f t="shared" si="15"/>
         <v>0.67113939831370362</v>
       </c>
-      <c r="S6" s="28">
+      <c r="S6" s="38">
         <f t="shared" si="16"/>
         <v>0.6336421078461445</v>
       </c>
-      <c r="T6" s="28">
+      <c r="T6" s="38">
         <f t="shared" si="17"/>
         <v>0.63364318581884449</v>
       </c>
@@ -14857,71 +14867,71 @@
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="38">
         <f t="shared" si="0"/>
         <v>1.1929850024189648</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="38">
         <f t="shared" si="1"/>
         <v>1.2353275274517228</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="38">
         <f t="shared" si="2"/>
         <v>1.2008062312107133</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="38">
         <f t="shared" si="3"/>
         <v>1.2377442209976384</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G7" s="38">
         <f t="shared" si="4"/>
         <v>1.2637135316356372</v>
       </c>
-      <c r="H7" s="28">
+      <c r="H7" s="38">
         <f t="shared" si="5"/>
         <v>1.2211225788208682</v>
       </c>
-      <c r="I7" s="28">
+      <c r="I7" s="38">
         <f t="shared" si="6"/>
         <v>1.2746239000851547</v>
       </c>
-      <c r="J7" s="28">
+      <c r="J7" s="38">
         <f t="shared" si="7"/>
         <v>1.2714788732394366</v>
       </c>
-      <c r="L7" s="31">
+      <c r="L7" s="30">
         <f t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="M7" s="28">
+      <c r="M7" s="38">
         <f t="shared" si="10"/>
         <v>0.8382335050083134</v>
       </c>
-      <c r="N7" s="28">
+      <c r="N7" s="38">
         <f t="shared" si="11"/>
         <v>0.80950191570881225</v>
       </c>
-      <c r="O7" s="28">
+      <c r="O7" s="38">
         <f t="shared" si="12"/>
         <v>0.83277382645803688</v>
       </c>
-      <c r="P7" s="28">
+      <c r="P7" s="38">
         <f t="shared" si="13"/>
         <v>0.80792136455623009</v>
       </c>
-      <c r="Q7" s="28">
+      <c r="Q7" s="38">
         <f t="shared" si="14"/>
         <v>0.79131858207270278</v>
       </c>
-      <c r="R7" s="28">
+      <c r="R7" s="38">
         <f t="shared" si="15"/>
         <v>0.8189186059974527</v>
       </c>
-      <c r="S7" s="28">
+      <c r="S7" s="38">
         <f t="shared" si="16"/>
         <v>0.78454515087406751</v>
       </c>
-      <c r="T7" s="28">
+      <c r="T7" s="38">
         <f t="shared" si="17"/>
         <v>0.78648573802270838</v>
       </c>
@@ -14931,71 +14941,71 @@
         <f t="shared" si="8"/>
         <v>16</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="38">
         <f t="shared" si="0"/>
         <v>1.0648171374103246</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="38">
         <f t="shared" si="1"/>
         <v>0.83379851143009043</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="38">
         <f t="shared" si="2"/>
         <v>0.92031080592699677</v>
       </c>
-      <c r="F8" s="28">
+      <c r="F8" s="38">
         <f t="shared" si="3"/>
         <v>1.046063377981052</v>
       </c>
-      <c r="G8" s="28">
+      <c r="G8" s="38">
         <f t="shared" si="4"/>
         <v>1.0826873385012921</v>
       </c>
-      <c r="H8" s="28">
+      <c r="H8" s="38">
         <f t="shared" si="5"/>
         <v>1.0187611361492506</v>
       </c>
-      <c r="I8" s="28">
+      <c r="I8" s="38">
         <f t="shared" si="6"/>
         <v>1.0292583120204604</v>
       </c>
-      <c r="J8" s="28">
+      <c r="J8" s="38">
         <f t="shared" si="7"/>
         <v>0.9094594594594595</v>
       </c>
-      <c r="L8" s="31">
+      <c r="L8" s="30">
         <f t="shared" si="9"/>
         <v>16</v>
       </c>
-      <c r="M8" s="28">
+      <c r="M8" s="38">
         <f t="shared" si="10"/>
         <v>0.9391283863368669</v>
       </c>
-      <c r="N8" s="28">
+      <c r="N8" s="38">
         <f t="shared" si="11"/>
         <v>1.1993305172551207</v>
       </c>
-      <c r="O8" s="28">
+      <c r="O8" s="38">
         <f t="shared" si="12"/>
         <v>1.086589436481445</v>
       </c>
-      <c r="P8" s="28">
+      <c r="P8" s="38">
         <f t="shared" si="13"/>
         <v>0.95596502186133658</v>
       </c>
-      <c r="Q8" s="28">
+      <c r="Q8" s="38">
         <f t="shared" si="14"/>
         <v>0.92362768496420045</v>
       </c>
-      <c r="R8" s="28">
+      <c r="R8" s="38">
         <f t="shared" si="15"/>
         <v>0.98158436213991773</v>
       </c>
-      <c r="S8" s="28">
+      <c r="S8" s="38">
         <f t="shared" si="16"/>
         <v>0.97157340224629751</v>
       </c>
-      <c r="T8" s="28">
+      <c r="T8" s="38">
         <f t="shared" si="17"/>
         <v>1.0995542347696881</v>
       </c>
@@ -15005,71 +15015,71 @@
         <f t="shared" si="8"/>
         <v>32</v>
       </c>
-      <c r="C9" s="28">
+      <c r="C9" s="38">
         <f t="shared" si="0"/>
         <v>1.0087624349260347</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="38">
         <f t="shared" si="1"/>
         <v>0.93242148834698113</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="38">
         <f t="shared" si="2"/>
         <v>0.9526691683815518</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="38">
         <f t="shared" si="3"/>
         <v>0.92719188550785037</v>
       </c>
-      <c r="G9" s="28">
+      <c r="G9" s="38">
         <f t="shared" si="4"/>
         <v>0.94266441821247882</v>
       </c>
-      <c r="H9" s="28">
+      <c r="H9" s="38">
         <f t="shared" si="5"/>
         <v>0.86587942821628339</v>
       </c>
-      <c r="I9" s="28">
+      <c r="I9" s="38">
         <f t="shared" si="6"/>
         <v>0.85474353154788929</v>
       </c>
-      <c r="J9" s="28">
+      <c r="J9" s="38">
         <f t="shared" si="7"/>
         <v>0.69172609330698509</v>
       </c>
-      <c r="L9" s="31">
+      <c r="L9" s="30">
         <f t="shared" si="9"/>
         <v>32</v>
       </c>
-      <c r="M9" s="28">
+      <c r="M9" s="38">
         <f t="shared" si="10"/>
         <v>0.9913136784017168</v>
       </c>
-      <c r="N9" s="28">
+      <c r="N9" s="38">
         <f t="shared" si="11"/>
         <v>1.0724763559158463</v>
       </c>
-      <c r="O9" s="28">
+      <c r="O9" s="38">
         <f t="shared" si="12"/>
         <v>1.0496823379923761</v>
       </c>
-      <c r="P9" s="28">
+      <c r="P9" s="38">
         <f t="shared" si="13"/>
         <v>1.0785254008691745</v>
       </c>
-      <c r="Q9" s="28">
+      <c r="Q9" s="38">
         <f t="shared" si="14"/>
         <v>1.0608228980322005</v>
       </c>
-      <c r="R9" s="28">
+      <c r="R9" s="38">
         <f t="shared" si="15"/>
         <v>1.1548952052828021</v>
       </c>
-      <c r="S9" s="28">
+      <c r="S9" s="38">
         <f t="shared" si="16"/>
         <v>1.1699415825809878</v>
       </c>
-      <c r="T9" s="28">
+      <c r="T9" s="38">
         <f t="shared" si="17"/>
         <v>1.4456589243572229</v>
       </c>
@@ -15079,71 +15089,71 @@
         <f t="shared" si="8"/>
         <v>64</v>
       </c>
-      <c r="C10" s="28">
+      <c r="C10" s="38">
         <f t="shared" si="0"/>
         <v>0.91525340652877163</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="38">
         <f t="shared" si="1"/>
         <v>0.8761198081621574</v>
       </c>
-      <c r="E10" s="28">
+      <c r="E10" s="38">
         <f t="shared" si="2"/>
         <v>0.87770717157307732</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="38">
         <f t="shared" si="3"/>
         <v>0.83776511554289335</v>
       </c>
-      <c r="G10" s="28">
+      <c r="G10" s="38">
         <f t="shared" si="4"/>
         <v>0.9425535191744957</v>
       </c>
-      <c r="H10" s="28">
+      <c r="H10" s="38">
         <f t="shared" si="5"/>
         <v>0.83068135454916359</v>
       </c>
-      <c r="I10" s="28">
+      <c r="I10" s="38">
         <f t="shared" si="6"/>
         <v>0.79136104319478406</v>
       </c>
-      <c r="J10" s="28">
+      <c r="J10" s="38">
         <f t="shared" si="7"/>
         <v>0.69221556886227553</v>
       </c>
-      <c r="L10" s="31">
+      <c r="L10" s="30">
         <f t="shared" si="9"/>
         <v>64</v>
       </c>
-      <c r="M10" s="28">
+      <c r="M10" s="38">
         <f t="shared" si="10"/>
         <v>1.092593584319606</v>
       </c>
-      <c r="N10" s="28">
+      <c r="N10" s="38">
         <f t="shared" si="11"/>
         <v>1.1413964057013013</v>
       </c>
-      <c r="O10" s="28">
+      <c r="O10" s="38">
         <f t="shared" si="12"/>
         <v>1.1393321513002366</v>
       </c>
-      <c r="P10" s="28">
+      <c r="P10" s="38">
         <f t="shared" si="13"/>
         <v>1.1936519931985641</v>
       </c>
-      <c r="Q10" s="28">
+      <c r="Q10" s="38">
         <f t="shared" si="14"/>
         <v>1.0609477124183007</v>
       </c>
-      <c r="R10" s="28">
+      <c r="R10" s="38">
         <f t="shared" si="15"/>
         <v>1.2038310412573674</v>
       </c>
-      <c r="S10" s="28">
+      <c r="S10" s="38">
         <f t="shared" si="16"/>
         <v>1.2636457260556127</v>
       </c>
-      <c r="T10" s="28">
+      <c r="T10" s="38">
         <f t="shared" si="17"/>
         <v>1.4446366782006919</v>
       </c>
@@ -15153,71 +15163,71 @@
         <f t="shared" si="8"/>
         <v>128</v>
       </c>
-      <c r="C11" s="28">
+      <c r="C11" s="38">
         <f t="shared" si="0"/>
         <v>0.8754909090909091</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="38">
         <f t="shared" si="1"/>
         <v>0.89186946902654873</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E11" s="38">
         <f t="shared" si="2"/>
         <v>0.86240233081711037</v>
       </c>
-      <c r="F11" s="28">
+      <c r="F11" s="38">
         <f t="shared" si="3"/>
         <v>0.8178237321516495</v>
       </c>
-      <c r="G11" s="28">
+      <c r="G11" s="38">
         <f t="shared" si="4"/>
         <v>0.86517571884984035</v>
       </c>
-      <c r="H11" s="28">
+      <c r="H11" s="38">
         <f t="shared" si="5"/>
         <v>0.81315565636518294</v>
       </c>
-      <c r="I11" s="28">
+      <c r="I11" s="38">
         <f t="shared" si="6"/>
         <v>0.75804195804195806</v>
       </c>
-      <c r="J11" s="28">
+      <c r="J11" s="38">
         <f t="shared" si="7"/>
         <v>0.67375949143563485</v>
       </c>
-      <c r="L11" s="31">
+      <c r="L11" s="30">
         <f t="shared" si="9"/>
         <v>128</v>
       </c>
-      <c r="M11" s="28">
+      <c r="M11" s="38">
         <f t="shared" si="10"/>
         <v>1.142216315002492</v>
       </c>
-      <c r="N11" s="28">
+      <c r="N11" s="38">
         <f t="shared" si="11"/>
         <v>1.1212403100775192</v>
       </c>
-      <c r="O11" s="28">
+      <c r="O11" s="38">
         <f t="shared" si="12"/>
         <v>1.159551597051597</v>
       </c>
-      <c r="P11" s="28">
+      <c r="P11" s="38">
         <f t="shared" si="13"/>
         <v>1.2227573750752558</v>
       </c>
-      <c r="Q11" s="28">
+      <c r="Q11" s="38">
         <f t="shared" si="14"/>
         <v>1.1558345642540619</v>
       </c>
-      <c r="R11" s="28">
+      <c r="R11" s="38">
         <f t="shared" si="15"/>
         <v>1.2297768479776847</v>
       </c>
-      <c r="S11" s="28">
+      <c r="S11" s="38">
         <f t="shared" si="16"/>
         <v>1.3191881918819188</v>
       </c>
-      <c r="T11" s="37">
+      <c r="T11" s="39">
         <f t="shared" si="17"/>
         <v>1.4842091469007992</v>
       </c>
@@ -15227,71 +15237,71 @@
         <f t="shared" si="8"/>
         <v>256</v>
       </c>
-      <c r="C12" s="28">
+      <c r="C12" s="38">
         <f t="shared" si="0"/>
         <v>0.86047918120493139</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D12" s="38">
         <f t="shared" si="1"/>
         <v>0.88860621479193169</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="38">
         <f t="shared" si="2"/>
         <v>0.85033146353901068</v>
       </c>
-      <c r="F12" s="28">
+      <c r="F12" s="38">
         <f t="shared" si="3"/>
         <v>0.86423505572441739</v>
       </c>
-      <c r="G12" s="28">
+      <c r="G12" s="38">
         <f t="shared" si="4"/>
         <v>0.83931333127126517</v>
       </c>
-      <c r="H12" s="28">
+      <c r="H12" s="38">
         <f t="shared" si="5"/>
         <v>0.83637122582440515</v>
       </c>
-      <c r="I12" s="28">
+      <c r="I12" s="38">
         <f t="shared" si="6"/>
         <v>0.78081546075889696</v>
       </c>
-      <c r="J12" s="28">
+      <c r="J12" s="38">
         <f t="shared" si="7"/>
         <v>0.6780991006877094</v>
       </c>
-      <c r="L12" s="31">
+      <c r="L12" s="30">
         <f t="shared" si="9"/>
         <v>256</v>
       </c>
-      <c r="M12" s="28">
+      <c r="M12" s="38">
         <f t="shared" si="10"/>
         <v>1.1621431660899655</v>
       </c>
-      <c r="N12" s="28">
+      <c r="N12" s="38">
         <f t="shared" si="11"/>
         <v>1.125357873210634</v>
       </c>
-      <c r="O12" s="28">
+      <c r="O12" s="38">
         <f t="shared" si="12"/>
         <v>1.1760119940029985</v>
       </c>
-      <c r="P12" s="28">
+      <c r="P12" s="38">
         <f t="shared" si="13"/>
         <v>1.157092614302462</v>
       </c>
-      <c r="Q12" s="28">
+      <c r="Q12" s="38">
         <f t="shared" si="14"/>
         <v>1.1914501566242859</v>
       </c>
-      <c r="R12" s="28">
+      <c r="R12" s="38">
         <f t="shared" si="15"/>
         <v>1.1956413242388955</v>
       </c>
-      <c r="S12" s="28">
+      <c r="S12" s="38">
         <f t="shared" si="16"/>
         <v>1.2807123453063689</v>
       </c>
-      <c r="T12" s="28">
+      <c r="T12" s="38">
         <f t="shared" si="17"/>
         <v>1.4747107008191394</v>
       </c>
@@ -15301,71 +15311,71 @@
         <f t="shared" si="8"/>
         <v>512</v>
       </c>
-      <c r="C13" s="28">
+      <c r="C13" s="38">
         <f t="shared" si="0"/>
         <v>0.92405063291139256</v>
       </c>
-      <c r="D13" s="28">
+      <c r="D13" s="38">
         <f t="shared" si="1"/>
         <v>0.97586322494133426</v>
       </c>
-      <c r="E13" s="28">
+      <c r="E13" s="38">
         <f t="shared" si="2"/>
         <v>0.93642713389369003</v>
       </c>
-      <c r="F13" s="28">
+      <c r="F13" s="38">
         <f t="shared" si="3"/>
         <v>1.0083981337480559</v>
       </c>
-      <c r="G13" s="28">
+      <c r="G13" s="38">
         <f t="shared" si="4"/>
         <v>1.0217199882594659</v>
       </c>
-      <c r="H13" s="28">
+      <c r="H13" s="38">
         <f t="shared" si="5"/>
         <v>0.95464882943143814</v>
       </c>
-      <c r="I13" s="28">
+      <c r="I13" s="38">
         <f t="shared" si="6"/>
         <v>0.89207650273224048</v>
       </c>
-      <c r="J13" s="28">
+      <c r="J13" s="38">
         <f t="shared" si="7"/>
         <v>0.7628310898827616</v>
       </c>
-      <c r="L13" s="31">
+      <c r="L13" s="30">
         <f t="shared" si="9"/>
         <v>512</v>
       </c>
-      <c r="M13" s="28">
+      <c r="M13" s="38">
         <f t="shared" si="10"/>
         <v>1.0821917808219177</v>
       </c>
-      <c r="N13" s="28">
+      <c r="N13" s="38">
         <f t="shared" si="11"/>
         <v>1.0247337684644451</v>
       </c>
-      <c r="O13" s="28">
+      <c r="O13" s="38">
         <f t="shared" si="12"/>
         <v>1.0678887484197219</v>
       </c>
-      <c r="P13" s="28">
+      <c r="P13" s="38">
         <f t="shared" si="13"/>
         <v>0.99167180752621842</v>
       </c>
-      <c r="Q13" s="28">
+      <c r="Q13" s="38">
         <f t="shared" si="14"/>
         <v>0.97874174087905763</v>
       </c>
-      <c r="R13" s="28">
+      <c r="R13" s="38">
         <f t="shared" si="15"/>
         <v>1.047505605381166</v>
       </c>
-      <c r="S13" s="28">
+      <c r="S13" s="38">
         <f t="shared" si="16"/>
         <v>1.1209800918836141</v>
       </c>
-      <c r="T13" s="28">
+      <c r="T13" s="38">
         <f t="shared" si="17"/>
         <v>1.3109061930783243</v>
       </c>
@@ -15375,71 +15385,71 @@
         <f t="shared" si="8"/>
         <v>1024</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="38">
         <f t="shared" si="0"/>
         <v>1.2790811707905854</v>
       </c>
-      <c r="D14" s="28">
+      <c r="D14" s="38">
         <f t="shared" si="1"/>
         <v>1.3597809296447128</v>
       </c>
-      <c r="E14" s="28">
+      <c r="E14" s="38">
         <f t="shared" si="2"/>
         <v>1.5360233447373717</v>
       </c>
-      <c r="F14" s="28">
+      <c r="F14" s="38">
         <f t="shared" si="3"/>
         <v>1.7487666034155598</v>
       </c>
-      <c r="G14" s="28">
+      <c r="G14" s="38">
         <f t="shared" si="4"/>
         <v>1.7106668322364336</v>
       </c>
-      <c r="H14" s="28">
+      <c r="H14" s="38">
         <f t="shared" si="5"/>
         <v>1.5718976449275361</v>
       </c>
-      <c r="I14" s="28">
+      <c r="I14" s="38">
         <f t="shared" si="6"/>
         <v>1.2979189485213583</v>
       </c>
-      <c r="J14" s="28">
+      <c r="J14" s="38">
         <f t="shared" si="7"/>
         <v>1.1875</v>
       </c>
-      <c r="L14" s="31">
+      <c r="L14" s="30">
         <f t="shared" si="9"/>
         <v>1024</v>
       </c>
-      <c r="M14" s="28">
+      <c r="M14" s="38">
         <f t="shared" si="10"/>
         <v>0.78181121170121781</v>
       </c>
-      <c r="N14" s="28">
+      <c r="N14" s="38">
         <f t="shared" si="11"/>
         <v>0.73541257874625643</v>
       </c>
-      <c r="O14" s="28">
+      <c r="O14" s="38">
         <f t="shared" si="12"/>
         <v>0.65103177202751394</v>
       </c>
-      <c r="P14" s="28">
+      <c r="P14" s="38">
         <f t="shared" si="13"/>
         <v>0.57183159722222221</v>
       </c>
-      <c r="Q14" s="28">
+      <c r="Q14" s="38">
         <f t="shared" si="14"/>
         <v>0.58456736353077821</v>
       </c>
-      <c r="R14" s="28">
+      <c r="R14" s="38">
         <f t="shared" si="15"/>
         <v>0.63617373766476992</v>
       </c>
-      <c r="S14" s="28">
+      <c r="S14" s="38">
         <f t="shared" si="16"/>
         <v>0.77046413502109701</v>
       </c>
-      <c r="T14" s="28">
+      <c r="T14" s="38">
         <f t="shared" si="17"/>
         <v>0.84210526315789469</v>
       </c>
@@ -15449,71 +15459,71 @@
         <f t="shared" si="8"/>
         <v>2048</v>
       </c>
-      <c r="C15" s="28">
+      <c r="C15" s="38">
         <f t="shared" si="0"/>
         <v>2.224679735765291</v>
       </c>
-      <c r="D15" s="28">
+      <c r="D15" s="38">
         <f t="shared" si="1"/>
         <v>2.7255841548010227</v>
       </c>
-      <c r="E15" s="28">
+      <c r="E15" s="38">
         <f t="shared" si="2"/>
         <v>3.0606265772142551</v>
       </c>
-      <c r="F15" s="28">
+      <c r="F15" s="38">
         <f t="shared" si="3"/>
         <v>3.5879996977253836</v>
       </c>
-      <c r="G15" s="37">
+      <c r="G15" s="39">
         <f t="shared" si="4"/>
         <v>3.8726644685193907</v>
       </c>
-      <c r="H15" s="28">
+      <c r="H15" s="38">
         <f t="shared" si="5"/>
         <v>3.5434412265758093</v>
       </c>
-      <c r="I15" s="28">
+      <c r="I15" s="38">
         <f t="shared" si="6"/>
         <v>3.3803819322105566</v>
       </c>
-      <c r="J15" s="28">
+      <c r="J15" s="38">
         <f t="shared" si="7"/>
         <v>2.5675852627819773</v>
       </c>
-      <c r="L15" s="31">
+      <c r="L15" s="30">
         <f t="shared" si="9"/>
         <v>2048</v>
       </c>
-      <c r="M15" s="28">
+      <c r="M15" s="38">
         <f t="shared" si="10"/>
         <v>0.44950290323744035</v>
       </c>
-      <c r="N15" s="28">
+      <c r="N15" s="38">
         <f t="shared" si="11"/>
         <v>0.36689382649900371</v>
       </c>
-      <c r="O15" s="28">
+      <c r="O15" s="38">
         <f t="shared" si="12"/>
         <v>0.32673048304709806</v>
       </c>
-      <c r="P15" s="28">
+      <c r="P15" s="38">
         <f t="shared" si="13"/>
         <v>0.27870682392586349</v>
       </c>
-      <c r="Q15" s="28">
+      <c r="Q15" s="38">
         <f t="shared" si="14"/>
         <v>0.25822015001013582</v>
       </c>
-      <c r="R15" s="28">
+      <c r="R15" s="38">
         <f t="shared" si="15"/>
         <v>0.28221153846153846</v>
       </c>
-      <c r="S15" s="28">
+      <c r="S15" s="38">
         <f t="shared" si="16"/>
         <v>0.29582456067207269</v>
       </c>
-      <c r="T15" s="28">
+      <c r="T15" s="38">
         <f t="shared" si="17"/>
         <v>0.38947100004636281</v>
       </c>
@@ -15539,52 +15549,52 @@
       <c r="S18" s="3"/>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="34" t="s">
+      <c r="D19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="35" t="s">
+      <c r="E19" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="F19" s="35" t="s">
+      <c r="F19" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="G19" s="35" t="s">
+      <c r="G19" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="H19" s="35" t="s">
+      <c r="H19" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="I19" s="35" t="s">
+      <c r="I19" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="L19" s="32" t="s">
+      <c r="L19" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="M19" s="33" t="s">
+      <c r="M19" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="N19" s="36" t="s">
+      <c r="N19" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="O19" s="35" t="s">
+      <c r="O19" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="P19" s="35" t="s">
+      <c r="P19" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="Q19" s="35" t="s">
+      <c r="Q19" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="R19" s="35" t="s">
+      <c r="R19" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="S19" s="35" t="s">
+      <c r="S19" s="34" t="s">
         <v>6</v>
       </c>
     </row>

--- a/docs/Comparison.xlsx
+++ b/docs/Comparison.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7452" yWindow="0" windowWidth="22110" windowHeight="9402" activeTab="3"/>
+    <workbookView xWindow="8394" yWindow="0" windowWidth="22110" windowHeight="9402"/>
   </bookViews>
   <sheets>
     <sheet name="Graphs" sheetId="4" r:id="rId1"/>
@@ -75,9 +75,6 @@
     <t>TBB Execution Time Records</t>
   </si>
   <si>
-    <t>Tiles</t>
-  </si>
-  <si>
     <t>Ratio</t>
   </si>
   <si>
@@ -100,6 +97,9 @@
   </si>
   <si>
     <t>C++ Speed Up</t>
+  </si>
+  <si>
+    <t>VP</t>
   </si>
 </sst>
 </file>
@@ -220,7 +220,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -262,14 +261,15 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11972,9 +11972,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A72" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C102" sqref="C102"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData/>
@@ -11987,9 +11985,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:W116"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -12016,10 +12012,10 @@
       <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="36"/>
+      <c r="D5" s="37"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="13" t="s">
@@ -12519,27 +12515,27 @@
       <c r="D19" s="11"/>
     </row>
     <row r="20" spans="2:10" ht="25.8" x14ac:dyDescent="0.95">
-      <c r="B20" s="17" t="s">
-        <v>17</v>
+      <c r="B20" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="D22" s="36"/>
+      <c r="D22" s="37"/>
       <c r="E22"/>
       <c r="F22"/>
       <c r="G22"/>
-      <c r="H22" s="37" t="s">
+      <c r="H22" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="I22" s="37"/>
+      <c r="I22" s="38"/>
       <c r="J22" s="5">
         <f>'Execution Time Records'!D20</f>
         <v>12455</v>
@@ -12549,28 +12545,28 @@
       <c r="B23" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="18">
+      <c r="C23" s="17">
         <v>1</v>
       </c>
       <c r="D23" s="12">
         <v>2</v>
       </c>
-      <c r="E23" s="19">
+      <c r="E23" s="18">
         <v>3</v>
       </c>
-      <c r="F23" s="19">
+      <c r="F23" s="18">
         <v>4</v>
       </c>
-      <c r="G23" s="19">
+      <c r="G23" s="18">
         <v>5</v>
       </c>
-      <c r="H23" s="19">
+      <c r="H23" s="18">
         <v>6</v>
       </c>
-      <c r="I23" s="19">
+      <c r="I23" s="18">
         <v>7</v>
       </c>
-      <c r="J23" s="19">
+      <c r="J23" s="18">
         <v>8</v>
       </c>
     </row>
@@ -13449,9 +13445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -13460,7 +13454,7 @@
   <sheetData>
     <row r="2" spans="2:10" ht="25.8" x14ac:dyDescent="0.95">
       <c r="B2" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -13500,10 +13494,10 @@
       <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="36"/>
+      <c r="D5" s="37"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
@@ -13996,8 +13990,8 @@
       </c>
     </row>
     <row r="20" spans="2:10" ht="25.8" x14ac:dyDescent="0.95">
-      <c r="B20" s="17" t="s">
-        <v>22</v>
+      <c r="B20" s="16" t="s">
+        <v>21</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
@@ -14020,16 +14014,16 @@
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="D22" s="36"/>
-      <c r="H22" s="37" t="s">
+      <c r="D22" s="37"/>
+      <c r="H22" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="I22" s="37"/>
+      <c r="I22" s="38"/>
       <c r="J22" s="5">
         <f>'Execution Time Records'!N20</f>
         <v>5993.2</v>
@@ -14039,28 +14033,28 @@
       <c r="B23" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="18">
+      <c r="C23" s="17">
         <v>1</v>
       </c>
       <c r="D23" s="12">
         <v>2</v>
       </c>
-      <c r="E23" s="19">
+      <c r="E23" s="18">
         <v>3</v>
       </c>
-      <c r="F23" s="19">
+      <c r="F23" s="18">
         <v>4</v>
       </c>
-      <c r="G23" s="19">
+      <c r="G23" s="18">
         <v>5</v>
       </c>
-      <c r="H23" s="19">
+      <c r="H23" s="18">
         <v>6</v>
       </c>
-      <c r="I23" s="19">
+      <c r="I23" s="18">
         <v>7</v>
       </c>
-      <c r="J23" s="19">
+      <c r="J23" s="18">
         <v>8</v>
       </c>
     </row>
@@ -14533,9 +14527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -14543,7 +14535,7 @@
     <col min="5" max="9" width="8.578125" style="3" customWidth="1"/>
     <col min="11" max="11" width="8.9453125" customWidth="1"/>
     <col min="12" max="12" width="11.578125" customWidth="1"/>
-    <col min="13" max="13" width="8.578125" style="26" customWidth="1"/>
+    <col min="13" max="13" width="8.578125" style="25" customWidth="1"/>
     <col min="14" max="18" width="8.578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -14559,10 +14551,10 @@
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="2:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="16" t="s">
+      <c r="B2" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="39" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="2"/>
@@ -14572,10 +14564,10 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="L2" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="16" t="s">
+      <c r="L2" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="39" t="s">
         <v>10</v>
       </c>
       <c r="N2" s="2"/>
@@ -14587,58 +14579,58 @@
       <c r="T2" s="2"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="29">
+      <c r="B3" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="19">
         <v>1</v>
       </c>
-      <c r="D3" s="29">
+      <c r="D3" s="19">
         <v>2</v>
       </c>
-      <c r="E3" s="29">
+      <c r="E3" s="19">
         <v>3</v>
       </c>
-      <c r="F3" s="29">
+      <c r="F3" s="19">
         <v>4</v>
       </c>
-      <c r="G3" s="29">
+      <c r="G3" s="19">
         <v>5</v>
       </c>
-      <c r="H3" s="29">
+      <c r="H3" s="19">
         <v>6</v>
       </c>
-      <c r="I3" s="29">
+      <c r="I3" s="19">
         <v>7</v>
       </c>
-      <c r="J3" s="29">
+      <c r="J3" s="19">
         <v>8</v>
       </c>
-      <c r="L3" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" s="29">
+      <c r="L3" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="28">
         <v>1</v>
       </c>
-      <c r="N3" s="29">
+      <c r="N3" s="28">
         <v>2</v>
       </c>
-      <c r="O3" s="29">
+      <c r="O3" s="28">
         <v>3</v>
       </c>
-      <c r="P3" s="29">
+      <c r="P3" s="28">
         <v>4</v>
       </c>
-      <c r="Q3" s="29">
+      <c r="Q3" s="28">
         <v>5</v>
       </c>
-      <c r="R3" s="29">
+      <c r="R3" s="28">
         <v>6</v>
       </c>
-      <c r="S3" s="29">
+      <c r="S3" s="28">
         <v>7</v>
       </c>
-      <c r="T3" s="29">
+      <c r="T3" s="28">
         <v>8</v>
       </c>
     </row>
@@ -14646,70 +14638,70 @@
       <c r="B4" s="15">
         <v>1</v>
       </c>
-      <c r="C4" s="38">
+      <c r="C4" s="35">
         <f t="shared" ref="C4:C15" si="0">$D21/$N21</f>
         <v>2.1350202563591685</v>
       </c>
-      <c r="D4" s="38">
+      <c r="D4" s="35">
         <f t="shared" ref="D4:D15" si="1">$D33/$N33</f>
         <v>2.1567013003986149</v>
       </c>
-      <c r="E4" s="38">
+      <c r="E4" s="35">
         <f t="shared" ref="E4:E15" si="2">$D45/$N45</f>
         <v>2.199879550321199</v>
       </c>
-      <c r="F4" s="38">
+      <c r="F4" s="35">
         <f t="shared" ref="F4:F15" si="3">$D57/$N57</f>
         <v>2.1437529029261495</v>
       </c>
-      <c r="G4" s="38">
+      <c r="G4" s="35">
         <f t="shared" ref="G4:G15" si="4">$D69/$N69</f>
         <v>2.1038999506335361</v>
       </c>
-      <c r="H4" s="38">
+      <c r="H4" s="35">
         <f t="shared" ref="H4:H15" si="5">$D81/$N81</f>
         <v>2.1126585182029687</v>
       </c>
-      <c r="I4" s="38">
+      <c r="I4" s="35">
         <f t="shared" ref="I4:I15" si="6">$D93/$N93</f>
         <v>2.1642545598731164</v>
       </c>
-      <c r="J4" s="38">
+      <c r="J4" s="35">
         <f t="shared" ref="J4:J15" si="7">$D105/$N105</f>
         <v>2.1412559749464317</v>
       </c>
-      <c r="L4" s="30">
+      <c r="L4" s="29">
         <v>1</v>
       </c>
-      <c r="M4" s="38">
+      <c r="M4" s="35">
         <f>$N21/$D21</f>
         <v>0.46837963106977326</v>
       </c>
-      <c r="N4" s="38">
+      <c r="N4" s="35">
         <f>$N33/$D33</f>
         <v>0.46367107017331227</v>
       </c>
-      <c r="O4" s="38">
+      <c r="O4" s="35">
         <f>$N45/$D45</f>
         <v>0.45457034220532322</v>
       </c>
-      <c r="P4" s="38">
+      <c r="P4" s="35">
         <f>$N57/$D57</f>
         <v>0.46647167154154479</v>
       </c>
-      <c r="Q4" s="38">
+      <c r="Q4" s="35">
         <f>$N69/$D69</f>
         <v>0.47530777292849657</v>
       </c>
-      <c r="R4" s="38">
+      <c r="R4" s="35">
         <f>$N81/$D81</f>
         <v>0.47333726268767834</v>
       </c>
-      <c r="S4" s="38">
+      <c r="S4" s="35">
         <f>$N93/$D93</f>
         <v>0.4620528557687904</v>
       </c>
-      <c r="T4" s="38">
+      <c r="T4" s="35">
         <f>$N105/$D105</f>
         <v>0.46701562620275577</v>
       </c>
@@ -14719,71 +14711,71 @@
         <f t="shared" ref="B5:B15" si="8">B4*2</f>
         <v>2</v>
       </c>
-      <c r="C5" s="38">
+      <c r="C5" s="35">
         <f t="shared" si="0"/>
         <v>1.8298393973848777</v>
       </c>
-      <c r="D5" s="38">
+      <c r="D5" s="35">
         <f t="shared" si="1"/>
         <v>1.8602765510750743</v>
       </c>
-      <c r="E5" s="38">
+      <c r="E5" s="35">
         <f t="shared" si="2"/>
         <v>1.8388977985129027</v>
       </c>
-      <c r="F5" s="38">
+      <c r="F5" s="35">
         <f t="shared" si="3"/>
         <v>1.8891218776441157</v>
       </c>
-      <c r="G5" s="38">
+      <c r="G5" s="35">
         <f t="shared" si="4"/>
         <v>1.8450709296464318</v>
       </c>
-      <c r="H5" s="38">
+      <c r="H5" s="35">
         <f t="shared" si="5"/>
         <v>1.81163504968383</v>
       </c>
-      <c r="I5" s="38">
+      <c r="I5" s="35">
         <f t="shared" si="6"/>
         <v>1.9368389580296745</v>
       </c>
-      <c r="J5" s="38">
+      <c r="J5" s="35">
         <f t="shared" si="7"/>
         <v>1.9099374309900627</v>
       </c>
-      <c r="L5" s="30">
+      <c r="L5" s="29">
         <f t="shared" ref="L5:L15" si="9">L4*2</f>
         <v>2</v>
       </c>
-      <c r="M5" s="38">
+      <c r="M5" s="35">
         <f t="shared" ref="M5:M15" si="10">$N22/$D22</f>
         <v>0.54649604846696054</v>
       </c>
-      <c r="N5" s="38">
+      <c r="N5" s="35">
         <f t="shared" ref="N5:N15" si="11">$N34/$D34</f>
         <v>0.53755448318804488</v>
       </c>
-      <c r="O5" s="38">
+      <c r="O5" s="35">
         <f t="shared" ref="O5:O15" si="12">$N46/$D46</f>
         <v>0.54380401173392534</v>
       </c>
-      <c r="P5" s="38">
+      <c r="P5" s="35">
         <f t="shared" ref="P5:P15" si="13">$N58/$D58</f>
         <v>0.52934647141299274</v>
       </c>
-      <c r="Q5" s="38">
+      <c r="Q5" s="35">
         <f t="shared" ref="Q5:Q15" si="14">$N70/$D70</f>
         <v>0.54198458386184023</v>
       </c>
-      <c r="R5" s="38">
+      <c r="R5" s="35">
         <f t="shared" ref="R5:R15" si="15">$N82/$D82</f>
         <v>0.55198755410176115</v>
       </c>
-      <c r="S5" s="38">
+      <c r="S5" s="35">
         <f t="shared" ref="S5:S15" si="16">$N94/$D94</f>
         <v>0.51630518678604509</v>
       </c>
-      <c r="T5" s="38">
+      <c r="T5" s="35">
         <f t="shared" ref="T5:T15" si="17">$N106/$D106</f>
         <v>0.52357736110843467</v>
       </c>
@@ -14793,71 +14785,71 @@
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="C6" s="38">
-        <f t="shared" si="0"/>
+      <c r="C6" s="35">
+        <f>$D23/$N23</f>
         <v>1.4712727272727273</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="35">
         <f t="shared" si="1"/>
         <v>1.5028947987761827</v>
       </c>
-      <c r="E6" s="38">
+      <c r="E6" s="35">
         <f t="shared" si="2"/>
         <v>1.5663340812526856</v>
       </c>
-      <c r="F6" s="38">
+      <c r="F6" s="35">
         <f t="shared" si="3"/>
         <v>1.5370088782067004</v>
       </c>
-      <c r="G6" s="38">
+      <c r="G6" s="35">
         <f t="shared" si="4"/>
         <v>1.562894775498213</v>
       </c>
-      <c r="H6" s="38">
+      <c r="H6" s="35">
         <f t="shared" si="5"/>
         <v>1.4900034218116047</v>
       </c>
-      <c r="I6" s="38">
+      <c r="I6" s="35">
         <f t="shared" si="6"/>
         <v>1.578177945590086</v>
       </c>
-      <c r="J6" s="38">
+      <c r="J6" s="35">
         <f t="shared" si="7"/>
         <v>1.5781752607466613</v>
       </c>
-      <c r="L6" s="30">
+      <c r="L6" s="29">
         <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="M6" s="38">
+      <c r="M6" s="35">
         <f t="shared" si="10"/>
         <v>0.67968363816114685</v>
       </c>
-      <c r="N6" s="38">
+      <c r="N6" s="35">
         <f t="shared" si="11"/>
         <v>0.66538256757179992</v>
       </c>
-      <c r="O6" s="38">
+      <c r="O6" s="35">
         <f t="shared" si="12"/>
         <v>0.63843340444986274</v>
       </c>
-      <c r="P6" s="38">
+      <c r="P6" s="35">
         <f t="shared" si="13"/>
         <v>0.6506143290250519</v>
       </c>
-      <c r="Q6" s="38">
+      <c r="Q6" s="35">
         <f t="shared" si="14"/>
         <v>0.63983834080015034</v>
       </c>
-      <c r="R6" s="38">
+      <c r="R6" s="35">
         <f t="shared" si="15"/>
         <v>0.67113939831370362</v>
       </c>
-      <c r="S6" s="38">
+      <c r="S6" s="35">
         <f t="shared" si="16"/>
         <v>0.6336421078461445</v>
       </c>
-      <c r="T6" s="38">
+      <c r="T6" s="35">
         <f t="shared" si="17"/>
         <v>0.63364318581884449</v>
       </c>
@@ -14867,71 +14859,71 @@
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="C7" s="38">
+      <c r="C7" s="35">
         <f t="shared" si="0"/>
         <v>1.1929850024189648</v>
       </c>
-      <c r="D7" s="38">
+      <c r="D7" s="35">
         <f t="shared" si="1"/>
         <v>1.2353275274517228</v>
       </c>
-      <c r="E7" s="38">
+      <c r="E7" s="35">
         <f t="shared" si="2"/>
         <v>1.2008062312107133</v>
       </c>
-      <c r="F7" s="38">
+      <c r="F7" s="35">
         <f t="shared" si="3"/>
         <v>1.2377442209976384</v>
       </c>
-      <c r="G7" s="38">
+      <c r="G7" s="35">
         <f t="shared" si="4"/>
         <v>1.2637135316356372</v>
       </c>
-      <c r="H7" s="38">
+      <c r="H7" s="35">
         <f t="shared" si="5"/>
         <v>1.2211225788208682</v>
       </c>
-      <c r="I7" s="38">
+      <c r="I7" s="35">
         <f t="shared" si="6"/>
         <v>1.2746239000851547</v>
       </c>
-      <c r="J7" s="38">
+      <c r="J7" s="35">
         <f t="shared" si="7"/>
         <v>1.2714788732394366</v>
       </c>
-      <c r="L7" s="30">
+      <c r="L7" s="29">
         <f t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="M7" s="38">
+      <c r="M7" s="35">
         <f t="shared" si="10"/>
         <v>0.8382335050083134</v>
       </c>
-      <c r="N7" s="38">
+      <c r="N7" s="35">
         <f t="shared" si="11"/>
         <v>0.80950191570881225</v>
       </c>
-      <c r="O7" s="38">
+      <c r="O7" s="35">
         <f t="shared" si="12"/>
         <v>0.83277382645803688</v>
       </c>
-      <c r="P7" s="38">
+      <c r="P7" s="35">
         <f t="shared" si="13"/>
         <v>0.80792136455623009</v>
       </c>
-      <c r="Q7" s="38">
+      <c r="Q7" s="35">
         <f t="shared" si="14"/>
         <v>0.79131858207270278</v>
       </c>
-      <c r="R7" s="38">
+      <c r="R7" s="35">
         <f t="shared" si="15"/>
         <v>0.8189186059974527</v>
       </c>
-      <c r="S7" s="38">
+      <c r="S7" s="35">
         <f t="shared" si="16"/>
         <v>0.78454515087406751</v>
       </c>
-      <c r="T7" s="38">
+      <c r="T7" s="35">
         <f t="shared" si="17"/>
         <v>0.78648573802270838</v>
       </c>
@@ -14941,71 +14933,71 @@
         <f t="shared" si="8"/>
         <v>16</v>
       </c>
-      <c r="C8" s="38">
+      <c r="C8" s="35">
         <f t="shared" si="0"/>
         <v>1.0648171374103246</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="35">
         <f t="shared" si="1"/>
         <v>0.83379851143009043</v>
       </c>
-      <c r="E8" s="38">
+      <c r="E8" s="35">
         <f t="shared" si="2"/>
         <v>0.92031080592699677</v>
       </c>
-      <c r="F8" s="38">
+      <c r="F8" s="35">
         <f t="shared" si="3"/>
         <v>1.046063377981052</v>
       </c>
-      <c r="G8" s="38">
+      <c r="G8" s="35">
         <f t="shared" si="4"/>
         <v>1.0826873385012921</v>
       </c>
-      <c r="H8" s="38">
+      <c r="H8" s="35">
         <f t="shared" si="5"/>
         <v>1.0187611361492506</v>
       </c>
-      <c r="I8" s="38">
+      <c r="I8" s="35">
         <f t="shared" si="6"/>
         <v>1.0292583120204604</v>
       </c>
-      <c r="J8" s="38">
+      <c r="J8" s="35">
         <f t="shared" si="7"/>
         <v>0.9094594594594595</v>
       </c>
-      <c r="L8" s="30">
+      <c r="L8" s="29">
         <f t="shared" si="9"/>
         <v>16</v>
       </c>
-      <c r="M8" s="38">
+      <c r="M8" s="35">
         <f t="shared" si="10"/>
         <v>0.9391283863368669</v>
       </c>
-      <c r="N8" s="38">
+      <c r="N8" s="35">
         <f t="shared" si="11"/>
         <v>1.1993305172551207</v>
       </c>
-      <c r="O8" s="38">
+      <c r="O8" s="35">
         <f t="shared" si="12"/>
         <v>1.086589436481445</v>
       </c>
-      <c r="P8" s="38">
+      <c r="P8" s="35">
         <f t="shared" si="13"/>
         <v>0.95596502186133658</v>
       </c>
-      <c r="Q8" s="38">
+      <c r="Q8" s="35">
         <f t="shared" si="14"/>
         <v>0.92362768496420045</v>
       </c>
-      <c r="R8" s="38">
+      <c r="R8" s="35">
         <f t="shared" si="15"/>
         <v>0.98158436213991773</v>
       </c>
-      <c r="S8" s="38">
+      <c r="S8" s="35">
         <f t="shared" si="16"/>
         <v>0.97157340224629751</v>
       </c>
-      <c r="T8" s="38">
+      <c r="T8" s="35">
         <f t="shared" si="17"/>
         <v>1.0995542347696881</v>
       </c>
@@ -15015,71 +15007,71 @@
         <f t="shared" si="8"/>
         <v>32</v>
       </c>
-      <c r="C9" s="38">
+      <c r="C9" s="35">
         <f t="shared" si="0"/>
         <v>1.0087624349260347</v>
       </c>
-      <c r="D9" s="38">
+      <c r="D9" s="35">
         <f t="shared" si="1"/>
         <v>0.93242148834698113</v>
       </c>
-      <c r="E9" s="38">
+      <c r="E9" s="35">
         <f t="shared" si="2"/>
         <v>0.9526691683815518</v>
       </c>
-      <c r="F9" s="38">
+      <c r="F9" s="35">
         <f t="shared" si="3"/>
         <v>0.92719188550785037</v>
       </c>
-      <c r="G9" s="38">
+      <c r="G9" s="35">
         <f t="shared" si="4"/>
         <v>0.94266441821247882</v>
       </c>
-      <c r="H9" s="38">
+      <c r="H9" s="35">
         <f t="shared" si="5"/>
         <v>0.86587942821628339</v>
       </c>
-      <c r="I9" s="38">
+      <c r="I9" s="35">
         <f t="shared" si="6"/>
         <v>0.85474353154788929</v>
       </c>
-      <c r="J9" s="38">
+      <c r="J9" s="35">
         <f t="shared" si="7"/>
         <v>0.69172609330698509</v>
       </c>
-      <c r="L9" s="30">
+      <c r="L9" s="29">
         <f t="shared" si="9"/>
         <v>32</v>
       </c>
-      <c r="M9" s="38">
+      <c r="M9" s="35">
         <f t="shared" si="10"/>
         <v>0.9913136784017168</v>
       </c>
-      <c r="N9" s="38">
+      <c r="N9" s="35">
         <f t="shared" si="11"/>
         <v>1.0724763559158463</v>
       </c>
-      <c r="O9" s="38">
+      <c r="O9" s="35">
         <f t="shared" si="12"/>
         <v>1.0496823379923761</v>
       </c>
-      <c r="P9" s="38">
+      <c r="P9" s="35">
         <f t="shared" si="13"/>
         <v>1.0785254008691745</v>
       </c>
-      <c r="Q9" s="38">
+      <c r="Q9" s="35">
         <f t="shared" si="14"/>
         <v>1.0608228980322005</v>
       </c>
-      <c r="R9" s="38">
+      <c r="R9" s="35">
         <f t="shared" si="15"/>
         <v>1.1548952052828021</v>
       </c>
-      <c r="S9" s="38">
+      <c r="S9" s="35">
         <f t="shared" si="16"/>
         <v>1.1699415825809878</v>
       </c>
-      <c r="T9" s="38">
+      <c r="T9" s="35">
         <f t="shared" si="17"/>
         <v>1.4456589243572229</v>
       </c>
@@ -15089,71 +15081,71 @@
         <f t="shared" si="8"/>
         <v>64</v>
       </c>
-      <c r="C10" s="38">
+      <c r="C10" s="35">
         <f t="shared" si="0"/>
         <v>0.91525340652877163</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="35">
         <f t="shared" si="1"/>
         <v>0.8761198081621574</v>
       </c>
-      <c r="E10" s="38">
+      <c r="E10" s="35">
         <f t="shared" si="2"/>
         <v>0.87770717157307732</v>
       </c>
-      <c r="F10" s="38">
+      <c r="F10" s="35">
         <f t="shared" si="3"/>
         <v>0.83776511554289335</v>
       </c>
-      <c r="G10" s="38">
+      <c r="G10" s="35">
         <f t="shared" si="4"/>
         <v>0.9425535191744957</v>
       </c>
-      <c r="H10" s="38">
+      <c r="H10" s="35">
         <f t="shared" si="5"/>
         <v>0.83068135454916359</v>
       </c>
-      <c r="I10" s="38">
+      <c r="I10" s="35">
         <f t="shared" si="6"/>
         <v>0.79136104319478406</v>
       </c>
-      <c r="J10" s="38">
+      <c r="J10" s="35">
         <f t="shared" si="7"/>
         <v>0.69221556886227553</v>
       </c>
-      <c r="L10" s="30">
+      <c r="L10" s="29">
         <f t="shared" si="9"/>
         <v>64</v>
       </c>
-      <c r="M10" s="38">
+      <c r="M10" s="35">
         <f t="shared" si="10"/>
         <v>1.092593584319606</v>
       </c>
-      <c r="N10" s="38">
+      <c r="N10" s="35">
         <f t="shared" si="11"/>
         <v>1.1413964057013013</v>
       </c>
-      <c r="O10" s="38">
+      <c r="O10" s="35">
         <f t="shared" si="12"/>
         <v>1.1393321513002366</v>
       </c>
-      <c r="P10" s="38">
+      <c r="P10" s="35">
         <f t="shared" si="13"/>
         <v>1.1936519931985641</v>
       </c>
-      <c r="Q10" s="38">
+      <c r="Q10" s="35">
         <f t="shared" si="14"/>
         <v>1.0609477124183007</v>
       </c>
-      <c r="R10" s="38">
+      <c r="R10" s="35">
         <f t="shared" si="15"/>
         <v>1.2038310412573674</v>
       </c>
-      <c r="S10" s="38">
+      <c r="S10" s="35">
         <f t="shared" si="16"/>
         <v>1.2636457260556127</v>
       </c>
-      <c r="T10" s="38">
+      <c r="T10" s="35">
         <f t="shared" si="17"/>
         <v>1.4446366782006919</v>
       </c>
@@ -15163,71 +15155,71 @@
         <f t="shared" si="8"/>
         <v>128</v>
       </c>
-      <c r="C11" s="38">
+      <c r="C11" s="35">
         <f t="shared" si="0"/>
         <v>0.8754909090909091</v>
       </c>
-      <c r="D11" s="38">
+      <c r="D11" s="35">
         <f t="shared" si="1"/>
         <v>0.89186946902654873</v>
       </c>
-      <c r="E11" s="38">
+      <c r="E11" s="35">
         <f t="shared" si="2"/>
         <v>0.86240233081711037</v>
       </c>
-      <c r="F11" s="38">
+      <c r="F11" s="35">
         <f t="shared" si="3"/>
         <v>0.8178237321516495</v>
       </c>
-      <c r="G11" s="38">
+      <c r="G11" s="35">
         <f t="shared" si="4"/>
         <v>0.86517571884984035</v>
       </c>
-      <c r="H11" s="38">
+      <c r="H11" s="35">
         <f t="shared" si="5"/>
         <v>0.81315565636518294</v>
       </c>
-      <c r="I11" s="38">
+      <c r="I11" s="35">
         <f t="shared" si="6"/>
         <v>0.75804195804195806</v>
       </c>
-      <c r="J11" s="38">
+      <c r="J11" s="35">
         <f t="shared" si="7"/>
         <v>0.67375949143563485</v>
       </c>
-      <c r="L11" s="30">
+      <c r="L11" s="29">
         <f t="shared" si="9"/>
         <v>128</v>
       </c>
-      <c r="M11" s="38">
+      <c r="M11" s="35">
         <f t="shared" si="10"/>
         <v>1.142216315002492</v>
       </c>
-      <c r="N11" s="38">
+      <c r="N11" s="35">
         <f t="shared" si="11"/>
         <v>1.1212403100775192</v>
       </c>
-      <c r="O11" s="38">
+      <c r="O11" s="35">
         <f t="shared" si="12"/>
         <v>1.159551597051597</v>
       </c>
-      <c r="P11" s="38">
+      <c r="P11" s="36">
         <f t="shared" si="13"/>
         <v>1.2227573750752558</v>
       </c>
-      <c r="Q11" s="38">
+      <c r="Q11" s="35">
         <f t="shared" si="14"/>
         <v>1.1558345642540619</v>
       </c>
-      <c r="R11" s="38">
+      <c r="R11" s="35">
         <f t="shared" si="15"/>
         <v>1.2297768479776847</v>
       </c>
-      <c r="S11" s="38">
+      <c r="S11" s="35">
         <f t="shared" si="16"/>
         <v>1.3191881918819188</v>
       </c>
-      <c r="T11" s="39">
+      <c r="T11" s="36">
         <f t="shared" si="17"/>
         <v>1.4842091469007992</v>
       </c>
@@ -15237,71 +15229,71 @@
         <f t="shared" si="8"/>
         <v>256</v>
       </c>
-      <c r="C12" s="38">
+      <c r="C12" s="35">
         <f t="shared" si="0"/>
         <v>0.86047918120493139</v>
       </c>
-      <c r="D12" s="38">
+      <c r="D12" s="35">
         <f t="shared" si="1"/>
         <v>0.88860621479193169</v>
       </c>
-      <c r="E12" s="38">
+      <c r="E12" s="35">
         <f t="shared" si="2"/>
         <v>0.85033146353901068</v>
       </c>
-      <c r="F12" s="38">
+      <c r="F12" s="35">
         <f t="shared" si="3"/>
         <v>0.86423505572441739</v>
       </c>
-      <c r="G12" s="38">
+      <c r="G12" s="35">
         <f t="shared" si="4"/>
         <v>0.83931333127126517</v>
       </c>
-      <c r="H12" s="38">
+      <c r="H12" s="35">
         <f t="shared" si="5"/>
         <v>0.83637122582440515</v>
       </c>
-      <c r="I12" s="38">
+      <c r="I12" s="35">
         <f t="shared" si="6"/>
         <v>0.78081546075889696</v>
       </c>
-      <c r="J12" s="38">
+      <c r="J12" s="35">
         <f t="shared" si="7"/>
         <v>0.6780991006877094</v>
       </c>
-      <c r="L12" s="30">
+      <c r="L12" s="29">
         <f t="shared" si="9"/>
         <v>256</v>
       </c>
-      <c r="M12" s="38">
+      <c r="M12" s="35">
         <f t="shared" si="10"/>
         <v>1.1621431660899655</v>
       </c>
-      <c r="N12" s="38">
+      <c r="N12" s="35">
         <f t="shared" si="11"/>
         <v>1.125357873210634</v>
       </c>
-      <c r="O12" s="38">
+      <c r="O12" s="35">
         <f t="shared" si="12"/>
         <v>1.1760119940029985</v>
       </c>
-      <c r="P12" s="38">
+      <c r="P12" s="35">
         <f t="shared" si="13"/>
         <v>1.157092614302462</v>
       </c>
-      <c r="Q12" s="38">
+      <c r="Q12" s="35">
         <f t="shared" si="14"/>
         <v>1.1914501566242859</v>
       </c>
-      <c r="R12" s="38">
+      <c r="R12" s="35">
         <f t="shared" si="15"/>
         <v>1.1956413242388955</v>
       </c>
-      <c r="S12" s="38">
+      <c r="S12" s="35">
         <f t="shared" si="16"/>
         <v>1.2807123453063689</v>
       </c>
-      <c r="T12" s="38">
+      <c r="T12" s="35">
         <f t="shared" si="17"/>
         <v>1.4747107008191394</v>
       </c>
@@ -15311,71 +15303,71 @@
         <f t="shared" si="8"/>
         <v>512</v>
       </c>
-      <c r="C13" s="38">
+      <c r="C13" s="35">
         <f t="shared" si="0"/>
         <v>0.92405063291139256</v>
       </c>
-      <c r="D13" s="38">
+      <c r="D13" s="35">
         <f t="shared" si="1"/>
         <v>0.97586322494133426</v>
       </c>
-      <c r="E13" s="38">
+      <c r="E13" s="35">
         <f t="shared" si="2"/>
         <v>0.93642713389369003</v>
       </c>
-      <c r="F13" s="38">
+      <c r="F13" s="35">
         <f t="shared" si="3"/>
         <v>1.0083981337480559</v>
       </c>
-      <c r="G13" s="38">
+      <c r="G13" s="35">
         <f t="shared" si="4"/>
         <v>1.0217199882594659</v>
       </c>
-      <c r="H13" s="38">
+      <c r="H13" s="35">
         <f t="shared" si="5"/>
         <v>0.95464882943143814</v>
       </c>
-      <c r="I13" s="38">
+      <c r="I13" s="35">
         <f t="shared" si="6"/>
         <v>0.89207650273224048</v>
       </c>
-      <c r="J13" s="38">
+      <c r="J13" s="35">
         <f t="shared" si="7"/>
         <v>0.7628310898827616</v>
       </c>
-      <c r="L13" s="30">
+      <c r="L13" s="29">
         <f t="shared" si="9"/>
         <v>512</v>
       </c>
-      <c r="M13" s="38">
+      <c r="M13" s="35">
         <f t="shared" si="10"/>
         <v>1.0821917808219177</v>
       </c>
-      <c r="N13" s="38">
+      <c r="N13" s="35">
         <f t="shared" si="11"/>
         <v>1.0247337684644451</v>
       </c>
-      <c r="O13" s="38">
+      <c r="O13" s="35">
         <f t="shared" si="12"/>
         <v>1.0678887484197219</v>
       </c>
-      <c r="P13" s="38">
+      <c r="P13" s="35">
         <f t="shared" si="13"/>
         <v>0.99167180752621842</v>
       </c>
-      <c r="Q13" s="38">
+      <c r="Q13" s="35">
         <f t="shared" si="14"/>
         <v>0.97874174087905763</v>
       </c>
-      <c r="R13" s="38">
+      <c r="R13" s="35">
         <f t="shared" si="15"/>
         <v>1.047505605381166</v>
       </c>
-      <c r="S13" s="38">
+      <c r="S13" s="35">
         <f t="shared" si="16"/>
         <v>1.1209800918836141</v>
       </c>
-      <c r="T13" s="38">
+      <c r="T13" s="35">
         <f t="shared" si="17"/>
         <v>1.3109061930783243</v>
       </c>
@@ -15385,71 +15377,71 @@
         <f t="shared" si="8"/>
         <v>1024</v>
       </c>
-      <c r="C14" s="38">
+      <c r="C14" s="35">
         <f t="shared" si="0"/>
         <v>1.2790811707905854</v>
       </c>
-      <c r="D14" s="38">
+      <c r="D14" s="35">
         <f t="shared" si="1"/>
         <v>1.3597809296447128</v>
       </c>
-      <c r="E14" s="38">
+      <c r="E14" s="35">
         <f t="shared" si="2"/>
         <v>1.5360233447373717</v>
       </c>
-      <c r="F14" s="38">
+      <c r="F14" s="35">
         <f t="shared" si="3"/>
         <v>1.7487666034155598</v>
       </c>
-      <c r="G14" s="38">
+      <c r="G14" s="35">
         <f t="shared" si="4"/>
         <v>1.7106668322364336</v>
       </c>
-      <c r="H14" s="38">
+      <c r="H14" s="35">
         <f t="shared" si="5"/>
         <v>1.5718976449275361</v>
       </c>
-      <c r="I14" s="38">
+      <c r="I14" s="35">
         <f t="shared" si="6"/>
         <v>1.2979189485213583</v>
       </c>
-      <c r="J14" s="38">
+      <c r="J14" s="35">
         <f t="shared" si="7"/>
         <v>1.1875</v>
       </c>
-      <c r="L14" s="30">
+      <c r="L14" s="29">
         <f t="shared" si="9"/>
         <v>1024</v>
       </c>
-      <c r="M14" s="38">
+      <c r="M14" s="35">
         <f t="shared" si="10"/>
         <v>0.78181121170121781</v>
       </c>
-      <c r="N14" s="38">
+      <c r="N14" s="35">
         <f t="shared" si="11"/>
         <v>0.73541257874625643</v>
       </c>
-      <c r="O14" s="38">
+      <c r="O14" s="35">
         <f t="shared" si="12"/>
         <v>0.65103177202751394</v>
       </c>
-      <c r="P14" s="38">
+      <c r="P14" s="35">
         <f t="shared" si="13"/>
         <v>0.57183159722222221</v>
       </c>
-      <c r="Q14" s="38">
+      <c r="Q14" s="35">
         <f t="shared" si="14"/>
         <v>0.58456736353077821</v>
       </c>
-      <c r="R14" s="38">
+      <c r="R14" s="35">
         <f t="shared" si="15"/>
         <v>0.63617373766476992</v>
       </c>
-      <c r="S14" s="38">
+      <c r="S14" s="35">
         <f t="shared" si="16"/>
         <v>0.77046413502109701</v>
       </c>
-      <c r="T14" s="38">
+      <c r="T14" s="35">
         <f t="shared" si="17"/>
         <v>0.84210526315789469</v>
       </c>
@@ -15459,89 +15451,89 @@
         <f t="shared" si="8"/>
         <v>2048</v>
       </c>
-      <c r="C15" s="38">
+      <c r="C15" s="35">
         <f t="shared" si="0"/>
         <v>2.224679735765291</v>
       </c>
-      <c r="D15" s="38">
+      <c r="D15" s="35">
         <f t="shared" si="1"/>
         <v>2.7255841548010227</v>
       </c>
-      <c r="E15" s="38">
+      <c r="E15" s="35">
         <f t="shared" si="2"/>
         <v>3.0606265772142551</v>
       </c>
-      <c r="F15" s="38">
+      <c r="F15" s="36">
         <f t="shared" si="3"/>
         <v>3.5879996977253836</v>
       </c>
-      <c r="G15" s="39">
+      <c r="G15" s="36">
         <f t="shared" si="4"/>
         <v>3.8726644685193907</v>
       </c>
-      <c r="H15" s="38">
+      <c r="H15" s="35">
         <f t="shared" si="5"/>
         <v>3.5434412265758093</v>
       </c>
-      <c r="I15" s="38">
+      <c r="I15" s="35">
         <f t="shared" si="6"/>
         <v>3.3803819322105566</v>
       </c>
-      <c r="J15" s="38">
+      <c r="J15" s="35">
         <f t="shared" si="7"/>
         <v>2.5675852627819773</v>
       </c>
-      <c r="L15" s="30">
+      <c r="L15" s="29">
         <f t="shared" si="9"/>
         <v>2048</v>
       </c>
-      <c r="M15" s="38">
+      <c r="M15" s="35">
         <f t="shared" si="10"/>
         <v>0.44950290323744035</v>
       </c>
-      <c r="N15" s="38">
+      <c r="N15" s="35">
         <f t="shared" si="11"/>
         <v>0.36689382649900371</v>
       </c>
-      <c r="O15" s="38">
+      <c r="O15" s="35">
         <f t="shared" si="12"/>
         <v>0.32673048304709806</v>
       </c>
-      <c r="P15" s="38">
+      <c r="P15" s="35">
         <f t="shared" si="13"/>
         <v>0.27870682392586349</v>
       </c>
-      <c r="Q15" s="38">
+      <c r="Q15" s="35">
         <f t="shared" si="14"/>
         <v>0.25822015001013582</v>
       </c>
-      <c r="R15" s="38">
+      <c r="R15" s="35">
         <f t="shared" si="15"/>
         <v>0.28221153846153846</v>
       </c>
-      <c r="S15" s="38">
+      <c r="S15" s="35">
         <f t="shared" si="16"/>
         <v>0.29582456067207269</v>
       </c>
-      <c r="T15" s="38">
+      <c r="T15" s="35">
         <f t="shared" si="17"/>
         <v>0.38947100004636281</v>
       </c>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="20" t="s">
         <v>12</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L18" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="20" t="s">
         <v>13</v>
       </c>
       <c r="M18"/>
-      <c r="N18" s="26"/>
+      <c r="N18" s="25"/>
       <c r="O18" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
@@ -15549,100 +15541,100 @@
       <c r="S18" s="3"/>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="33" t="s">
+      <c r="D19" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="34" t="s">
+      <c r="E19" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="F19" s="34" t="s">
+      <c r="F19" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="G19" s="34" t="s">
+      <c r="G19" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="H19" s="34" t="s">
+      <c r="H19" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="I19" s="34" t="s">
+      <c r="I19" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="L19" s="31" t="s">
+      <c r="L19" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="M19" s="32" t="s">
+      <c r="M19" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="N19" s="35" t="s">
+      <c r="N19" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="O19" s="34" t="s">
+      <c r="O19" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="P19" s="34" t="s">
+      <c r="P19" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="Q19" s="34" t="s">
+      <c r="Q19" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="R19" s="34" t="s">
+      <c r="R19" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="S19" s="34" t="s">
+      <c r="S19" s="33" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="23"/>
+      <c r="B20" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="22"/>
       <c r="D20" s="5">
         <f>AVERAGE(E20:I20)</f>
         <v>12455</v>
       </c>
-      <c r="E20" s="24">
+      <c r="E20" s="23">
         <v>12759</v>
       </c>
-      <c r="F20" s="24">
+      <c r="F20" s="23">
         <v>12310</v>
       </c>
-      <c r="G20" s="24">
+      <c r="G20" s="23">
         <v>12342</v>
       </c>
-      <c r="H20" s="24">
+      <c r="H20" s="23">
         <v>12228</v>
       </c>
-      <c r="I20" s="24">
+      <c r="I20" s="23">
         <v>12636</v>
       </c>
-      <c r="L20" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="M20" s="23"/>
-      <c r="N20" s="27">
+      <c r="L20" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="M20" s="22"/>
+      <c r="N20" s="26">
         <f>AVERAGE(O20:S20)</f>
         <v>5993.2</v>
       </c>
-      <c r="O20" s="24">
+      <c r="O20" s="23">
         <v>5915</v>
       </c>
-      <c r="P20" s="24">
+      <c r="P20" s="23">
         <v>6023</v>
       </c>
-      <c r="Q20" s="24">
+      <c r="Q20" s="23">
         <v>5937</v>
       </c>
-      <c r="R20" s="24">
+      <c r="R20" s="23">
         <v>6109</v>
       </c>
-      <c r="S20" s="24">
+      <c r="S20" s="23">
         <v>5982</v>
       </c>
     </row>
@@ -15678,23 +15670,23 @@
       <c r="M21" s="6">
         <v>1</v>
       </c>
-      <c r="N21" s="27">
+      <c r="N21" s="26">
         <f t="shared" ref="N21:N84" si="18">AVERAGE(O21:S21)</f>
         <v>6022.8</v>
       </c>
-      <c r="O21" s="24">
+      <c r="O21" s="23">
         <v>6004</v>
       </c>
-      <c r="P21" s="24">
+      <c r="P21" s="23">
         <v>6009</v>
       </c>
-      <c r="Q21" s="24">
+      <c r="Q21" s="23">
         <v>6108</v>
       </c>
-      <c r="R21" s="24">
+      <c r="R21" s="23">
         <v>6079</v>
       </c>
-      <c r="S21" s="24">
+      <c r="S21" s="23">
         <v>5914</v>
       </c>
     </row>
@@ -15732,23 +15724,23 @@
         <f t="shared" ref="M22:M32" si="21">M21*2</f>
         <v>2</v>
       </c>
-      <c r="N22" s="27">
+      <c r="N22" s="26">
         <f t="shared" si="18"/>
         <v>5628.8</v>
       </c>
-      <c r="O22" s="24">
+      <c r="O22" s="23">
         <v>5700</v>
       </c>
-      <c r="P22" s="24">
+      <c r="P22" s="23">
         <v>5674</v>
       </c>
-      <c r="Q22" s="24">
+      <c r="Q22" s="23">
         <v>5422</v>
       </c>
-      <c r="R22" s="24">
+      <c r="R22" s="23">
         <v>5657</v>
       </c>
-      <c r="S22" s="24">
+      <c r="S22" s="23">
         <v>5691</v>
       </c>
     </row>
@@ -15786,23 +15778,23 @@
         <f t="shared" si="21"/>
         <v>4</v>
       </c>
-      <c r="N23" s="27">
+      <c r="N23" s="26">
         <f t="shared" si="18"/>
         <v>4675</v>
       </c>
-      <c r="O23" s="24">
+      <c r="O23" s="23">
         <v>4750</v>
       </c>
-      <c r="P23" s="24">
+      <c r="P23" s="23">
         <v>4597</v>
       </c>
-      <c r="Q23" s="24">
+      <c r="Q23" s="23">
         <v>4737</v>
       </c>
-      <c r="R23" s="24">
+      <c r="R23" s="23">
         <v>4610</v>
       </c>
-      <c r="S23" s="24">
+      <c r="S23" s="23">
         <v>4681</v>
       </c>
     </row>
@@ -15840,23 +15832,23 @@
         <f t="shared" si="21"/>
         <v>8</v>
       </c>
-      <c r="N24" s="27">
+      <c r="N24" s="26">
         <f t="shared" si="18"/>
         <v>4134</v>
       </c>
-      <c r="O24" s="24">
+      <c r="O24" s="23">
         <v>4159</v>
       </c>
-      <c r="P24" s="24">
+      <c r="P24" s="23">
         <v>4181</v>
       </c>
-      <c r="Q24" s="24">
+      <c r="Q24" s="23">
         <v>4112</v>
       </c>
-      <c r="R24" s="24">
+      <c r="R24" s="23">
         <v>4160</v>
       </c>
-      <c r="S24" s="24">
+      <c r="S24" s="23">
         <v>4058</v>
       </c>
     </row>
@@ -15894,23 +15886,23 @@
         <f t="shared" si="21"/>
         <v>16</v>
       </c>
-      <c r="N25" s="27">
+      <c r="N25" s="26">
         <f t="shared" si="18"/>
         <v>3986.6</v>
       </c>
-      <c r="O25" s="24">
+      <c r="O25" s="23">
         <v>4012</v>
       </c>
-      <c r="P25" s="24">
+      <c r="P25" s="23">
         <v>3994</v>
       </c>
-      <c r="Q25" s="24">
+      <c r="Q25" s="23">
         <v>4016</v>
       </c>
-      <c r="R25" s="24">
+      <c r="R25" s="23">
         <v>3885</v>
       </c>
-      <c r="S25" s="24">
+      <c r="S25" s="23">
         <v>4026</v>
       </c>
     </row>
@@ -15948,23 +15940,23 @@
         <f t="shared" si="21"/>
         <v>32</v>
       </c>
-      <c r="N26" s="27">
+      <c r="N26" s="26">
         <f t="shared" si="18"/>
         <v>3880.2</v>
       </c>
-      <c r="O26" s="24">
+      <c r="O26" s="23">
         <v>3980</v>
       </c>
-      <c r="P26" s="24">
+      <c r="P26" s="23">
         <v>3812</v>
       </c>
-      <c r="Q26" s="24">
+      <c r="Q26" s="23">
         <v>3793</v>
       </c>
-      <c r="R26" s="24">
+      <c r="R26" s="23">
         <v>3880</v>
       </c>
-      <c r="S26" s="24">
+      <c r="S26" s="23">
         <v>3936</v>
       </c>
     </row>
@@ -16002,23 +15994,23 @@
         <f t="shared" si="21"/>
         <v>64</v>
       </c>
-      <c r="N27" s="27">
+      <c r="N27" s="26">
         <f t="shared" si="18"/>
         <v>4080.4</v>
       </c>
-      <c r="O27" s="24">
+      <c r="O27" s="23">
         <v>4124</v>
       </c>
-      <c r="P27" s="24">
+      <c r="P27" s="23">
         <v>4171</v>
       </c>
-      <c r="Q27" s="24">
+      <c r="Q27" s="23">
         <v>4040</v>
       </c>
-      <c r="R27" s="24">
+      <c r="R27" s="23">
         <v>4063</v>
       </c>
-      <c r="S27" s="24">
+      <c r="S27" s="23">
         <v>4004</v>
       </c>
     </row>
@@ -16056,23 +16048,23 @@
         <f t="shared" si="21"/>
         <v>128</v>
       </c>
-      <c r="N28" s="27">
+      <c r="N28" s="26">
         <f t="shared" si="18"/>
         <v>4125</v>
       </c>
-      <c r="O28" s="24">
+      <c r="O28" s="23">
         <v>4122</v>
       </c>
-      <c r="P28" s="24">
+      <c r="P28" s="23">
         <v>4172</v>
       </c>
-      <c r="Q28" s="24">
+      <c r="Q28" s="23">
         <v>4150</v>
       </c>
-      <c r="R28" s="24">
+      <c r="R28" s="23">
         <v>4026</v>
       </c>
-      <c r="S28" s="24">
+      <c r="S28" s="23">
         <v>4155</v>
       </c>
     </row>
@@ -16110,23 +16102,23 @@
         <f t="shared" si="21"/>
         <v>256</v>
       </c>
-      <c r="N29" s="27">
+      <c r="N29" s="26">
         <f t="shared" si="18"/>
         <v>4299</v>
       </c>
-      <c r="O29" s="24">
+      <c r="O29" s="23">
         <v>4239</v>
       </c>
-      <c r="P29" s="24">
+      <c r="P29" s="23">
         <v>4358</v>
       </c>
-      <c r="Q29" s="24">
+      <c r="Q29" s="23">
         <v>4363</v>
       </c>
-      <c r="R29" s="24">
+      <c r="R29" s="23">
         <v>4199</v>
       </c>
-      <c r="S29" s="24">
+      <c r="S29" s="23">
         <v>4336</v>
       </c>
     </row>
@@ -16164,23 +16156,23 @@
         <f t="shared" si="21"/>
         <v>512</v>
       </c>
-      <c r="N30" s="27">
+      <c r="N30" s="26">
         <f t="shared" si="18"/>
         <v>4550.3999999999996</v>
       </c>
-      <c r="O30" s="24">
+      <c r="O30" s="23">
         <v>4621</v>
       </c>
-      <c r="P30" s="24">
+      <c r="P30" s="23">
         <v>4526</v>
       </c>
-      <c r="Q30" s="24">
+      <c r="Q30" s="23">
         <v>4605</v>
       </c>
-      <c r="R30" s="24">
+      <c r="R30" s="23">
         <v>4494</v>
       </c>
-      <c r="S30" s="24">
+      <c r="S30" s="23">
         <v>4506</v>
       </c>
     </row>
@@ -16218,23 +16210,23 @@
         <f t="shared" si="21"/>
         <v>1024</v>
       </c>
-      <c r="N31" s="27">
+      <c r="N31" s="26">
         <f t="shared" si="18"/>
         <v>5302.4</v>
       </c>
-      <c r="O31" s="24">
+      <c r="O31" s="23">
         <v>5290</v>
       </c>
-      <c r="P31" s="24">
+      <c r="P31" s="23">
         <v>5323</v>
       </c>
-      <c r="Q31" s="24">
+      <c r="Q31" s="23">
         <v>5261</v>
       </c>
-      <c r="R31" s="24">
+      <c r="R31" s="23">
         <v>5289</v>
       </c>
-      <c r="S31" s="24">
+      <c r="S31" s="23">
         <v>5349</v>
       </c>
     </row>
@@ -16272,23 +16264,23 @@
         <f t="shared" si="21"/>
         <v>2048</v>
       </c>
-      <c r="N32" s="27">
+      <c r="N32" s="26">
         <f t="shared" si="18"/>
         <v>7478.2</v>
       </c>
-      <c r="O32" s="24">
+      <c r="O32" s="23">
         <v>7288</v>
       </c>
-      <c r="P32" s="24">
+      <c r="P32" s="23">
         <v>7507</v>
       </c>
-      <c r="Q32" s="24">
+      <c r="Q32" s="23">
         <v>7629</v>
       </c>
-      <c r="R32" s="24">
+      <c r="R32" s="23">
         <v>7442</v>
       </c>
-      <c r="S32" s="24">
+      <c r="S32" s="23">
         <v>7525</v>
       </c>
     </row>
@@ -16324,23 +16316,23 @@
       <c r="M33" s="6">
         <v>1</v>
       </c>
-      <c r="N33" s="27">
+      <c r="N33" s="26">
         <f t="shared" si="18"/>
         <v>6121.2</v>
       </c>
-      <c r="O33" s="24">
+      <c r="O33" s="23">
         <v>6106</v>
       </c>
-      <c r="P33" s="24">
+      <c r="P33" s="23">
         <v>6119</v>
       </c>
-      <c r="Q33" s="24">
+      <c r="Q33" s="23">
         <v>6117</v>
       </c>
-      <c r="R33" s="24">
+      <c r="R33" s="23">
         <v>6119</v>
       </c>
-      <c r="S33" s="24">
+      <c r="S33" s="23">
         <v>6145</v>
       </c>
     </row>
@@ -16378,23 +16370,23 @@
         <f t="shared" ref="M34:M44" si="23">M33*2</f>
         <v>2</v>
       </c>
-      <c r="N34" s="27">
+      <c r="N34" s="26">
         <f t="shared" si="18"/>
         <v>5525.2</v>
       </c>
-      <c r="O34" s="24">
+      <c r="O34" s="23">
         <v>5493</v>
       </c>
-      <c r="P34" s="24">
+      <c r="P34" s="23">
         <v>5537</v>
       </c>
-      <c r="Q34" s="24">
+      <c r="Q34" s="23">
         <v>5552</v>
       </c>
-      <c r="R34" s="24">
+      <c r="R34" s="23">
         <v>5605</v>
       </c>
-      <c r="S34" s="24">
+      <c r="S34" s="23">
         <v>5439</v>
       </c>
     </row>
@@ -16432,23 +16424,23 @@
         <f t="shared" si="23"/>
         <v>4</v>
       </c>
-      <c r="N35" s="27">
+      <c r="N35" s="26">
         <f t="shared" si="18"/>
         <v>4249</v>
       </c>
-      <c r="O35" s="24">
+      <c r="O35" s="23">
         <v>4152</v>
       </c>
-      <c r="P35" s="24">
+      <c r="P35" s="23">
         <v>4163</v>
       </c>
-      <c r="Q35" s="24">
+      <c r="Q35" s="23">
         <v>4305</v>
       </c>
-      <c r="R35" s="24">
+      <c r="R35" s="23">
         <v>4331</v>
       </c>
-      <c r="S35" s="24">
+      <c r="S35" s="23">
         <v>4294</v>
       </c>
     </row>
@@ -16486,23 +16478,23 @@
         <f t="shared" si="23"/>
         <v>8</v>
       </c>
-      <c r="N36" s="27">
+      <c r="N36" s="26">
         <f t="shared" si="18"/>
         <v>3169.2</v>
       </c>
-      <c r="O36" s="24">
+      <c r="O36" s="23">
         <v>3173</v>
       </c>
-      <c r="P36" s="24">
+      <c r="P36" s="23">
         <v>3105</v>
       </c>
-      <c r="Q36" s="24">
+      <c r="Q36" s="23">
         <v>3187</v>
       </c>
-      <c r="R36" s="24">
+      <c r="R36" s="23">
         <v>3163</v>
       </c>
-      <c r="S36" s="24">
+      <c r="S36" s="23">
         <v>3218</v>
       </c>
     </row>
@@ -16540,23 +16532,23 @@
         <f t="shared" si="23"/>
         <v>16</v>
       </c>
-      <c r="N37" s="27">
+      <c r="N37" s="26">
         <f t="shared" si="18"/>
         <v>3009.6</v>
       </c>
-      <c r="O37" s="24">
+      <c r="O37" s="23">
         <v>2511</v>
       </c>
-      <c r="P37" s="24">
+      <c r="P37" s="23">
         <v>3492</v>
       </c>
-      <c r="Q37" s="24">
+      <c r="Q37" s="23">
         <v>3427</v>
       </c>
-      <c r="R37" s="24">
+      <c r="R37" s="23">
         <v>3067</v>
       </c>
-      <c r="S37" s="24">
+      <c r="S37" s="23">
         <v>2551</v>
       </c>
     </row>
@@ -16594,23 +16586,23 @@
         <f t="shared" si="23"/>
         <v>32</v>
       </c>
-      <c r="N38" s="27">
+      <c r="N38" s="26">
         <f t="shared" si="18"/>
         <v>2222.6</v>
       </c>
-      <c r="O38" s="24">
+      <c r="O38" s="23">
         <v>2236</v>
       </c>
-      <c r="P38" s="24">
+      <c r="P38" s="23">
         <v>2206</v>
       </c>
-      <c r="Q38" s="24">
+      <c r="Q38" s="23">
         <v>2299</v>
       </c>
-      <c r="R38" s="24">
+      <c r="R38" s="23">
         <v>2164</v>
       </c>
-      <c r="S38" s="24">
+      <c r="S38" s="23">
         <v>2208</v>
       </c>
     </row>
@@ -16648,23 +16640,23 @@
         <f t="shared" si="23"/>
         <v>64</v>
       </c>
-      <c r="N39" s="27">
+      <c r="N39" s="26">
         <f t="shared" si="18"/>
         <v>2210.1999999999998</v>
       </c>
-      <c r="O39" s="24">
+      <c r="O39" s="23">
         <v>2112</v>
       </c>
-      <c r="P39" s="24">
+      <c r="P39" s="23">
         <v>2425</v>
       </c>
-      <c r="Q39" s="24">
+      <c r="Q39" s="23">
         <v>2186</v>
       </c>
-      <c r="R39" s="24">
+      <c r="R39" s="23">
         <v>2188</v>
       </c>
-      <c r="S39" s="24">
+      <c r="S39" s="23">
         <v>2140</v>
       </c>
     </row>
@@ -16702,23 +16694,23 @@
         <f t="shared" si="23"/>
         <v>128</v>
       </c>
-      <c r="N40" s="27">
+      <c r="N40" s="26">
         <f t="shared" si="18"/>
         <v>2169.6</v>
       </c>
-      <c r="O40" s="24">
+      <c r="O40" s="23">
         <v>2204</v>
       </c>
-      <c r="P40" s="24">
+      <c r="P40" s="23">
         <v>2103</v>
       </c>
-      <c r="Q40" s="24">
+      <c r="Q40" s="23">
         <v>2203</v>
       </c>
-      <c r="R40" s="24">
+      <c r="R40" s="23">
         <v>2170</v>
       </c>
-      <c r="S40" s="24">
+      <c r="S40" s="23">
         <v>2168</v>
       </c>
     </row>
@@ -16756,23 +16748,23 @@
         <f t="shared" si="23"/>
         <v>256</v>
       </c>
-      <c r="N41" s="27">
+      <c r="N41" s="26">
         <f t="shared" si="18"/>
         <v>2201.1999999999998</v>
       </c>
-      <c r="O41" s="24">
+      <c r="O41" s="23">
         <v>2236</v>
       </c>
-      <c r="P41" s="24">
+      <c r="P41" s="23">
         <v>2306</v>
       </c>
-      <c r="Q41" s="24">
+      <c r="Q41" s="23">
         <v>2157</v>
       </c>
-      <c r="R41" s="24">
+      <c r="R41" s="23">
         <v>2137</v>
       </c>
-      <c r="S41" s="24">
+      <c r="S41" s="23">
         <v>2170</v>
       </c>
     </row>
@@ -16810,23 +16802,23 @@
         <f t="shared" si="23"/>
         <v>512</v>
       </c>
-      <c r="N42" s="27">
+      <c r="N42" s="26">
         <f t="shared" si="18"/>
         <v>2386.4</v>
       </c>
-      <c r="O42" s="24">
+      <c r="O42" s="23">
         <v>2315</v>
       </c>
-      <c r="P42" s="24">
+      <c r="P42" s="23">
         <v>2530</v>
       </c>
-      <c r="Q42" s="24">
+      <c r="Q42" s="23">
         <v>2387</v>
       </c>
-      <c r="R42" s="24">
+      <c r="R42" s="23">
         <v>2372</v>
       </c>
-      <c r="S42" s="24">
+      <c r="S42" s="23">
         <v>2328</v>
       </c>
     </row>
@@ -16864,23 +16856,23 @@
         <f t="shared" si="23"/>
         <v>1024</v>
       </c>
-      <c r="N43" s="27">
+      <c r="N43" s="26">
         <f t="shared" si="18"/>
         <v>2848.4</v>
       </c>
-      <c r="O43" s="24">
+      <c r="O43" s="23">
         <v>2890</v>
       </c>
-      <c r="P43" s="24">
+      <c r="P43" s="23">
         <v>2859</v>
       </c>
-      <c r="Q43" s="24">
+      <c r="Q43" s="23">
         <v>2761</v>
       </c>
-      <c r="R43" s="24">
+      <c r="R43" s="23">
         <v>2893</v>
       </c>
-      <c r="S43" s="24">
+      <c r="S43" s="23">
         <v>2839</v>
       </c>
     </row>
@@ -16918,23 +16910,23 @@
         <f t="shared" si="23"/>
         <v>2048</v>
       </c>
-      <c r="N44" s="27">
+      <c r="N44" s="26">
         <f t="shared" si="18"/>
         <v>4382.3999999999996</v>
       </c>
-      <c r="O44" s="24">
+      <c r="O44" s="23">
         <v>4399</v>
       </c>
-      <c r="P44" s="24">
+      <c r="P44" s="23">
         <v>4452</v>
       </c>
-      <c r="Q44" s="24">
+      <c r="Q44" s="23">
         <v>4388</v>
       </c>
-      <c r="R44" s="24">
+      <c r="R44" s="23">
         <v>4426</v>
       </c>
-      <c r="S44" s="24">
+      <c r="S44" s="23">
         <v>4247</v>
       </c>
     </row>
@@ -16970,23 +16962,23 @@
       <c r="M45" s="6">
         <v>1</v>
       </c>
-      <c r="N45" s="27">
+      <c r="N45" s="26">
         <f t="shared" si="18"/>
         <v>5977.6</v>
       </c>
-      <c r="O45" s="24">
+      <c r="O45" s="23">
         <v>5970</v>
       </c>
-      <c r="P45" s="24">
+      <c r="P45" s="23">
         <v>5918</v>
       </c>
-      <c r="Q45" s="24">
+      <c r="Q45" s="23">
         <v>6037</v>
       </c>
-      <c r="R45" s="24">
+      <c r="R45" s="23">
         <v>6007</v>
       </c>
-      <c r="S45" s="24">
+      <c r="S45" s="23">
         <v>5956</v>
       </c>
     </row>
@@ -17024,23 +17016,23 @@
         <f t="shared" ref="M46:M56" si="25">M45*2</f>
         <v>2</v>
       </c>
-      <c r="N46" s="27">
+      <c r="N46" s="26">
         <f t="shared" si="18"/>
         <v>5487.2</v>
       </c>
-      <c r="O46" s="24">
+      <c r="O46" s="23">
         <v>5446</v>
       </c>
-      <c r="P46" s="24">
+      <c r="P46" s="23">
         <v>5393</v>
       </c>
-      <c r="Q46" s="24">
+      <c r="Q46" s="23">
         <v>5505</v>
       </c>
-      <c r="R46" s="24">
+      <c r="R46" s="23">
         <v>5551</v>
       </c>
-      <c r="S46" s="24">
+      <c r="S46" s="23">
         <v>5541</v>
       </c>
     </row>
@@ -17078,23 +17070,23 @@
         <f t="shared" si="25"/>
         <v>4</v>
       </c>
-      <c r="N47" s="27">
+      <c r="N47" s="26">
         <f t="shared" si="18"/>
         <v>4189.3999999999996</v>
       </c>
-      <c r="O47" s="24">
+      <c r="O47" s="23">
         <v>4173</v>
       </c>
-      <c r="P47" s="24">
+      <c r="P47" s="23">
         <v>4121</v>
       </c>
-      <c r="Q47" s="24">
+      <c r="Q47" s="23">
         <v>4266</v>
       </c>
-      <c r="R47" s="24">
+      <c r="R47" s="23">
         <v>4167</v>
       </c>
-      <c r="S47" s="24">
+      <c r="S47" s="23">
         <v>4220</v>
       </c>
     </row>
@@ -17132,23 +17124,23 @@
         <f t="shared" si="25"/>
         <v>8</v>
       </c>
-      <c r="N48" s="27">
+      <c r="N48" s="26">
         <f t="shared" si="18"/>
         <v>2927.2</v>
       </c>
-      <c r="O48" s="24">
+      <c r="O48" s="23">
         <v>2957</v>
       </c>
-      <c r="P48" s="24">
+      <c r="P48" s="23">
         <v>2848</v>
       </c>
-      <c r="Q48" s="24">
+      <c r="Q48" s="23">
         <v>2888</v>
       </c>
-      <c r="R48" s="24">
+      <c r="R48" s="23">
         <v>3058</v>
       </c>
-      <c r="S48" s="24">
+      <c r="S48" s="23">
         <v>2885</v>
       </c>
     </row>
@@ -17186,23 +17178,23 @@
         <f t="shared" si="25"/>
         <v>16</v>
       </c>
-      <c r="N49" s="27">
+      <c r="N49" s="26">
         <f t="shared" si="18"/>
         <v>2213.6</v>
       </c>
-      <c r="O49" s="24">
+      <c r="O49" s="23">
         <v>2027</v>
       </c>
-      <c r="P49" s="24">
+      <c r="P49" s="23">
         <v>2007</v>
       </c>
-      <c r="Q49" s="24">
+      <c r="Q49" s="23">
         <v>2040</v>
       </c>
-      <c r="R49" s="24">
+      <c r="R49" s="23">
         <v>2963</v>
       </c>
-      <c r="S49" s="24">
+      <c r="S49" s="23">
         <v>2031</v>
       </c>
     </row>
@@ -17240,23 +17232,23 @@
         <f t="shared" si="25"/>
         <v>32</v>
       </c>
-      <c r="N50" s="27">
+      <c r="N50" s="26">
         <f t="shared" si="18"/>
         <v>1652.2</v>
       </c>
-      <c r="O50" s="24">
+      <c r="O50" s="23">
         <v>1641</v>
       </c>
-      <c r="P50" s="24">
+      <c r="P50" s="23">
         <v>1615</v>
       </c>
-      <c r="Q50" s="24">
+      <c r="Q50" s="23">
         <v>1686</v>
       </c>
-      <c r="R50" s="24">
+      <c r="R50" s="23">
         <v>1628</v>
       </c>
-      <c r="S50" s="24">
+      <c r="S50" s="23">
         <v>1691</v>
       </c>
     </row>
@@ -17294,23 +17286,23 @@
         <f t="shared" si="25"/>
         <v>64</v>
       </c>
-      <c r="N51" s="27">
+      <c r="N51" s="26">
         <f t="shared" si="18"/>
         <v>1542.2</v>
       </c>
-      <c r="O51" s="24">
+      <c r="O51" s="23">
         <v>1546</v>
       </c>
-      <c r="P51" s="24">
+      <c r="P51" s="23">
         <v>1574</v>
       </c>
-      <c r="Q51" s="24">
+      <c r="Q51" s="23">
         <v>1557</v>
       </c>
-      <c r="R51" s="24">
+      <c r="R51" s="23">
         <v>1507</v>
       </c>
-      <c r="S51" s="24">
+      <c r="S51" s="23">
         <v>1527</v>
       </c>
     </row>
@@ -17348,23 +17340,23 @@
         <f t="shared" si="25"/>
         <v>128</v>
       </c>
-      <c r="N52" s="27">
+      <c r="N52" s="26">
         <f t="shared" si="18"/>
         <v>1510.2</v>
       </c>
-      <c r="O52" s="24">
+      <c r="O52" s="23">
         <v>1477</v>
       </c>
-      <c r="P52" s="24">
+      <c r="P52" s="23">
         <v>1524</v>
       </c>
-      <c r="Q52" s="24">
+      <c r="Q52" s="23">
         <v>1485</v>
       </c>
-      <c r="R52" s="24">
+      <c r="R52" s="23">
         <v>1571</v>
       </c>
-      <c r="S52" s="24">
+      <c r="S52" s="23">
         <v>1494</v>
       </c>
     </row>
@@ -17402,23 +17394,23 @@
         <f t="shared" si="25"/>
         <v>256</v>
       </c>
-      <c r="N53" s="27">
+      <c r="N53" s="26">
         <f t="shared" si="18"/>
         <v>1568.8</v>
       </c>
-      <c r="O53" s="24">
+      <c r="O53" s="23">
         <v>1520</v>
       </c>
-      <c r="P53" s="24">
+      <c r="P53" s="23">
         <v>1593</v>
       </c>
-      <c r="Q53" s="24">
+      <c r="Q53" s="23">
         <v>1653</v>
       </c>
-      <c r="R53" s="24">
+      <c r="R53" s="23">
         <v>1529</v>
       </c>
-      <c r="S53" s="24">
+      <c r="S53" s="23">
         <v>1549</v>
       </c>
     </row>
@@ -17456,23 +17448,23 @@
         <f t="shared" si="25"/>
         <v>512</v>
       </c>
-      <c r="N54" s="27">
+      <c r="N54" s="26">
         <f t="shared" si="18"/>
         <v>1689.4</v>
       </c>
-      <c r="O54" s="24">
+      <c r="O54" s="23">
         <v>1665</v>
       </c>
-      <c r="P54" s="24">
+      <c r="P54" s="23">
         <v>1641</v>
       </c>
-      <c r="Q54" s="24">
+      <c r="Q54" s="23">
         <v>1778</v>
       </c>
-      <c r="R54" s="24">
+      <c r="R54" s="23">
         <v>1648</v>
       </c>
-      <c r="S54" s="24">
+      <c r="S54" s="23">
         <v>1715</v>
       </c>
     </row>
@@ -17510,23 +17502,23 @@
         <f t="shared" si="25"/>
         <v>1024</v>
       </c>
-      <c r="N55" s="27">
+      <c r="N55" s="26">
         <f t="shared" si="18"/>
         <v>1987.6</v>
       </c>
-      <c r="O55" s="24">
+      <c r="O55" s="23">
         <v>1971</v>
       </c>
-      <c r="P55" s="24">
+      <c r="P55" s="23">
         <v>1997</v>
       </c>
-      <c r="Q55" s="24">
+      <c r="Q55" s="23">
         <v>2009</v>
       </c>
-      <c r="R55" s="24">
+      <c r="R55" s="23">
         <v>1980</v>
       </c>
-      <c r="S55" s="24">
+      <c r="S55" s="23">
         <v>1981</v>
       </c>
     </row>
@@ -17564,23 +17556,23 @@
         <f t="shared" si="25"/>
         <v>2048</v>
       </c>
-      <c r="N56" s="27">
+      <c r="N56" s="26">
         <f t="shared" si="18"/>
         <v>3249.4</v>
       </c>
-      <c r="O56" s="24">
+      <c r="O56" s="23">
         <v>3163</v>
       </c>
-      <c r="P56" s="24">
+      <c r="P56" s="23">
         <v>3311</v>
       </c>
-      <c r="Q56" s="24">
+      <c r="Q56" s="23">
         <v>3174</v>
       </c>
-      <c r="R56" s="24">
+      <c r="R56" s="23">
         <v>3272</v>
       </c>
-      <c r="S56" s="24">
+      <c r="S56" s="23">
         <v>3327</v>
       </c>
     </row>
@@ -17616,23 +17608,23 @@
       <c r="M57" s="6">
         <v>1</v>
       </c>
-      <c r="N57" s="27">
+      <c r="N57" s="26">
         <f t="shared" si="18"/>
         <v>6028.4</v>
       </c>
-      <c r="O57" s="24">
+      <c r="O57" s="23">
         <v>6059</v>
       </c>
-      <c r="P57" s="24">
+      <c r="P57" s="23">
         <v>6067</v>
       </c>
-      <c r="Q57" s="24">
+      <c r="Q57" s="23">
         <v>5840</v>
       </c>
-      <c r="R57" s="24">
+      <c r="R57" s="23">
         <v>6038</v>
       </c>
-      <c r="S57" s="24">
+      <c r="S57" s="23">
         <v>6138</v>
       </c>
     </row>
@@ -17670,23 +17662,23 @@
         <f t="shared" ref="M58:M68" si="27">M57*2</f>
         <v>2</v>
       </c>
-      <c r="N58" s="27">
+      <c r="N58" s="26">
         <f t="shared" si="18"/>
         <v>5436.6</v>
       </c>
-      <c r="O58" s="24">
+      <c r="O58" s="23">
         <v>5474</v>
       </c>
-      <c r="P58" s="24">
+      <c r="P58" s="23">
         <v>5434</v>
       </c>
-      <c r="Q58" s="24">
+      <c r="Q58" s="23">
         <v>5374</v>
       </c>
-      <c r="R58" s="24">
+      <c r="R58" s="23">
         <v>5550</v>
       </c>
-      <c r="S58" s="24">
+      <c r="S58" s="23">
         <v>5351</v>
       </c>
     </row>
@@ -17724,23 +17716,23 @@
         <f t="shared" si="27"/>
         <v>4</v>
       </c>
-      <c r="N59" s="27">
+      <c r="N59" s="26">
         <f t="shared" si="18"/>
         <v>4077.4</v>
       </c>
-      <c r="O59" s="24">
+      <c r="O59" s="23">
         <v>4153</v>
       </c>
-      <c r="P59" s="24">
+      <c r="P59" s="23">
         <v>4014</v>
       </c>
-      <c r="Q59" s="24">
+      <c r="Q59" s="23">
         <v>4043</v>
       </c>
-      <c r="R59" s="24">
+      <c r="R59" s="23">
         <v>4140</v>
       </c>
-      <c r="S59" s="24">
+      <c r="S59" s="23">
         <v>4037</v>
       </c>
     </row>
@@ -17778,23 +17770,23 @@
         <f t="shared" si="27"/>
         <v>8</v>
       </c>
-      <c r="N60" s="27">
+      <c r="N60" s="26">
         <f t="shared" si="18"/>
         <v>2794.6</v>
       </c>
-      <c r="O60" s="24">
+      <c r="O60" s="23">
         <v>2817</v>
       </c>
-      <c r="P60" s="24">
+      <c r="P60" s="23">
         <v>2807</v>
       </c>
-      <c r="Q60" s="24">
+      <c r="Q60" s="23">
         <v>2824</v>
       </c>
-      <c r="R60" s="24">
+      <c r="R60" s="23">
         <v>2823</v>
       </c>
-      <c r="S60" s="24">
+      <c r="S60" s="23">
         <v>2702</v>
       </c>
     </row>
@@ -17832,23 +17824,23 @@
         <f t="shared" si="27"/>
         <v>16</v>
       </c>
-      <c r="N61" s="27">
+      <c r="N61" s="26">
         <f t="shared" si="18"/>
         <v>1836.6</v>
       </c>
-      <c r="O61" s="24">
+      <c r="O61" s="23">
         <v>1890</v>
       </c>
-      <c r="P61" s="24">
+      <c r="P61" s="23">
         <v>1830</v>
       </c>
-      <c r="Q61" s="24">
+      <c r="Q61" s="23">
         <v>1816</v>
       </c>
-      <c r="R61" s="24">
+      <c r="R61" s="23">
         <v>1836</v>
       </c>
-      <c r="S61" s="24">
+      <c r="S61" s="23">
         <v>1811</v>
       </c>
     </row>
@@ -17886,23 +17878,23 @@
         <f t="shared" si="27"/>
         <v>32</v>
       </c>
-      <c r="N62" s="27">
+      <c r="N62" s="26">
         <f t="shared" si="18"/>
         <v>1439.4</v>
       </c>
-      <c r="O62" s="24">
+      <c r="O62" s="23">
         <v>1436</v>
       </c>
-      <c r="P62" s="24">
+      <c r="P62" s="23">
         <v>1411</v>
       </c>
-      <c r="Q62" s="24">
+      <c r="Q62" s="23">
         <v>1368</v>
       </c>
-      <c r="R62" s="24">
+      <c r="R62" s="23">
         <v>1474</v>
       </c>
-      <c r="S62" s="24">
+      <c r="S62" s="23">
         <v>1508</v>
       </c>
     </row>
@@ -17940,23 +17932,23 @@
         <f t="shared" si="27"/>
         <v>64</v>
       </c>
-      <c r="N63" s="27">
+      <c r="N63" s="26">
         <f t="shared" si="18"/>
         <v>1263.5999999999999</v>
       </c>
-      <c r="O63" s="24">
+      <c r="O63" s="23">
         <v>1259</v>
       </c>
-      <c r="P63" s="24">
+      <c r="P63" s="23">
         <v>1254</v>
       </c>
-      <c r="Q63" s="24">
+      <c r="Q63" s="23">
         <v>1227</v>
       </c>
-      <c r="R63" s="24">
+      <c r="R63" s="23">
         <v>1284</v>
       </c>
-      <c r="S63" s="24">
+      <c r="S63" s="23">
         <v>1294</v>
       </c>
     </row>
@@ -17994,23 +17986,23 @@
         <f t="shared" si="27"/>
         <v>128</v>
       </c>
-      <c r="N64" s="27">
+      <c r="N64" s="26">
         <f t="shared" si="18"/>
         <v>1218.5999999999999</v>
       </c>
-      <c r="O64" s="24">
+      <c r="O64" s="23">
         <v>1281</v>
       </c>
-      <c r="P64" s="24">
+      <c r="P64" s="23">
         <v>1234</v>
       </c>
-      <c r="Q64" s="24">
+      <c r="Q64" s="23">
         <v>1193</v>
       </c>
-      <c r="R64" s="24">
+      <c r="R64" s="23">
         <v>1210</v>
       </c>
-      <c r="S64" s="24">
+      <c r="S64" s="23">
         <v>1175</v>
       </c>
     </row>
@@ -18048,23 +18040,23 @@
         <f t="shared" si="27"/>
         <v>256</v>
       </c>
-      <c r="N65" s="27">
+      <c r="N65" s="26">
         <f t="shared" si="18"/>
         <v>1184.4000000000001</v>
       </c>
-      <c r="O65" s="24">
+      <c r="O65" s="23">
         <v>1204</v>
       </c>
-      <c r="P65" s="24">
+      <c r="P65" s="23">
         <v>1170</v>
       </c>
-      <c r="Q65" s="24">
+      <c r="Q65" s="23">
         <v>1184</v>
       </c>
-      <c r="R65" s="24">
+      <c r="R65" s="23">
         <v>1206</v>
       </c>
-      <c r="S65" s="24">
+      <c r="S65" s="23">
         <v>1158</v>
       </c>
     </row>
@@ -18102,23 +18094,23 @@
         <f t="shared" si="27"/>
         <v>512</v>
       </c>
-      <c r="N66" s="27">
+      <c r="N66" s="26">
         <f t="shared" si="18"/>
         <v>1286</v>
       </c>
-      <c r="O66" s="24">
+      <c r="O66" s="23">
         <v>1268</v>
       </c>
-      <c r="P66" s="24">
+      <c r="P66" s="23">
         <v>1282</v>
       </c>
-      <c r="Q66" s="24">
+      <c r="Q66" s="23">
         <v>1253</v>
       </c>
-      <c r="R66" s="24">
+      <c r="R66" s="23">
         <v>1312</v>
       </c>
-      <c r="S66" s="24">
+      <c r="S66" s="23">
         <v>1315</v>
       </c>
     </row>
@@ -18156,23 +18148,23 @@
         <f t="shared" si="27"/>
         <v>1024</v>
       </c>
-      <c r="N67" s="27">
+      <c r="N67" s="26">
         <f t="shared" si="18"/>
         <v>1581</v>
       </c>
-      <c r="O67" s="24">
+      <c r="O67" s="23">
         <v>1656</v>
       </c>
-      <c r="P67" s="24">
+      <c r="P67" s="23">
         <v>1539</v>
       </c>
-      <c r="Q67" s="24">
+      <c r="Q67" s="23">
         <v>1588</v>
       </c>
-      <c r="R67" s="24">
+      <c r="R67" s="23">
         <v>1539</v>
       </c>
-      <c r="S67" s="24">
+      <c r="S67" s="23">
         <v>1583</v>
       </c>
     </row>
@@ -18210,23 +18202,23 @@
         <f t="shared" si="27"/>
         <v>2048</v>
       </c>
-      <c r="N68" s="27">
+      <c r="N68" s="26">
         <f t="shared" si="18"/>
         <v>2646.6</v>
       </c>
-      <c r="O68" s="24">
+      <c r="O68" s="23">
         <v>2692</v>
       </c>
-      <c r="P68" s="24">
+      <c r="P68" s="23">
         <v>2590</v>
       </c>
-      <c r="Q68" s="24">
+      <c r="Q68" s="23">
         <v>2752</v>
       </c>
-      <c r="R68" s="24">
+      <c r="R68" s="23">
         <v>2583</v>
       </c>
-      <c r="S68" s="24">
+      <c r="S68" s="23">
         <v>2616</v>
       </c>
     </row>
@@ -18262,23 +18254,23 @@
       <c r="M69" s="6">
         <v>1</v>
       </c>
-      <c r="N69" s="27">
+      <c r="N69" s="26">
         <f t="shared" si="18"/>
         <v>6077</v>
       </c>
-      <c r="O69" s="24">
+      <c r="O69" s="23">
         <v>6110</v>
       </c>
-      <c r="P69" s="24">
+      <c r="P69" s="23">
         <v>6058</v>
       </c>
-      <c r="Q69" s="24">
+      <c r="Q69" s="23">
         <v>6054</v>
       </c>
-      <c r="R69" s="24">
+      <c r="R69" s="23">
         <v>6025</v>
       </c>
-      <c r="S69" s="24">
+      <c r="S69" s="23">
         <v>6138</v>
       </c>
     </row>
@@ -18316,23 +18308,23 @@
         <f t="shared" ref="M70:M80" si="29">M69*2</f>
         <v>2</v>
       </c>
-      <c r="N70" s="27">
+      <c r="N70" s="26">
         <f t="shared" si="18"/>
         <v>5554.8</v>
       </c>
-      <c r="O70" s="24">
+      <c r="O70" s="23">
         <v>5554</v>
       </c>
-      <c r="P70" s="24">
+      <c r="P70" s="23">
         <v>5577</v>
       </c>
-      <c r="Q70" s="24">
+      <c r="Q70" s="23">
         <v>5555</v>
       </c>
-      <c r="R70" s="24">
+      <c r="R70" s="23">
         <v>5506</v>
       </c>
-      <c r="S70" s="24">
+      <c r="S70" s="23">
         <v>5582</v>
       </c>
     </row>
@@ -18370,23 +18362,23 @@
         <f t="shared" si="29"/>
         <v>4</v>
       </c>
-      <c r="N71" s="27">
+      <c r="N71" s="26">
         <f t="shared" si="18"/>
         <v>4084.6</v>
       </c>
-      <c r="O71" s="24">
+      <c r="O71" s="23">
         <v>4146</v>
       </c>
-      <c r="P71" s="24">
+      <c r="P71" s="23">
         <v>4104</v>
       </c>
-      <c r="Q71" s="24">
+      <c r="Q71" s="23">
         <v>4018</v>
       </c>
-      <c r="R71" s="24">
+      <c r="R71" s="23">
         <v>4073</v>
       </c>
-      <c r="S71" s="24">
+      <c r="S71" s="23">
         <v>4082</v>
       </c>
     </row>
@@ -18424,23 +18416,23 @@
         <f t="shared" si="29"/>
         <v>8</v>
       </c>
-      <c r="N72" s="27">
+      <c r="N72" s="26">
         <f t="shared" si="18"/>
         <v>2803.8</v>
       </c>
-      <c r="O72" s="24">
+      <c r="O72" s="23">
         <v>2820</v>
       </c>
-      <c r="P72" s="24">
+      <c r="P72" s="23">
         <v>2797</v>
       </c>
-      <c r="Q72" s="24">
+      <c r="Q72" s="23">
         <v>2815</v>
       </c>
-      <c r="R72" s="24">
+      <c r="R72" s="23">
         <v>2758</v>
       </c>
-      <c r="S72" s="24">
+      <c r="S72" s="23">
         <v>2829</v>
       </c>
     </row>
@@ -18478,23 +18470,23 @@
         <f t="shared" si="29"/>
         <v>16</v>
       </c>
-      <c r="N73" s="27">
+      <c r="N73" s="26">
         <f t="shared" si="18"/>
         <v>1857.6</v>
       </c>
-      <c r="O73" s="24">
+      <c r="O73" s="23">
         <v>1880</v>
       </c>
-      <c r="P73" s="24">
+      <c r="P73" s="23">
         <v>1860</v>
       </c>
-      <c r="Q73" s="24">
+      <c r="Q73" s="23">
         <v>1848</v>
       </c>
-      <c r="R73" s="24">
+      <c r="R73" s="23">
         <v>1874</v>
       </c>
-      <c r="S73" s="24">
+      <c r="S73" s="23">
         <v>1826</v>
       </c>
     </row>
@@ -18532,23 +18524,23 @@
         <f t="shared" si="29"/>
         <v>32</v>
       </c>
-      <c r="N74" s="27">
+      <c r="N74" s="26">
         <f t="shared" si="18"/>
         <v>1423.2</v>
       </c>
-      <c r="O74" s="24">
+      <c r="O74" s="23">
         <v>1478</v>
       </c>
-      <c r="P74" s="24">
+      <c r="P74" s="23">
         <v>1407</v>
       </c>
-      <c r="Q74" s="24">
+      <c r="Q74" s="23">
         <v>1375</v>
       </c>
-      <c r="R74" s="24">
+      <c r="R74" s="23">
         <v>1445</v>
       </c>
-      <c r="S74" s="24">
+      <c r="S74" s="23">
         <v>1411</v>
       </c>
     </row>
@@ -18586,23 +18578,23 @@
         <f t="shared" si="29"/>
         <v>64</v>
       </c>
-      <c r="N75" s="27">
+      <c r="N75" s="26">
         <f t="shared" si="18"/>
         <v>1298.5999999999999</v>
       </c>
-      <c r="O75" s="24">
+      <c r="O75" s="23">
         <v>1332</v>
       </c>
-      <c r="P75" s="24">
+      <c r="P75" s="23">
         <v>1329</v>
       </c>
-      <c r="Q75" s="24">
+      <c r="Q75" s="23">
         <v>1302</v>
       </c>
-      <c r="R75" s="24">
+      <c r="R75" s="23">
         <v>1237</v>
       </c>
-      <c r="S75" s="24">
+      <c r="S75" s="23">
         <v>1293</v>
       </c>
     </row>
@@ -18640,23 +18632,23 @@
         <f t="shared" si="29"/>
         <v>128</v>
       </c>
-      <c r="N76" s="27">
+      <c r="N76" s="26">
         <f t="shared" si="18"/>
         <v>1252</v>
       </c>
-      <c r="O76" s="24">
+      <c r="O76" s="23">
         <v>1261</v>
       </c>
-      <c r="P76" s="24">
+      <c r="P76" s="23">
         <v>1235</v>
       </c>
-      <c r="Q76" s="24">
+      <c r="Q76" s="23">
         <v>1219</v>
       </c>
-      <c r="R76" s="24">
+      <c r="R76" s="23">
         <v>1310</v>
       </c>
-      <c r="S76" s="24">
+      <c r="S76" s="23">
         <v>1235</v>
       </c>
     </row>
@@ -18694,23 +18686,23 @@
         <f t="shared" si="29"/>
         <v>256</v>
       </c>
-      <c r="N77" s="27">
+      <c r="N77" s="26">
         <f t="shared" si="18"/>
         <v>1293.2</v>
       </c>
-      <c r="O77" s="24">
+      <c r="O77" s="23">
         <v>1247</v>
       </c>
-      <c r="P77" s="24">
+      <c r="P77" s="23">
         <v>1306</v>
       </c>
-      <c r="Q77" s="24">
+      <c r="Q77" s="23">
         <v>1313</v>
       </c>
-      <c r="R77" s="24">
+      <c r="R77" s="23">
         <v>1302</v>
       </c>
-      <c r="S77" s="24">
+      <c r="S77" s="23">
         <v>1298</v>
       </c>
     </row>
@@ -18748,23 +18740,23 @@
         <f t="shared" si="29"/>
         <v>512</v>
       </c>
-      <c r="N78" s="27">
+      <c r="N78" s="26">
         <f t="shared" si="18"/>
         <v>1362.8</v>
       </c>
-      <c r="O78" s="24">
+      <c r="O78" s="23">
         <v>1321</v>
       </c>
-      <c r="P78" s="24">
+      <c r="P78" s="23">
         <v>1348</v>
       </c>
-      <c r="Q78" s="24">
+      <c r="Q78" s="23">
         <v>1381</v>
       </c>
-      <c r="R78" s="24">
+      <c r="R78" s="23">
         <v>1370</v>
       </c>
-      <c r="S78" s="24">
+      <c r="S78" s="23">
         <v>1394</v>
       </c>
     </row>
@@ -18802,23 +18794,23 @@
         <f t="shared" si="29"/>
         <v>1024</v>
       </c>
-      <c r="N79" s="27">
+      <c r="N79" s="26">
         <f t="shared" si="18"/>
         <v>1610.6</v>
       </c>
-      <c r="O79" s="24">
+      <c r="O79" s="23">
         <v>1567</v>
       </c>
-      <c r="P79" s="24">
+      <c r="P79" s="23">
         <v>1570</v>
       </c>
-      <c r="Q79" s="24">
+      <c r="Q79" s="23">
         <v>1623</v>
       </c>
-      <c r="R79" s="24">
+      <c r="R79" s="23">
         <v>1628</v>
       </c>
-      <c r="S79" s="24">
+      <c r="S79" s="23">
         <v>1665</v>
       </c>
     </row>
@@ -18856,23 +18848,23 @@
         <f t="shared" si="29"/>
         <v>2048</v>
       </c>
-      <c r="N80" s="27">
+      <c r="N80" s="26">
         <f t="shared" si="18"/>
         <v>2547.6</v>
       </c>
-      <c r="O80" s="24">
+      <c r="O80" s="23">
         <v>2505</v>
       </c>
-      <c r="P80" s="24">
+      <c r="P80" s="23">
         <v>2591</v>
       </c>
-      <c r="Q80" s="24">
+      <c r="Q80" s="23">
         <v>2530</v>
       </c>
-      <c r="R80" s="24">
+      <c r="R80" s="23">
         <v>2546</v>
       </c>
-      <c r="S80" s="24">
+      <c r="S80" s="23">
         <v>2566</v>
       </c>
     </row>
@@ -18908,23 +18900,23 @@
       <c r="M81" s="6">
         <v>1</v>
       </c>
-      <c r="N81" s="27">
+      <c r="N81" s="26">
         <f t="shared" si="18"/>
         <v>6103.4</v>
       </c>
-      <c r="O81" s="24">
+      <c r="O81" s="23">
         <v>6254</v>
       </c>
-      <c r="P81" s="24">
+      <c r="P81" s="23">
         <v>6075</v>
       </c>
-      <c r="Q81" s="24">
+      <c r="Q81" s="23">
         <v>6147</v>
       </c>
-      <c r="R81" s="24">
+      <c r="R81" s="23">
         <v>5994</v>
       </c>
-      <c r="S81" s="24">
+      <c r="S81" s="23">
         <v>6047</v>
       </c>
     </row>
@@ -18962,23 +18954,23 @@
         <f t="shared" ref="M82:M92" si="31">M81*2</f>
         <v>2</v>
       </c>
-      <c r="N82" s="27">
+      <c r="N82" s="26">
         <f t="shared" si="18"/>
         <v>5535</v>
       </c>
-      <c r="O82" s="24">
+      <c r="O82" s="23">
         <v>5510</v>
       </c>
-      <c r="P82" s="24">
+      <c r="P82" s="23">
         <v>5743</v>
       </c>
-      <c r="Q82" s="24">
+      <c r="Q82" s="23">
         <v>5336</v>
       </c>
-      <c r="R82" s="24">
+      <c r="R82" s="23">
         <v>5566</v>
       </c>
-      <c r="S82" s="24">
+      <c r="S82" s="23">
         <v>5520</v>
       </c>
     </row>
@@ -19016,23 +19008,23 @@
         <f t="shared" si="31"/>
         <v>4</v>
       </c>
-      <c r="N83" s="27">
+      <c r="N83" s="26">
         <f t="shared" si="18"/>
         <v>4091.4</v>
       </c>
-      <c r="O83" s="24">
+      <c r="O83" s="23">
         <v>4173</v>
       </c>
-      <c r="P83" s="24">
+      <c r="P83" s="23">
         <v>4051</v>
       </c>
-      <c r="Q83" s="24">
+      <c r="Q83" s="23">
         <v>4074</v>
       </c>
-      <c r="R83" s="24">
+      <c r="R83" s="23">
         <v>4123</v>
       </c>
-      <c r="S83" s="24">
+      <c r="S83" s="23">
         <v>4036</v>
       </c>
     </row>
@@ -19070,23 +19062,23 @@
         <f t="shared" si="31"/>
         <v>8</v>
       </c>
-      <c r="N84" s="27">
+      <c r="N84" s="26">
         <f t="shared" si="18"/>
         <v>2829.2</v>
       </c>
-      <c r="O84" s="24">
+      <c r="O84" s="23">
         <v>2840</v>
       </c>
-      <c r="P84" s="24">
+      <c r="P84" s="23">
         <v>2809</v>
       </c>
-      <c r="Q84" s="24">
+      <c r="Q84" s="23">
         <v>2825</v>
       </c>
-      <c r="R84" s="24">
+      <c r="R84" s="23">
         <v>2832</v>
       </c>
-      <c r="S84" s="24">
+      <c r="S84" s="23">
         <v>2840</v>
       </c>
     </row>
@@ -19124,23 +19116,23 @@
         <f t="shared" si="31"/>
         <v>16</v>
       </c>
-      <c r="N85" s="27">
+      <c r="N85" s="26">
         <f t="shared" ref="N85:N116" si="32">AVERAGE(O85:S85)</f>
         <v>1908.2</v>
       </c>
-      <c r="O85" s="24">
+      <c r="O85" s="23">
         <v>1885</v>
       </c>
-      <c r="P85" s="24">
+      <c r="P85" s="23">
         <v>1865</v>
       </c>
-      <c r="Q85" s="24">
+      <c r="Q85" s="23">
         <v>1956</v>
       </c>
-      <c r="R85" s="24">
+      <c r="R85" s="23">
         <v>1930</v>
       </c>
-      <c r="S85" s="24">
+      <c r="S85" s="23">
         <v>1905</v>
       </c>
     </row>
@@ -19178,23 +19170,23 @@
         <f t="shared" si="31"/>
         <v>32</v>
       </c>
-      <c r="N86" s="27">
+      <c r="N86" s="26">
         <f t="shared" si="32"/>
         <v>1609</v>
       </c>
-      <c r="O86" s="24">
+      <c r="O86" s="23">
         <v>1567</v>
       </c>
-      <c r="P86" s="24">
+      <c r="P86" s="23">
         <v>1671</v>
       </c>
-      <c r="Q86" s="24">
+      <c r="Q86" s="23">
         <v>1600</v>
       </c>
-      <c r="R86" s="24">
+      <c r="R86" s="23">
         <v>1581</v>
       </c>
-      <c r="S86" s="24">
+      <c r="S86" s="23">
         <v>1626</v>
       </c>
     </row>
@@ -19232,23 +19224,23 @@
         <f t="shared" si="31"/>
         <v>64</v>
       </c>
-      <c r="N87" s="27">
+      <c r="N87" s="26">
         <f t="shared" si="32"/>
         <v>1470.6</v>
       </c>
-      <c r="O87" s="24">
+      <c r="O87" s="23">
         <v>1480</v>
       </c>
-      <c r="P87" s="24">
+      <c r="P87" s="23">
         <v>1461</v>
       </c>
-      <c r="Q87" s="24">
+      <c r="Q87" s="23">
         <v>1473</v>
       </c>
-      <c r="R87" s="24">
+      <c r="R87" s="23">
         <v>1480</v>
       </c>
-      <c r="S87" s="24">
+      <c r="S87" s="23">
         <v>1459</v>
       </c>
     </row>
@@ -19286,23 +19278,23 @@
         <f t="shared" si="31"/>
         <v>128</v>
       </c>
-      <c r="N88" s="27">
+      <c r="N88" s="26">
         <f t="shared" si="32"/>
         <v>1410.8</v>
       </c>
-      <c r="O88" s="24">
+      <c r="O88" s="23">
         <v>1410</v>
       </c>
-      <c r="P88" s="24">
+      <c r="P88" s="23">
         <v>1359</v>
       </c>
-      <c r="Q88" s="24">
+      <c r="Q88" s="23">
         <v>1410</v>
       </c>
-      <c r="R88" s="24">
+      <c r="R88" s="23">
         <v>1439</v>
       </c>
-      <c r="S88" s="24">
+      <c r="S88" s="23">
         <v>1436</v>
       </c>
     </row>
@@ -19340,23 +19332,23 @@
         <f t="shared" si="31"/>
         <v>256</v>
       </c>
-      <c r="N89" s="27">
+      <c r="N89" s="26">
         <f t="shared" si="32"/>
         <v>1437.4</v>
       </c>
-      <c r="O89" s="24">
+      <c r="O89" s="23">
         <v>1430</v>
       </c>
-      <c r="P89" s="24">
+      <c r="P89" s="23">
         <v>1423</v>
       </c>
-      <c r="Q89" s="24">
+      <c r="Q89" s="23">
         <v>1450</v>
       </c>
-      <c r="R89" s="24">
+      <c r="R89" s="23">
         <v>1466</v>
       </c>
-      <c r="S89" s="24">
+      <c r="S89" s="23">
         <v>1418</v>
       </c>
     </row>
@@ -19394,23 +19386,23 @@
         <f t="shared" si="31"/>
         <v>512</v>
       </c>
-      <c r="N90" s="27">
+      <c r="N90" s="26">
         <f t="shared" si="32"/>
         <v>1495</v>
       </c>
-      <c r="O90" s="24">
+      <c r="O90" s="23">
         <v>1519</v>
       </c>
-      <c r="P90" s="24">
+      <c r="P90" s="23">
         <v>1458</v>
       </c>
-      <c r="Q90" s="24">
+      <c r="Q90" s="23">
         <v>1527</v>
       </c>
-      <c r="R90" s="24">
+      <c r="R90" s="23">
         <v>1487</v>
       </c>
-      <c r="S90" s="24">
+      <c r="S90" s="23">
         <v>1484</v>
       </c>
     </row>
@@ -19448,23 +19440,23 @@
         <f t="shared" si="31"/>
         <v>1024</v>
       </c>
-      <c r="N91" s="27">
+      <c r="N91" s="26">
         <f t="shared" si="32"/>
         <v>1766.4</v>
       </c>
-      <c r="O91" s="24">
+      <c r="O91" s="23">
         <v>1754</v>
       </c>
-      <c r="P91" s="24">
+      <c r="P91" s="23">
         <v>1827</v>
       </c>
-      <c r="Q91" s="24">
+      <c r="Q91" s="23">
         <v>1737</v>
       </c>
-      <c r="R91" s="24">
+      <c r="R91" s="23">
         <v>1761</v>
       </c>
-      <c r="S91" s="24">
+      <c r="S91" s="23">
         <v>1753</v>
       </c>
     </row>
@@ -19502,23 +19494,23 @@
         <f t="shared" si="31"/>
         <v>2048</v>
       </c>
-      <c r="N92" s="27">
+      <c r="N92" s="26">
         <f t="shared" si="32"/>
         <v>2700.2</v>
       </c>
-      <c r="O92" s="24">
+      <c r="O92" s="23">
         <v>2730</v>
       </c>
-      <c r="P92" s="24">
+      <c r="P92" s="23">
         <v>2712</v>
       </c>
-      <c r="Q92" s="24">
+      <c r="Q92" s="23">
         <v>2716</v>
       </c>
-      <c r="R92" s="24">
+      <c r="R92" s="23">
         <v>2598</v>
       </c>
-      <c r="S92" s="24">
+      <c r="S92" s="23">
         <v>2745</v>
       </c>
     </row>
@@ -19554,23 +19546,23 @@
       <c r="M93" s="6">
         <v>1</v>
       </c>
-      <c r="N93" s="27">
+      <c r="N93" s="26">
         <f t="shared" si="32"/>
         <v>6052.8</v>
       </c>
-      <c r="O93" s="24">
+      <c r="O93" s="23">
         <v>5906</v>
       </c>
-      <c r="P93" s="24">
+      <c r="P93" s="23">
         <v>6026</v>
       </c>
-      <c r="Q93" s="24">
+      <c r="Q93" s="23">
         <v>6141</v>
       </c>
-      <c r="R93" s="24">
+      <c r="R93" s="23">
         <v>6116</v>
       </c>
-      <c r="S93" s="24">
+      <c r="S93" s="23">
         <v>6075</v>
       </c>
     </row>
@@ -19608,23 +19600,23 @@
         <f t="shared" ref="M94:M104" si="36">M93*2</f>
         <v>2</v>
       </c>
-      <c r="N94" s="27">
+      <c r="N94" s="26">
         <f t="shared" si="32"/>
         <v>5351.4</v>
       </c>
-      <c r="O94" s="24">
+      <c r="O94" s="23">
         <v>5351</v>
       </c>
-      <c r="P94" s="24">
+      <c r="P94" s="23">
         <v>5236</v>
       </c>
-      <c r="Q94" s="24">
+      <c r="Q94" s="23">
         <v>5214</v>
       </c>
-      <c r="R94" s="24">
+      <c r="R94" s="23">
         <v>5482</v>
       </c>
-      <c r="S94" s="24">
+      <c r="S94" s="23">
         <v>5474</v>
       </c>
     </row>
@@ -19662,23 +19654,23 @@
         <f t="shared" si="36"/>
         <v>4</v>
       </c>
-      <c r="N95" s="27">
+      <c r="N95" s="26">
         <f t="shared" si="32"/>
         <v>4131.6000000000004</v>
       </c>
-      <c r="O95" s="24">
+      <c r="O95" s="23">
         <v>4105</v>
       </c>
-      <c r="P95" s="24">
+      <c r="P95" s="23">
         <v>3994</v>
       </c>
-      <c r="Q95" s="24">
+      <c r="Q95" s="23">
         <v>4342</v>
       </c>
-      <c r="R95" s="24">
+      <c r="R95" s="23">
         <v>4075</v>
       </c>
-      <c r="S95" s="24">
+      <c r="S95" s="23">
         <v>4142</v>
       </c>
     </row>
@@ -19716,23 +19708,23 @@
         <f t="shared" si="36"/>
         <v>8</v>
       </c>
-      <c r="N96" s="27">
+      <c r="N96" s="26">
         <f t="shared" si="32"/>
         <v>2818.4</v>
       </c>
-      <c r="O96" s="24">
+      <c r="O96" s="23">
         <v>2828</v>
       </c>
-      <c r="P96" s="24">
+      <c r="P96" s="23">
         <v>2810</v>
       </c>
-      <c r="Q96" s="24">
+      <c r="Q96" s="23">
         <v>2868</v>
       </c>
-      <c r="R96" s="24">
+      <c r="R96" s="23">
         <v>2828</v>
       </c>
-      <c r="S96" s="24">
+      <c r="S96" s="23">
         <v>2758</v>
       </c>
     </row>
@@ -19770,23 +19762,23 @@
         <f t="shared" si="36"/>
         <v>16</v>
       </c>
-      <c r="N97" s="27">
+      <c r="N97" s="26">
         <f t="shared" si="32"/>
         <v>1955</v>
       </c>
-      <c r="O97" s="24">
+      <c r="O97" s="23">
         <v>1995</v>
       </c>
-      <c r="P97" s="24">
+      <c r="P97" s="23">
         <v>1997</v>
       </c>
-      <c r="Q97" s="24">
+      <c r="Q97" s="23">
         <v>1976</v>
       </c>
-      <c r="R97" s="24">
+      <c r="R97" s="23">
         <v>1916</v>
       </c>
-      <c r="S97" s="24">
+      <c r="S97" s="23">
         <v>1891</v>
       </c>
     </row>
@@ -19824,23 +19816,23 @@
         <f t="shared" si="36"/>
         <v>32</v>
       </c>
-      <c r="N98" s="27">
+      <c r="N98" s="26">
         <f t="shared" si="32"/>
         <v>1762.4</v>
       </c>
-      <c r="O98" s="24">
+      <c r="O98" s="23">
         <v>1758</v>
       </c>
-      <c r="P98" s="24">
+      <c r="P98" s="23">
         <v>1838</v>
       </c>
-      <c r="Q98" s="24">
+      <c r="Q98" s="23">
         <v>1669</v>
       </c>
-      <c r="R98" s="24">
+      <c r="R98" s="23">
         <v>1756</v>
       </c>
-      <c r="S98" s="24">
+      <c r="S98" s="23">
         <v>1791</v>
       </c>
     </row>
@@ -19878,23 +19870,23 @@
         <f t="shared" si="36"/>
         <v>64</v>
       </c>
-      <c r="N99" s="27">
+      <c r="N99" s="26">
         <f t="shared" si="32"/>
         <v>1717.8</v>
       </c>
-      <c r="O99" s="24">
+      <c r="O99" s="23">
         <v>1690</v>
       </c>
-      <c r="P99" s="24">
+      <c r="P99" s="23">
         <v>1670</v>
       </c>
-      <c r="Q99" s="24">
+      <c r="Q99" s="23">
         <v>1670</v>
       </c>
-      <c r="R99" s="24">
+      <c r="R99" s="23">
         <v>1820</v>
       </c>
-      <c r="S99" s="24">
+      <c r="S99" s="23">
         <v>1739</v>
       </c>
     </row>
@@ -19932,23 +19924,23 @@
         <f t="shared" si="36"/>
         <v>128</v>
       </c>
-      <c r="N100" s="27">
+      <c r="N100" s="26">
         <f t="shared" si="32"/>
         <v>1716</v>
       </c>
-      <c r="O100" s="24">
+      <c r="O100" s="23">
         <v>1751</v>
       </c>
-      <c r="P100" s="24">
+      <c r="P100" s="23">
         <v>1743</v>
       </c>
-      <c r="Q100" s="24">
+      <c r="Q100" s="23">
         <v>1695</v>
       </c>
-      <c r="R100" s="24">
+      <c r="R100" s="23">
         <v>1725</v>
       </c>
-      <c r="S100" s="24">
+      <c r="S100" s="23">
         <v>1666</v>
       </c>
     </row>
@@ -19986,23 +19978,23 @@
         <f t="shared" si="36"/>
         <v>256</v>
       </c>
-      <c r="N101" s="27">
+      <c r="N101" s="26">
         <f t="shared" si="32"/>
         <v>1697.2</v>
       </c>
-      <c r="O101" s="24">
+      <c r="O101" s="23">
         <v>1734</v>
       </c>
-      <c r="P101" s="24">
+      <c r="P101" s="23">
         <v>1660</v>
       </c>
-      <c r="Q101" s="24">
+      <c r="Q101" s="23">
         <v>1680</v>
       </c>
-      <c r="R101" s="24">
+      <c r="R101" s="23">
         <v>1700</v>
       </c>
-      <c r="S101" s="24">
+      <c r="S101" s="23">
         <v>1712</v>
       </c>
     </row>
@@ -20040,23 +20032,23 @@
         <f t="shared" si="36"/>
         <v>512</v>
       </c>
-      <c r="N102" s="27">
+      <c r="N102" s="26">
         <f t="shared" si="32"/>
         <v>1756.8</v>
       </c>
-      <c r="O102" s="24">
+      <c r="O102" s="23">
         <v>1770</v>
       </c>
-      <c r="P102" s="24">
+      <c r="P102" s="23">
         <v>1714</v>
       </c>
-      <c r="Q102" s="24">
+      <c r="Q102" s="23">
         <v>1794</v>
       </c>
-      <c r="R102" s="24">
+      <c r="R102" s="23">
         <v>1770</v>
       </c>
-      <c r="S102" s="24">
+      <c r="S102" s="23">
         <v>1736</v>
       </c>
     </row>
@@ -20094,23 +20086,23 @@
         <f t="shared" si="36"/>
         <v>1024</v>
       </c>
-      <c r="N103" s="27">
+      <c r="N103" s="26">
         <f t="shared" si="32"/>
         <v>2191.1999999999998</v>
       </c>
-      <c r="O103" s="24">
+      <c r="O103" s="23">
         <v>2010</v>
       </c>
-      <c r="P103" s="24">
+      <c r="P103" s="23">
         <v>1979</v>
       </c>
-      <c r="Q103" s="24">
+      <c r="Q103" s="23">
         <v>2025</v>
       </c>
-      <c r="R103" s="24">
+      <c r="R103" s="23">
         <v>2959</v>
       </c>
-      <c r="S103" s="24">
+      <c r="S103" s="23">
         <v>1983</v>
       </c>
     </row>
@@ -20148,23 +20140,23 @@
         <f t="shared" si="36"/>
         <v>2048</v>
       </c>
-      <c r="N104" s="27">
+      <c r="N104" s="26">
         <f t="shared" si="32"/>
         <v>2838.2</v>
       </c>
-      <c r="O104" s="24">
+      <c r="O104" s="23">
         <v>2921</v>
       </c>
-      <c r="P104" s="24">
+      <c r="P104" s="23">
         <v>2754</v>
       </c>
-      <c r="Q104" s="24">
+      <c r="Q104" s="23">
         <v>2903</v>
       </c>
-      <c r="R104" s="24">
+      <c r="R104" s="23">
         <v>2892</v>
       </c>
-      <c r="S104" s="24">
+      <c r="S104" s="23">
         <v>2721</v>
       </c>
     </row>
@@ -20200,23 +20192,23 @@
       <c r="M105" s="6">
         <v>1</v>
       </c>
-      <c r="N105" s="27">
+      <c r="N105" s="26">
         <f t="shared" si="32"/>
         <v>6067</v>
       </c>
-      <c r="O105" s="24">
+      <c r="O105" s="23">
         <v>6104</v>
       </c>
-      <c r="P105" s="24">
+      <c r="P105" s="23">
         <v>6036</v>
       </c>
-      <c r="Q105" s="24">
+      <c r="Q105" s="23">
         <v>6105</v>
       </c>
-      <c r="R105" s="24">
+      <c r="R105" s="23">
         <v>6018</v>
       </c>
-      <c r="S105" s="24">
+      <c r="S105" s="23">
         <v>6072</v>
       </c>
     </row>
@@ -20254,23 +20246,23 @@
         <f t="shared" ref="M106:M116" si="39">M105*2</f>
         <v>2</v>
       </c>
-      <c r="N106" s="27">
+      <c r="N106" s="26">
         <f t="shared" si="32"/>
         <v>5434</v>
       </c>
-      <c r="O106" s="24">
+      <c r="O106" s="23">
         <v>5321</v>
       </c>
-      <c r="P106" s="24">
+      <c r="P106" s="23">
         <v>5538</v>
       </c>
-      <c r="Q106" s="24">
+      <c r="Q106" s="23">
         <v>5547</v>
       </c>
-      <c r="R106" s="24">
+      <c r="R106" s="23">
         <v>5446</v>
       </c>
-      <c r="S106" s="24">
+      <c r="S106" s="23">
         <v>5318</v>
       </c>
     </row>
@@ -20308,23 +20300,23 @@
         <f t="shared" si="39"/>
         <v>4</v>
       </c>
-      <c r="N107" s="27">
+      <c r="N107" s="26">
         <f t="shared" si="32"/>
         <v>4103.6000000000004</v>
       </c>
-      <c r="O107" s="24">
+      <c r="O107" s="23">
         <v>4175</v>
       </c>
-      <c r="P107" s="24">
+      <c r="P107" s="23">
         <v>3962</v>
       </c>
-      <c r="Q107" s="24">
+      <c r="Q107" s="23">
         <v>4112</v>
       </c>
-      <c r="R107" s="24">
+      <c r="R107" s="23">
         <v>4028</v>
       </c>
-      <c r="S107" s="24">
+      <c r="S107" s="23">
         <v>4241</v>
       </c>
     </row>
@@ -20362,23 +20354,23 @@
         <f t="shared" si="39"/>
         <v>8</v>
       </c>
-      <c r="N108" s="27">
+      <c r="N108" s="26">
         <f t="shared" si="32"/>
         <v>2840</v>
       </c>
-      <c r="O108" s="24">
+      <c r="O108" s="23">
         <v>2823</v>
       </c>
-      <c r="P108" s="24">
+      <c r="P108" s="23">
         <v>2893</v>
       </c>
-      <c r="Q108" s="24">
+      <c r="Q108" s="23">
         <v>2787</v>
       </c>
-      <c r="R108" s="24">
+      <c r="R108" s="23">
         <v>2849</v>
       </c>
-      <c r="S108" s="24">
+      <c r="S108" s="23">
         <v>2848</v>
       </c>
     </row>
@@ -20416,23 +20408,23 @@
         <f t="shared" si="39"/>
         <v>16</v>
       </c>
-      <c r="N109" s="27">
+      <c r="N109" s="26">
         <f t="shared" si="32"/>
         <v>2220</v>
       </c>
-      <c r="O109" s="24">
+      <c r="O109" s="23">
         <v>2200</v>
       </c>
-      <c r="P109" s="24">
+      <c r="P109" s="23">
         <v>2155</v>
       </c>
-      <c r="Q109" s="24">
+      <c r="Q109" s="23">
         <v>2229</v>
       </c>
-      <c r="R109" s="24">
+      <c r="R109" s="23">
         <v>2360</v>
       </c>
-      <c r="S109" s="24">
+      <c r="S109" s="23">
         <v>2156</v>
       </c>
     </row>
@@ -20470,23 +20462,23 @@
         <f t="shared" si="39"/>
         <v>32</v>
       </c>
-      <c r="N110" s="27">
+      <c r="N110" s="26">
         <f t="shared" si="32"/>
         <v>2327.8000000000002</v>
       </c>
-      <c r="O110" s="24">
+      <c r="O110" s="23">
         <v>2461</v>
       </c>
-      <c r="P110" s="24">
+      <c r="P110" s="23">
         <v>2409</v>
       </c>
-      <c r="Q110" s="24">
+      <c r="Q110" s="23">
         <v>2158</v>
       </c>
-      <c r="R110" s="24">
+      <c r="R110" s="23">
         <v>2326</v>
       </c>
-      <c r="S110" s="24">
+      <c r="S110" s="23">
         <v>2285</v>
       </c>
     </row>
@@ -20524,23 +20516,23 @@
         <f t="shared" si="39"/>
         <v>64</v>
       </c>
-      <c r="N111" s="27">
+      <c r="N111" s="26">
         <f t="shared" si="32"/>
         <v>2338</v>
       </c>
-      <c r="O111" s="24">
+      <c r="O111" s="23">
         <v>2368</v>
       </c>
-      <c r="P111" s="24">
+      <c r="P111" s="23">
         <v>2400</v>
       </c>
-      <c r="Q111" s="24">
+      <c r="Q111" s="23">
         <v>2270</v>
       </c>
-      <c r="R111" s="24">
+      <c r="R111" s="23">
         <v>2259</v>
       </c>
-      <c r="S111" s="24">
+      <c r="S111" s="23">
         <v>2393</v>
       </c>
     </row>
@@ -20578,23 +20570,23 @@
         <f t="shared" si="39"/>
         <v>128</v>
       </c>
-      <c r="N112" s="27">
+      <c r="N112" s="26">
         <f t="shared" si="32"/>
         <v>2265.1999999999998</v>
       </c>
-      <c r="O112" s="24">
+      <c r="O112" s="23">
         <v>2270</v>
       </c>
-      <c r="P112" s="24">
+      <c r="P112" s="23">
         <v>2252</v>
       </c>
-      <c r="Q112" s="24">
+      <c r="Q112" s="23">
         <v>2272</v>
       </c>
-      <c r="R112" s="24">
+      <c r="R112" s="23">
         <v>2278</v>
       </c>
-      <c r="S112" s="24">
+      <c r="S112" s="23">
         <v>2254</v>
       </c>
     </row>
@@ -20632,23 +20624,23 @@
         <f t="shared" si="39"/>
         <v>256</v>
       </c>
-      <c r="N113" s="27">
+      <c r="N113" s="26">
         <f t="shared" si="32"/>
         <v>2268.4</v>
       </c>
-      <c r="O113" s="24">
+      <c r="O113" s="23">
         <v>2375</v>
       </c>
-      <c r="P113" s="24">
+      <c r="P113" s="23">
         <v>2279</v>
       </c>
-      <c r="Q113" s="24">
+      <c r="Q113" s="23">
         <v>2228</v>
       </c>
-      <c r="R113" s="24">
+      <c r="R113" s="23">
         <v>2242</v>
       </c>
-      <c r="S113" s="24">
+      <c r="S113" s="23">
         <v>2218</v>
       </c>
     </row>
@@ -20686,23 +20678,23 @@
         <f t="shared" si="39"/>
         <v>512</v>
       </c>
-      <c r="N114" s="27">
+      <c r="N114" s="26">
         <f t="shared" si="32"/>
         <v>2303</v>
       </c>
-      <c r="O114" s="24">
+      <c r="O114" s="23">
         <v>2303</v>
       </c>
-      <c r="P114" s="24">
+      <c r="P114" s="23">
         <v>2289</v>
       </c>
-      <c r="Q114" s="24">
+      <c r="Q114" s="23">
         <v>2331</v>
       </c>
-      <c r="R114" s="24">
+      <c r="R114" s="23">
         <v>2332</v>
       </c>
-      <c r="S114" s="24">
+      <c r="S114" s="23">
         <v>2260</v>
       </c>
     </row>
@@ -20740,23 +20732,23 @@
         <f t="shared" si="39"/>
         <v>1024</v>
       </c>
-      <c r="N115" s="27">
+      <c r="N115" s="26">
         <f t="shared" si="32"/>
         <v>2521.6</v>
       </c>
-      <c r="O115" s="24">
+      <c r="O115" s="23">
         <v>2541</v>
       </c>
-      <c r="P115" s="24">
+      <c r="P115" s="23">
         <v>2505</v>
       </c>
-      <c r="Q115" s="24">
+      <c r="Q115" s="23">
         <v>2505</v>
       </c>
-      <c r="R115" s="24">
+      <c r="R115" s="23">
         <v>2541</v>
       </c>
-      <c r="S115" s="24">
+      <c r="S115" s="23">
         <v>2516</v>
       </c>
     </row>
@@ -20795,23 +20787,23 @@
         <f t="shared" si="39"/>
         <v>2048</v>
       </c>
-      <c r="N116" s="27">
+      <c r="N116" s="26">
         <f t="shared" si="32"/>
         <v>3360.2</v>
       </c>
-      <c r="O116" s="24">
+      <c r="O116" s="23">
         <v>3359</v>
       </c>
-      <c r="P116" s="24">
+      <c r="P116" s="23">
         <v>3381</v>
       </c>
-      <c r="Q116" s="24">
+      <c r="Q116" s="23">
         <v>3410</v>
       </c>
-      <c r="R116" s="24">
+      <c r="R116" s="23">
         <v>3305</v>
       </c>
-      <c r="S116" s="24">
+      <c r="S116" s="23">
         <v>3346</v>
       </c>
     </row>

--- a/docs/Comparison.xlsx
+++ b/docs/Comparison.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8394" yWindow="0" windowWidth="22110" windowHeight="9402"/>
+    <workbookView xWindow="9336" yWindow="0" windowWidth="22110" windowHeight="9402"/>
   </bookViews>
   <sheets>
     <sheet name="Graphs" sheetId="4" r:id="rId1"/>
@@ -263,13 +263,13 @@
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1742,6 +1742,1591 @@
         <c:crossAx val="568984048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>TBB/</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Go Ratio</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Execution Time Records'!$Q$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Execution Time Records'!$L$4:$L$15</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Execution Time Records'!$Q$4:$Q$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.47530777292849657</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.54198458386184023</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.63983834080015034</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.79131858207270278</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.92362768496420045</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0608228980322005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0609477124183007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1558345642540619</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1914501566242859</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.97874174087905763</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.58456736353077821</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.25822015001013582</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B6F6-4DBB-90BC-8605B0A0A4FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Execution Time Records'!$R$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Execution Time Records'!$L$4:$L$15</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Execution Time Records'!$R$4:$R$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.47333726268767834</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55198755410176115</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.67113939831370362</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8189186059974527</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98158436213991773</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1548952052828021</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2038310412573674</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2297768479776847</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1956413242388955</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.047505605381166</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.63617373766476992</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.28221153846153846</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-B6F6-4DBB-90BC-8605B0A0A4FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Execution Time Records'!$S$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Execution Time Records'!$L$4:$L$15</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Execution Time Records'!$S$4:$S$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.4620528557687904</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.51630518678604509</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6336421078461445</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.78454515087406751</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.97157340224629751</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1699415825809878</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2636457260556127</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3191881918819188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2807123453063689</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1209800918836141</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.77046413502109701</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.29582456067207269</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-B6F6-4DBB-90BC-8605B0A0A4FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Execution Time Records'!$T$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Execution Time Records'!$L$4:$L$15</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Execution Time Records'!$T$4:$T$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.46701562620275577</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52357736110843467</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.63364318581884449</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.78648573802270838</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0995542347696881</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4456589243572229</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4446366782006919</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4842091469007992</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4747107008191394</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3109061930783243</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.84210526315789469</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.38947100004636281</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-B6F6-4DBB-90BC-8605B0A0A4FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="236654296"/>
+        <c:axId val="236652328"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Execution Time Records'!$M$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Execution Time Records'!$L$4:$L$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>128</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>256</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>512</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1024</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2048</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Execution Time Records'!$M$4:$M$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>0.46837963106977326</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.54649604846696054</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.67968363816114685</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.8382335050083134</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.9391283863368669</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.9913136784017168</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1.092593584319606</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1.142216315002492</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1.1621431660899655</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1.0821917808219177</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.78181121170121781</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.44950290323744035</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-B6F6-4DBB-90BC-8605B0A0A4FD}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Execution Time Records'!$N$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>2</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Execution Time Records'!$L$4:$L$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>128</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>256</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>512</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1024</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2048</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Execution Time Records'!$N$4:$N$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>0.46367107017331227</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.53755448318804488</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.66538256757179992</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.80950191570881225</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1.1993305172551207</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1.0724763559158463</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1.1413964057013013</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1.1212403100775192</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1.125357873210634</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1.0247337684644451</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.73541257874625643</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.36689382649900371</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-B6F6-4DBB-90BC-8605B0A0A4FD}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Execution Time Records'!$O$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>3</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Execution Time Records'!$L$4:$L$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>128</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>256</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>512</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1024</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2048</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Execution Time Records'!$O$4:$O$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>0.45457034220532322</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.54380401173392534</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.63843340444986274</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.83277382645803688</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1.086589436481445</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1.0496823379923761</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1.1393321513002366</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1.159551597051597</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1.1760119940029985</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1.0678887484197219</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.65103177202751394</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.32673048304709806</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-B6F6-4DBB-90BC-8605B0A0A4FD}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Execution Time Records'!$P$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>4</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Execution Time Records'!$L$4:$L$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>128</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>256</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>512</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1024</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2048</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Execution Time Records'!$P$4:$P$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>0.46647167154154479</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.52934647141299274</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.6506143290250519</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.80792136455623009</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.95596502186133658</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1.0785254008691745</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1.1936519931985641</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1.2227573750752558</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1.157092614302462</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.99167180752621842</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.57183159722222221</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.27870682392586349</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-B6F6-4DBB-90BC-8605B0A0A4FD}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="236654296"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+          <c:max val="2048"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tiles(VP)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="236652328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="236652328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Ratio</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="236654296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -8140,7 +9725,4790 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Go/TBB Ratio</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Execution Time Records'!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Execution Time Records'!$B$4:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Execution Time Records'!$C$4:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2.1350202563591685</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8298393973848777</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4712727272727273</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1929850024189648</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0648171374103246</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0087624349260347</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.91525340652877163</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8754909090909091</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.86047918120493139</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.92405063291139256</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2790811707905854</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.224679735765291</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-1044-4650-A5F4-15CB166CD788}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Execution Time Records'!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Execution Time Records'!$B$4:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Execution Time Records'!$D$4:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2.1567013003986149</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8602765510750743</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5028947987761827</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2353275274517228</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.83379851143009043</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.93242148834698113</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8761198081621574</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.89186946902654873</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.88860621479193169</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.97586322494133426</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3597809296447128</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.7255841548010227</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-1044-4650-A5F4-15CB166CD788}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Execution Time Records'!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Execution Time Records'!$B$4:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Execution Time Records'!$E$4:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2.199879550321199</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8388977985129027</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5663340812526856</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2008062312107133</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.92031080592699677</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9526691683815518</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.87770717157307732</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.86240233081711037</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.85033146353901068</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.93642713389369003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5360233447373717</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.0606265772142551</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-1044-4650-A5F4-15CB166CD788}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Execution Time Records'!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Execution Time Records'!$B$4:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Execution Time Records'!$F$4:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2.1437529029261495</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8891218776441157</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5370088782067004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2377442209976384</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.046063377981052</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.92719188550785037</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.83776511554289335</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8178237321516495</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.86423505572441739</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0083981337480559</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.7487666034155598</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.5879996977253836</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-1044-4650-A5F4-15CB166CD788}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="236654296"/>
+        <c:axId val="236652328"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Execution Time Records'!$G$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>5</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent5"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Execution Time Records'!$B$4:$B$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>128</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>256</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>512</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1024</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2048</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Execution Time Records'!$G$4:$G$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>2.1038999506335361</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.8450709296464318</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1.562894775498213</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1.2637135316356372</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1.0826873385012921</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.94266441821247882</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.9425535191744957</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.86517571884984035</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.83931333127126517</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1.0217199882594659</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1.7106668322364336</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>3.8726644685193907</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000009-1044-4650-A5F4-15CB166CD788}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Execution Time Records'!$H$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>6</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent6"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Execution Time Records'!$B$4:$B$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>128</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>256</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>512</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1024</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2048</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Execution Time Records'!$H$4:$H$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>2.1126585182029687</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.81163504968383</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1.4900034218116047</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1.2211225788208682</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1.0187611361492506</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.86587942821628339</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.83068135454916359</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.81315565636518294</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.83637122582440515</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.95464882943143814</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1.5718976449275361</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>3.5434412265758093</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000A-1044-4650-A5F4-15CB166CD788}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="6"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Execution Time Records'!$I$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>7</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Execution Time Records'!$B$4:$B$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>128</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>256</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>512</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1024</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2048</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Execution Time Records'!$I$4:$I$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>2.1642545598731164</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.9368389580296745</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1.578177945590086</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1.2746239000851547</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1.0292583120204604</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.85474353154788929</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.79136104319478406</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.75804195804195806</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.78081546075889696</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.89207650273224048</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1.2979189485213583</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>3.3803819322105566</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000B-1044-4650-A5F4-15CB166CD788}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="7"/>
+                <c:order val="7"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Execution Time Records'!$J$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>8</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Execution Time Records'!$B$4:$B$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>128</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>256</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>512</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1024</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2048</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Execution Time Records'!$J$4:$J$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>2.1412559749464317</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.9099374309900627</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1.5781752607466613</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1.2714788732394366</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.9094594594594595</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.69172609330698509</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.69221556886227553</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.67375949143563485</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.6780991006877094</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.7628310898827616</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1.1875</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2.5675852627819773</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000C-1044-4650-A5F4-15CB166CD788}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="236654296"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+          <c:max val="2048"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tiles(VP)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="236652328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="236652328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Ratio</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="236654296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Go/TBB Ratio</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Execution Time Records'!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Execution Time Records'!$B$4:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Execution Time Records'!$G$4:$G$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2.1038999506335361</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8450709296464318</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.562894775498213</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2637135316356372</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0826873385012921</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.94266441821247882</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.9425535191744957</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.86517571884984035</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.83931333127126517</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0217199882594659</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.7106668322364336</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.8726644685193907</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-953C-43C6-93DA-71FE4E1465AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Execution Time Records'!$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Execution Time Records'!$B$4:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Execution Time Records'!$H$4:$H$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2.1126585182029687</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.81163504968383</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4900034218116047</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2211225788208682</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0187611361492506</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.86587942821628339</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.83068135454916359</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.81315565636518294</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.83637122582440515</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.95464882943143814</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5718976449275361</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.5434412265758093</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-953C-43C6-93DA-71FE4E1465AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Execution Time Records'!$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Execution Time Records'!$B$4:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Execution Time Records'!$I$4:$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2.1642545598731164</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9368389580296745</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.578177945590086</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2746239000851547</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0292583120204604</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.85474353154788929</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.79136104319478406</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.75804195804195806</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.78081546075889696</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89207650273224048</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2979189485213583</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.3803819322105566</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-953C-43C6-93DA-71FE4E1465AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Execution Time Records'!$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Execution Time Records'!$B$4:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Execution Time Records'!$J$4:$J$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2.1412559749464317</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9099374309900627</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5781752607466613</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2714788732394366</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9094594594594595</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.69172609330698509</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.69221556886227553</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.67375949143563485</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.6780991006877094</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.7628310898827616</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1875</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.5675852627819773</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-953C-43C6-93DA-71FE4E1465AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="236654296"/>
+        <c:axId val="236652328"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Execution Time Records'!$C$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Execution Time Records'!$B$4:$B$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>128</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>256</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>512</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1024</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2048</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Execution Time Records'!$C$4:$C$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>2.1350202563591685</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.8298393973848777</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1.4712727272727273</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1.1929850024189648</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1.0648171374103246</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1.0087624349260347</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.91525340652877163</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.8754909090909091</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.86047918120493139</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.92405063291139256</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1.2790811707905854</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2.224679735765291</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-953C-43C6-93DA-71FE4E1465AE}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Execution Time Records'!$D$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>2</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Execution Time Records'!$B$4:$B$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>128</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>256</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>512</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1024</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2048</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Execution Time Records'!$D$4:$D$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>2.1567013003986149</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.8602765510750743</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1.5028947987761827</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1.2353275274517228</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.83379851143009043</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.93242148834698113</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.8761198081621574</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.89186946902654873</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.88860621479193169</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.97586322494133426</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1.3597809296447128</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2.7255841548010227</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-953C-43C6-93DA-71FE4E1465AE}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Execution Time Records'!$E$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>3</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Execution Time Records'!$B$4:$B$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>128</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>256</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>512</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1024</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2048</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Execution Time Records'!$E$4:$E$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>2.199879550321199</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.8388977985129027</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1.5663340812526856</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1.2008062312107133</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.92031080592699677</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.9526691683815518</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.87770717157307732</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.86240233081711037</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.85033146353901068</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.93642713389369003</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1.5360233447373717</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>3.0606265772142551</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-953C-43C6-93DA-71FE4E1465AE}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Execution Time Records'!$F$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>4</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Execution Time Records'!$B$4:$B$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>128</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>256</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>512</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1024</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2048</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Execution Time Records'!$F$4:$F$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>2.1437529029261495</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.8891218776441157</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1.5370088782067004</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1.2377442209976384</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1.046063377981052</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.92719188550785037</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.83776511554289335</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.8178237321516495</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.86423505572441739</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1.0083981337480559</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1.7487666034155598</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>3.5879996977253836</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-953C-43C6-93DA-71FE4E1465AE}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="236654296"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+          <c:max val="2048"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tiles(VP)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="236652328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="236652328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Ratio</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="236654296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>TBB/</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Go Ratio</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Execution Time Records'!$M$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Execution Time Records'!$L$4:$L$15</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Execution Time Records'!$M$4:$M$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.46837963106977326</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.54649604846696054</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.67968363816114685</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8382335050083134</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9391283863368669</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9913136784017168</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.092593584319606</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.142216315002492</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1621431660899655</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0821917808219177</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.78181121170121781</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.44950290323744035</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F170-4602-8A50-AF76A3E0989F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Execution Time Records'!$N$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Execution Time Records'!$L$4:$L$15</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Execution Time Records'!$N$4:$N$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.46367107017331227</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.53755448318804488</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66538256757179992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.80950191570881225</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1993305172551207</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0724763559158463</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1413964057013013</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1212403100775192</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.125357873210634</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0247337684644451</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.73541257874625643</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.36689382649900371</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F170-4602-8A50-AF76A3E0989F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Execution Time Records'!$O$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Execution Time Records'!$L$4:$L$15</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Execution Time Records'!$O$4:$O$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.45457034220532322</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.54380401173392534</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.63843340444986274</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.83277382645803688</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.086589436481445</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0496823379923761</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1393321513002366</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.159551597051597</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1760119940029985</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0678887484197219</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.65103177202751394</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.32673048304709806</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F170-4602-8A50-AF76A3E0989F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Execution Time Records'!$P$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Execution Time Records'!$L$4:$L$15</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Execution Time Records'!$P$4:$P$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.46647167154154479</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52934647141299274</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6506143290250519</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.80792136455623009</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.95596502186133658</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0785254008691745</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1936519931985641</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2227573750752558</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.157092614302462</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.99167180752621842</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.57183159722222221</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.27870682392586349</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F170-4602-8A50-AF76A3E0989F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="236654296"/>
+        <c:axId val="236652328"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="7"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Execution Time Records'!$Q$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>5</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Execution Time Records'!$L$4:$L$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>128</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>256</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>512</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1024</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2048</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Execution Time Records'!$Q$4:$Q$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>0.47530777292849657</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.54198458386184023</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.63983834080015034</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.79131858207270278</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.92362768496420045</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1.0608228980322005</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1.0609477124183007</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1.1558345642540619</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1.1914501566242859</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.97874174087905763</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.58456736353077821</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.25822015001013582</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000007-F170-4602-8A50-AF76A3E0989F}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Execution Time Records'!$R$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>6</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent5"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Execution Time Records'!$L$4:$L$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>128</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>256</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>512</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1024</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2048</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Execution Time Records'!$R$4:$R$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>0.47333726268767834</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.55198755410176115</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.67113939831370362</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.8189186059974527</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.98158436213991773</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1.1548952052828021</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1.2038310412573674</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1.2297768479776847</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1.1956413242388955</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1.047505605381166</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.63617373766476992</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.28221153846153846</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000008-F170-4602-8A50-AF76A3E0989F}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="6"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Execution Time Records'!$S$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>7</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent6"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Execution Time Records'!$L$4:$L$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>128</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>256</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>512</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1024</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2048</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Execution Time Records'!$S$4:$S$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>0.4620528557687904</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.51630518678604509</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.6336421078461445</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.78454515087406751</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.97157340224629751</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1.1699415825809878</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1.2636457260556127</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1.3191881918819188</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1.2807123453063689</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1.1209800918836141</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.77046413502109701</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.29582456067207269</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000009-F170-4602-8A50-AF76A3E0989F}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="7"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Execution Time Records'!$T$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>8</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Execution Time Records'!$L$4:$L$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>128</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>256</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>512</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1024</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2048</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Execution Time Records'!$T$4:$T$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>0.46701562620275577</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.52357736110843467</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.63364318581884449</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.78648573802270838</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1.0995542347696881</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1.4456589243572229</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1.4446366782006919</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1.4842091469007992</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1.4747107008191394</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1.3109061930783243</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.84210526315789469</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.38947100004636281</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000A-F170-4602-8A50-AF76A3E0989F}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="236654296"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+          <c:max val="2048"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tiles(VP)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="236652328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="236652328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Ratio</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="236654296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8380,6 +14748,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -8896,7 +15384,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9412,7 +15900,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9928,7 +16416,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10444,7 +16932,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10960,7 +17448,2071 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11665,6 +20217,134 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 13"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -12012,10 +20692,10 @@
       <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="37"/>
+      <c r="D5" s="38"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="13" t="s">
@@ -12525,17 +21205,17 @@
       <c r="B22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="37" t="s">
+      <c r="C22" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="D22" s="37"/>
+      <c r="D22" s="38"/>
       <c r="E22"/>
       <c r="F22"/>
       <c r="G22"/>
-      <c r="H22" s="38" t="s">
+      <c r="H22" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="I22" s="38"/>
+      <c r="I22" s="39"/>
       <c r="J22" s="5">
         <f>'Execution Time Records'!D20</f>
         <v>12455</v>
@@ -13494,10 +22174,10 @@
       <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="37"/>
+      <c r="D5" s="38"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
@@ -14016,14 +22696,14 @@
       <c r="B22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="37" t="s">
+      <c r="C22" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="D22" s="37"/>
-      <c r="H22" s="38" t="s">
+      <c r="D22" s="38"/>
+      <c r="H22" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="I22" s="38"/>
+      <c r="I22" s="39"/>
       <c r="J22" s="5">
         <f>'Execution Time Records'!N20</f>
         <v>5993.2</v>
@@ -14527,7 +23207,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T116"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -14554,7 +23234,7 @@
       <c r="B2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="37" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="2"/>
@@ -14567,7 +23247,7 @@
       <c r="L2" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="39" t="s">
+      <c r="M2" s="37" t="s">
         <v>10</v>
       </c>
       <c r="N2" s="2"/>
